--- a/output/experiments/thesis_topic1/6h-bat-12months-0dc.xlsx
+++ b/output/experiments/thesis_topic1/6h-bat-12months-0dc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="157">
   <si>
     <t>status</t>
   </si>
@@ -419,6 +419,72 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -7528,7 +7594,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
@@ -7584,8 +7650,104 @@
       <c r="T46">
         <v>0.03</v>
       </c>
+      <c r="U46">
+        <v>262.2660060392818</v>
+      </c>
+      <c r="V46">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W46">
+        <v>3833.5123623</v>
+      </c>
       <c r="X46" t="s">
         <v>129</v>
+      </c>
+      <c r="Y46">
+        <v>262.2660060392818</v>
+      </c>
+      <c r="Z46">
+        <v>244.2660060392818</v>
+      </c>
+      <c r="AA46">
+        <v>18</v>
+      </c>
+      <c r="AB46">
+        <v>18</v>
+      </c>
+      <c r="AC46">
+        <v>438</v>
+      </c>
+      <c r="AD46">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0.1222115672442186</v>
+      </c>
+      <c r="AH46">
+        <v>0.1222115672442186</v>
+      </c>
+      <c r="AI46">
+        <v>0.1138238686491271</v>
+      </c>
+      <c r="AK46">
+        <v>105.5384883845026</v>
+      </c>
+      <c r="AL46">
+        <v>138.7275176547792</v>
+      </c>
+      <c r="AN46">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO46">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP46">
+        <v>530.2951205625097</v>
+      </c>
+      <c r="AQ46">
+        <v>2145.999858713772</v>
+      </c>
+      <c r="AR46">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS46">
+        <v>1121.147144839894</v>
+      </c>
+      <c r="AT46">
+        <v>59.38494341319783</v>
+      </c>
+      <c r="AU46">
+        <v>147.6283035259667</v>
+      </c>
+      <c r="AV46">
+        <v>8.900785871187464</v>
+      </c>
+      <c r="AW46">
+        <v>175.8974806408376</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>-9.385315641953596</v>
+      </c>
+      <c r="BA46">
+        <v>11.20969912745068</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:55">
@@ -7593,7 +7755,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
@@ -7643,8 +7805,104 @@
       <c r="R47" t="s">
         <v>82</v>
       </c>
+      <c r="U47">
+        <v>258.4047588903292</v>
+      </c>
+      <c r="V47">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W47">
+        <v>4033.925197</v>
+      </c>
       <c r="X47" t="s">
         <v>130</v>
+      </c>
+      <c r="Y47">
+        <v>258.4047588903292</v>
+      </c>
+      <c r="Z47">
+        <v>240.4047588903292</v>
+      </c>
+      <c r="AA47">
+        <v>18</v>
+      </c>
+      <c r="AB47">
+        <v>18</v>
+      </c>
+      <c r="AC47">
+        <v>438</v>
+      </c>
+      <c r="AD47">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0.120412290728298</v>
+      </c>
+      <c r="AH47">
+        <v>0.120412290728298</v>
+      </c>
+      <c r="AI47">
+        <v>0.1120245921332065</v>
+      </c>
+      <c r="AK47">
+        <v>104.352103293657</v>
+      </c>
+      <c r="AL47">
+        <v>136.0526555966723</v>
+      </c>
+      <c r="AN47">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO47">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP47">
+        <v>530.2951205625108</v>
+      </c>
+      <c r="AQ47">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AR47">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS47">
+        <v>1141.15249835448</v>
+      </c>
+      <c r="AT47">
+        <v>79.84651896363023</v>
+      </c>
+      <c r="AU47">
+        <v>148.8094772308305</v>
+      </c>
+      <c r="AV47">
+        <v>12.75682163415826</v>
+      </c>
+      <c r="AW47">
+        <v>173.920172156095</v>
+      </c>
+      <c r="AX47">
+        <v>1.4210854715202E-14</v>
+      </c>
+      <c r="AY47">
+        <v>2.40941578546783E-15</v>
+      </c>
+      <c r="AZ47">
+        <v>-9.013058559235162</v>
+      </c>
+      <c r="BA47">
+        <v>11.60523589830271</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:55">
@@ -7652,7 +7910,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
@@ -7702,16 +7960,112 @@
       <c r="R48" t="s">
         <v>82</v>
       </c>
+      <c r="U48">
+        <v>260.2847592937417</v>
+      </c>
+      <c r="V48">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W48">
+        <v>4446.970332099998</v>
+      </c>
       <c r="X48" t="s">
         <v>131</v>
       </c>
+      <c r="Y48">
+        <v>260.2847592937417</v>
+      </c>
+      <c r="Z48">
+        <v>242.2847592937417</v>
+      </c>
+      <c r="AA48">
+        <v>18</v>
+      </c>
+      <c r="AB48">
+        <v>18</v>
+      </c>
+      <c r="AC48">
+        <v>438</v>
+      </c>
+      <c r="AD48">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0.1212883394362132</v>
+      </c>
+      <c r="AH48">
+        <v>0.1212883394362132</v>
+      </c>
+      <c r="AI48">
+        <v>0.1129006408411218</v>
+      </c>
+      <c r="AK48">
+        <v>105.50034</v>
+      </c>
+      <c r="AL48">
+        <v>136.7844192937417</v>
+      </c>
+      <c r="AN48">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO48">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP48">
+        <v>530.2951205625101</v>
+      </c>
+      <c r="AQ48">
+        <v>2145.999858713772</v>
+      </c>
+      <c r="AR48">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS48">
+        <v>1144.915344240466</v>
+      </c>
+      <c r="AT48">
+        <v>83.55685422346333</v>
+      </c>
+      <c r="AU48">
+        <v>149.9295161276266</v>
+      </c>
+      <c r="AV48">
+        <v>13.14509683388491</v>
+      </c>
+      <c r="AW48">
+        <v>175.8339</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>-13.0012</v>
+      </c>
+      <c r="BA48">
+        <v>14.71709999999999</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:55">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -7761,16 +8115,112 @@
       <c r="R49" t="s">
         <v>83</v>
       </c>
+      <c r="U49">
+        <v>284.9565950485669</v>
+      </c>
+      <c r="V49">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W49">
+        <v>2710.704485999999</v>
+      </c>
       <c r="X49" t="s">
         <v>132</v>
       </c>
+      <c r="Y49">
+        <v>284.9565950485669</v>
+      </c>
+      <c r="Z49">
+        <v>266.9565950485669</v>
+      </c>
+      <c r="AA49">
+        <v>18</v>
+      </c>
+      <c r="AB49">
+        <v>18</v>
+      </c>
+      <c r="AC49">
+        <v>438</v>
+      </c>
+      <c r="AD49">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0.1327850017750508</v>
+      </c>
+      <c r="AH49">
+        <v>0.1327850017750508</v>
+      </c>
+      <c r="AI49">
+        <v>0.1243973031799593</v>
+      </c>
+      <c r="AK49">
+        <v>82.82579859399051</v>
+      </c>
+      <c r="AL49">
+        <v>184.1307964545764</v>
+      </c>
+      <c r="AN49">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO49">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP49">
+        <v>530.2951205625095</v>
+      </c>
+      <c r="AQ49">
+        <v>2145.999858713772</v>
+      </c>
+      <c r="AR49">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS49">
+        <v>1050.96200448077</v>
+      </c>
+      <c r="AT49">
+        <v>10.15305457700342</v>
+      </c>
+      <c r="AU49">
+        <v>185.1378177561841</v>
+      </c>
+      <c r="AV49">
+        <v>1.007021301607659</v>
+      </c>
+      <c r="AW49">
+        <v>138.0429976566509</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:55">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -7820,16 +8270,112 @@
       <c r="R50" t="s">
         <v>82</v>
       </c>
+      <c r="U50">
+        <v>279.8042476898588</v>
+      </c>
+      <c r="V50">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W50">
+        <v>4387.461890799997</v>
+      </c>
       <c r="X50" t="s">
         <v>133</v>
       </c>
+      <c r="Y50">
+        <v>279.8042476898588</v>
+      </c>
+      <c r="Z50">
+        <v>261.8042476898588</v>
+      </c>
+      <c r="AA50">
+        <v>18</v>
+      </c>
+      <c r="AB50">
+        <v>18</v>
+      </c>
+      <c r="AC50">
+        <v>438</v>
+      </c>
+      <c r="AD50">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0.1251541445308369</v>
+      </c>
+      <c r="AH50">
+        <v>0.1251541445308369</v>
+      </c>
+      <c r="AI50">
+        <v>0.1171028921994138</v>
+      </c>
+      <c r="AK50">
+        <v>88.56148183918201</v>
+      </c>
+      <c r="AL50">
+        <v>173.2427658506767</v>
+      </c>
+      <c r="AN50">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO50">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP50">
+        <v>594.7664934678278</v>
+      </c>
+      <c r="AQ50">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR50">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS50">
+        <v>1285.964522065926</v>
+      </c>
+      <c r="AT50">
+        <v>14.4013131946794</v>
+      </c>
+      <c r="AU50">
+        <v>175.771869193534</v>
+      </c>
+      <c r="AV50">
+        <v>2.529103342857288</v>
+      </c>
+      <c r="AW50">
+        <v>147.60246973197</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:55">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
@@ -7879,16 +8425,112 @@
       <c r="R51" t="s">
         <v>82</v>
       </c>
+      <c r="U51">
+        <v>292.7609801839723</v>
+      </c>
+      <c r="V51">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W51">
+        <v>4030.136146800003</v>
+      </c>
       <c r="X51" t="s">
         <v>134</v>
       </c>
+      <c r="Y51">
+        <v>292.7609801839723</v>
+      </c>
+      <c r="Z51">
+        <v>274.7609801839723</v>
+      </c>
+      <c r="AA51">
+        <v>18</v>
+      </c>
+      <c r="AB51">
+        <v>18</v>
+      </c>
+      <c r="AC51">
+        <v>438</v>
+      </c>
+      <c r="AD51">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0.1309495846808844</v>
+      </c>
+      <c r="AH51">
+        <v>0.1309495846808844</v>
+      </c>
+      <c r="AI51">
+        <v>0.1228983323494613</v>
+      </c>
+      <c r="AK51">
+        <v>107.68123944</v>
+      </c>
+      <c r="AL51">
+        <v>167.0797407439723</v>
+      </c>
+      <c r="AN51">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO51">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP51">
+        <v>594.7664934678289</v>
+      </c>
+      <c r="AQ51">
+        <v>2235.677042408433</v>
+      </c>
+      <c r="AR51">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS51">
+        <v>1312.457451321724</v>
+      </c>
+      <c r="AT51">
+        <v>38.47064451534432</v>
+      </c>
+      <c r="AU51">
+        <v>172.530150427372</v>
+      </c>
+      <c r="AV51">
+        <v>5.450409683399677</v>
+      </c>
+      <c r="AW51">
+        <v>179.4687324</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>-15.2578629</v>
+      </c>
+      <c r="BA51">
+        <v>13.17740139999999</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:55">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
@@ -7944,13 +8586,112 @@
       <c r="T52">
         <v>0.03</v>
       </c>
+      <c r="U52">
+        <v>295.617149213758</v>
+      </c>
+      <c r="V52">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W52">
+        <v>3931.3031061</v>
+      </c>
+      <c r="X52" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y52">
+        <v>295.617149213758</v>
+      </c>
+      <c r="Z52">
+        <v>277.617149213758</v>
+      </c>
+      <c r="AA52">
+        <v>18</v>
+      </c>
+      <c r="AB52">
+        <v>18</v>
+      </c>
+      <c r="AC52">
+        <v>438</v>
+      </c>
+      <c r="AD52">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0.1322271256564401</v>
+      </c>
+      <c r="AH52">
+        <v>0.1322271256564401</v>
+      </c>
+      <c r="AI52">
+        <v>0.124175873325017</v>
+      </c>
+      <c r="AK52">
+        <v>106.5524323930363</v>
+      </c>
+      <c r="AL52">
+        <v>171.0647168207217</v>
+      </c>
+      <c r="AN52">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO52">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP52">
+        <v>594.7664934678266</v>
+      </c>
+      <c r="AQ52">
+        <v>2235.677042408431</v>
+      </c>
+      <c r="AR52">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS52">
+        <v>1297.953277489722</v>
+      </c>
+      <c r="AT52">
+        <v>23.34038034240138</v>
+      </c>
+      <c r="AU52">
+        <v>174.650096176834</v>
+      </c>
+      <c r="AV52">
+        <v>3.585379356112319</v>
+      </c>
+      <c r="AW52">
+        <v>177.5873873217271</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>-8.619366273493114</v>
+      </c>
+      <c r="BA52">
+        <v>11.32812621883937</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:55">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -8000,13 +8741,112 @@
       <c r="R53" t="s">
         <v>82</v>
       </c>
+      <c r="U53">
+        <v>291.7028864449949</v>
+      </c>
+      <c r="V53">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W53">
+        <v>3975.282230500001</v>
+      </c>
+      <c r="X53" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y53">
+        <v>291.7028864449949</v>
+      </c>
+      <c r="Z53">
+        <v>273.7028864449949</v>
+      </c>
+      <c r="AA53">
+        <v>18</v>
+      </c>
+      <c r="AB53">
+        <v>18</v>
+      </c>
+      <c r="AC53">
+        <v>438</v>
+      </c>
+      <c r="AD53">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0.1304763080318397</v>
+      </c>
+      <c r="AH53">
+        <v>0.1304763080318397</v>
+      </c>
+      <c r="AI53">
+        <v>0.1224250557004166</v>
+      </c>
+      <c r="AK53">
+        <v>106.248898163098</v>
+      </c>
+      <c r="AL53">
+        <v>167.4539882818969</v>
+      </c>
+      <c r="AN53">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO53">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP53">
+        <v>594.7664934678277</v>
+      </c>
+      <c r="AQ53">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR53">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS53">
+        <v>1303.859593799798</v>
+      </c>
+      <c r="AT53">
+        <v>29.98390325381862</v>
+      </c>
+      <c r="AU53">
+        <v>172.1591570654977</v>
+      </c>
+      <c r="AV53">
+        <v>4.705168783600845</v>
+      </c>
+      <c r="AW53">
+        <v>177.0814969384967</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>-11.5999000202558</v>
+      </c>
+      <c r="BA53">
+        <v>15.29257621962125</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:55">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -8056,13 +8896,112 @@
       <c r="R54" t="s">
         <v>82</v>
       </c>
+      <c r="U54">
+        <v>291.5055843894879</v>
+      </c>
+      <c r="V54">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W54">
+        <v>5450.569147900002</v>
+      </c>
+      <c r="X54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y54">
+        <v>291.5055843894879</v>
+      </c>
+      <c r="Z54">
+        <v>273.5055843894879</v>
+      </c>
+      <c r="AA54">
+        <v>18</v>
+      </c>
+      <c r="AB54">
+        <v>18</v>
+      </c>
+      <c r="AC54">
+        <v>438</v>
+      </c>
+      <c r="AD54">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0.13038805644104</v>
+      </c>
+      <c r="AH54">
+        <v>0.13038805644104</v>
+      </c>
+      <c r="AI54">
+        <v>0.1223368041096169</v>
+      </c>
+      <c r="AK54">
+        <v>105.43656</v>
+      </c>
+      <c r="AL54">
+        <v>168.0690243894879</v>
+      </c>
+      <c r="AN54">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO54">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP54">
+        <v>594.7664934678277</v>
+      </c>
+      <c r="AQ54">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR54">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS54">
+        <v>1304.852722408536</v>
+      </c>
+      <c r="AT54">
+        <v>31.11977830322859</v>
+      </c>
+      <c r="AU54">
+        <v>173.0534162334917</v>
+      </c>
+      <c r="AV54">
+        <v>4.984391844003758</v>
+      </c>
+      <c r="AW54">
+        <v>175.7276</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>-14.2308</v>
+      </c>
+      <c r="BA54">
+        <v>17.12100000000001</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:55">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -8112,13 +9051,112 @@
       <c r="R55" t="s">
         <v>83</v>
       </c>
+      <c r="U55">
+        <v>348.3531467499972</v>
+      </c>
+      <c r="V55">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W55">
+        <v>2685.3571257</v>
+      </c>
+      <c r="X55" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y55">
+        <v>348.3531467499972</v>
+      </c>
+      <c r="Z55">
+        <v>330.3531467499972</v>
+      </c>
+      <c r="AA55">
+        <v>18</v>
+      </c>
+      <c r="AB55">
+        <v>18</v>
+      </c>
+      <c r="AC55">
+        <v>438</v>
+      </c>
+      <c r="AD55">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0.1558155047183051</v>
+      </c>
+      <c r="AH55">
+        <v>0.1558155047183051</v>
+      </c>
+      <c r="AI55">
+        <v>0.147764252386882</v>
+      </c>
+      <c r="AK55">
+        <v>108.7429839565256</v>
+      </c>
+      <c r="AL55">
+        <v>221.6101627934716</v>
+      </c>
+      <c r="AN55">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO55">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP55">
+        <v>594.7664934678266</v>
+      </c>
+      <c r="AQ55">
+        <v>2235.677042408431</v>
+      </c>
+      <c r="AR55">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS55">
+        <v>1252.275043262551</v>
+      </c>
+      <c r="AT55">
+        <v>6.041711070304707E-15</v>
+      </c>
+      <c r="AU55">
+        <v>221.6101627934716</v>
+      </c>
+      <c r="AV55">
+        <v>4.94580687623598E-16</v>
+      </c>
+      <c r="AW55">
+        <v>181.2383065942093</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:55">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
@@ -8168,13 +9206,112 @@
       <c r="R56" t="s">
         <v>82</v>
       </c>
+      <c r="U56">
+        <v>339.9099808382464</v>
+      </c>
+      <c r="V56">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W56">
+        <v>5750.6801012</v>
+      </c>
+      <c r="X56" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y56">
+        <v>339.9099808382464</v>
+      </c>
+      <c r="Z56">
+        <v>321.9099808382464</v>
+      </c>
+      <c r="AA56">
+        <v>18</v>
+      </c>
+      <c r="AB56">
+        <v>18</v>
+      </c>
+      <c r="AC56">
+        <v>438</v>
+      </c>
+      <c r="AD56">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0.1262058737853988</v>
+      </c>
+      <c r="AH56">
+        <v>0.1262058737853988</v>
+      </c>
+      <c r="AI56">
+        <v>0.1195226168756283</v>
+      </c>
+      <c r="AK56">
+        <v>80.86705990883939</v>
+      </c>
+      <c r="AL56">
+        <v>251.3858279808226</v>
+      </c>
+      <c r="AN56">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO56">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP56">
+        <v>832.0349031040996</v>
+      </c>
+      <c r="AQ56">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR56">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS56">
+        <v>1787.098664323865</v>
+      </c>
+      <c r="AT56">
+        <v>1.132270747749477E-14</v>
+      </c>
+      <c r="AU56">
+        <v>251.3858279808226</v>
+      </c>
+      <c r="AV56">
+        <v>1.503367514510692E-15</v>
+      </c>
+      <c r="AW56">
+        <v>134.778433181399</v>
+      </c>
+      <c r="AX56">
+        <v>61.00298268443768</v>
+      </c>
+      <c r="AY56">
+        <v>10.34290705141556</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:55">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -8224,13 +9361,112 @@
       <c r="R57" t="s">
         <v>82</v>
       </c>
+      <c r="U57">
+        <v>379.5845586066452</v>
+      </c>
+      <c r="V57">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W57">
+        <v>5201.595179800002</v>
+      </c>
+      <c r="X57" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y57">
+        <v>379.5845586066452</v>
+      </c>
+      <c r="Z57">
+        <v>361.5845586066452</v>
+      </c>
+      <c r="AA57">
+        <v>18</v>
+      </c>
+      <c r="AB57">
+        <v>18</v>
+      </c>
+      <c r="AC57">
+        <v>438</v>
+      </c>
+      <c r="AD57">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0.1409367291194477</v>
+      </c>
+      <c r="AH57">
+        <v>0.1409367291194477</v>
+      </c>
+      <c r="AI57">
+        <v>0.1342534722096771</v>
+      </c>
+      <c r="AK57">
+        <v>116.4712629</v>
+      </c>
+      <c r="AL57">
+        <v>245.1132957066452</v>
+      </c>
+      <c r="AN57">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO57">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP57">
+        <v>832.0349031040992</v>
+      </c>
+      <c r="AQ57">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR57">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS57">
+        <v>1796.774582892221</v>
+      </c>
+      <c r="AT57">
+        <v>10.09007536551623</v>
+      </c>
+      <c r="AU57">
+        <v>246.3413087536111</v>
+      </c>
+      <c r="AV57">
+        <v>1.228013046965983</v>
+      </c>
+      <c r="AW57">
+        <v>194.1187715</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>-8.451232900000001</v>
+      </c>
+      <c r="BA57">
+        <v>25.23137149999999</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:55">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>57</v>
@@ -8286,13 +9522,112 @@
       <c r="T58">
         <v>0.03</v>
       </c>
+      <c r="U58">
+        <v>379.4151501538985</v>
+      </c>
+      <c r="V58">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W58">
+        <v>6330.245447200003</v>
+      </c>
+      <c r="X58" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y58">
+        <v>379.4151501538985</v>
+      </c>
+      <c r="Z58">
+        <v>361.4151501538985</v>
+      </c>
+      <c r="AA58">
+        <v>18</v>
+      </c>
+      <c r="AB58">
+        <v>18</v>
+      </c>
+      <c r="AC58">
+        <v>438</v>
+      </c>
+      <c r="AD58">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0.140873829107648</v>
+      </c>
+      <c r="AH58">
+        <v>0.140873829107648</v>
+      </c>
+      <c r="AI58">
+        <v>0.1341905721978775</v>
+      </c>
+      <c r="AK58">
+        <v>109.6013300389899</v>
+      </c>
+      <c r="AL58">
+        <v>251.8138201149086</v>
+      </c>
+      <c r="AN58">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO58">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP58">
+        <v>832.0349031040996</v>
+      </c>
+      <c r="AQ58">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR58">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS58">
+        <v>1796.049778232729</v>
+      </c>
+      <c r="AT58">
+        <v>8.617860988170206</v>
+      </c>
+      <c r="AU58">
+        <v>252.9665467041261</v>
+      </c>
+      <c r="AV58">
+        <v>1.152726589217446</v>
+      </c>
+      <c r="AW58">
+        <v>182.6688833983165</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>-10.65286419874322</v>
+      </c>
+      <c r="BA58">
+        <v>13.78148339831651</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:55">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -8342,13 +9677,112 @@
       <c r="R59" t="s">
         <v>82</v>
       </c>
+      <c r="U59">
+        <v>371.077782584034</v>
+      </c>
+      <c r="V59">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W59">
+        <v>6907.5192914</v>
+      </c>
+      <c r="X59" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y59">
+        <v>371.077782584034</v>
+      </c>
+      <c r="Z59">
+        <v>353.077782584034</v>
+      </c>
+      <c r="AA59">
+        <v>18</v>
+      </c>
+      <c r="AB59">
+        <v>18</v>
+      </c>
+      <c r="AC59">
+        <v>438</v>
+      </c>
+      <c r="AD59">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0.137778230806504</v>
+      </c>
+      <c r="AH59">
+        <v>0.137778230806504</v>
+      </c>
+      <c r="AI59">
+        <v>0.1310949738967335</v>
+      </c>
+      <c r="AK59">
+        <v>108.1378678442093</v>
+      </c>
+      <c r="AL59">
+        <v>244.9399147398246</v>
+      </c>
+      <c r="AN59">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO59">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP59">
+        <v>832.0349031040981</v>
+      </c>
+      <c r="AQ59">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AR59">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS59">
+        <v>1789.730092562394</v>
+      </c>
+      <c r="AT59">
+        <v>3.057682280286955</v>
+      </c>
+      <c r="AU59">
+        <v>245.3841408104739</v>
+      </c>
+      <c r="AV59">
+        <v>0.4442260706492276</v>
+      </c>
+      <c r="AW59">
+        <v>180.2297797403489</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>-12.71181636181905</v>
+      </c>
+      <c r="BA59">
+        <v>11.8668929871788</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:55">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
@@ -8398,13 +9832,112 @@
       <c r="R60" t="s">
         <v>82</v>
       </c>
+      <c r="U60">
+        <v>372.3568503378455</v>
+      </c>
+      <c r="V60">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W60">
+        <v>6237.529884100004</v>
+      </c>
+      <c r="X60" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y60">
+        <v>372.3568503378455</v>
+      </c>
+      <c r="Z60">
+        <v>354.3568503378455</v>
+      </c>
+      <c r="AA60">
+        <v>18</v>
+      </c>
+      <c r="AB60">
+        <v>18</v>
+      </c>
+      <c r="AC60">
+        <v>438</v>
+      </c>
+      <c r="AD60">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0.1382531384955999</v>
+      </c>
+      <c r="AH60">
+        <v>0.1382531384955999</v>
+      </c>
+      <c r="AI60">
+        <v>0.1315698815858293</v>
+      </c>
+      <c r="AK60">
+        <v>108.11478</v>
+      </c>
+      <c r="AL60">
+        <v>246.2420703378455</v>
+      </c>
+      <c r="AN60">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO60">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP60">
+        <v>832.0349031040981</v>
+      </c>
+      <c r="AQ60">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AR60">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS60">
+        <v>1792.994773694176</v>
+      </c>
+      <c r="AT60">
+        <v>6.386505981580964</v>
+      </c>
+      <c r="AU60">
+        <v>247.1574211178378</v>
+      </c>
+      <c r="AV60">
+        <v>0.9153507799922929</v>
+      </c>
+      <c r="AW60">
+        <v>180.1913</v>
+      </c>
+      <c r="AX60">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="AY60">
+        <v>1.204707892733915E-15</v>
+      </c>
+      <c r="AZ60">
+        <v>-16.59869999999999</v>
+      </c>
+      <c r="BA60">
+        <v>15.94899999999999</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:55">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>55</v>
       </c>
       <c r="C61" t="s">
         <v>57</v>
@@ -8454,13 +9987,112 @@
       <c r="R61" t="s">
         <v>83</v>
       </c>
+      <c r="U61">
+        <v>440.3534665142407</v>
+      </c>
+      <c r="V61">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W61">
+        <v>3381.067985399997</v>
+      </c>
+      <c r="X61" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y61">
+        <v>440.3534665142407</v>
+      </c>
+      <c r="Z61">
+        <v>422.3534665142407</v>
+      </c>
+      <c r="AA61">
+        <v>18</v>
+      </c>
+      <c r="AB61">
+        <v>18</v>
+      </c>
+      <c r="AC61">
+        <v>438</v>
+      </c>
+      <c r="AD61">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0.1634997415457058</v>
+      </c>
+      <c r="AH61">
+        <v>0.1634997415457058</v>
+      </c>
+      <c r="AI61">
+        <v>0.1568164846359352</v>
+      </c>
+      <c r="AK61">
+        <v>103.1540411937717</v>
+      </c>
+      <c r="AL61">
+        <v>319.199425320469</v>
+      </c>
+      <c r="AN61">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO61">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP61">
+        <v>832.0349031040996</v>
+      </c>
+      <c r="AQ61">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AR61">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS61">
+        <v>1762.218360629182</v>
+      </c>
+      <c r="AT61">
+        <v>3.854843615182527E-15</v>
+      </c>
+      <c r="AU61">
+        <v>319.199425320469</v>
+      </c>
+      <c r="AV61">
+        <v>3.394555225146606E-16</v>
+      </c>
+      <c r="AW61">
+        <v>171.9234019896195</v>
+      </c>
+      <c r="AX61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:55">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>55</v>
       </c>
       <c r="C62" t="s">
         <v>57</v>
@@ -8510,13 +10142,112 @@
       <c r="R62" t="s">
         <v>82</v>
       </c>
+      <c r="U62">
+        <v>387.0368013301947</v>
+      </c>
+      <c r="V62">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W62">
+        <v>5013.3131851</v>
+      </c>
+      <c r="X62" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y62">
+        <v>387.0368013301947</v>
+      </c>
+      <c r="Z62">
+        <v>369.0368013301947</v>
+      </c>
+      <c r="AA62">
+        <v>18</v>
+      </c>
+      <c r="AB62">
+        <v>18</v>
+      </c>
+      <c r="AC62">
+        <v>438</v>
+      </c>
+      <c r="AD62">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0.1538528705178948</v>
+      </c>
+      <c r="AH62">
+        <v>0.1538528705178948</v>
+      </c>
+      <c r="AI62">
+        <v>0.1466976034740266</v>
+      </c>
+      <c r="AK62">
+        <v>101.0670155130132</v>
+      </c>
+      <c r="AL62">
+        <v>267.9697858171814</v>
+      </c>
+      <c r="AN62">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO62">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP62">
+        <v>754.4330897207801</v>
+      </c>
+      <c r="AQ62">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR62">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS62">
+        <v>1914.615875829374</v>
+      </c>
+      <c r="AT62">
+        <v>0.9686625835503768</v>
+      </c>
+      <c r="AU62">
+        <v>268.1406578969197</v>
+      </c>
+      <c r="AV62">
+        <v>0.170872079738286</v>
+      </c>
+      <c r="AW62">
+        <v>168.445025855022</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:55">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>57</v>
@@ -8566,13 +10297,112 @@
       <c r="R63" t="s">
         <v>82</v>
       </c>
+      <c r="U63">
+        <v>396.1782064984418</v>
+      </c>
+      <c r="V63">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W63">
+        <v>5627.3846806</v>
+      </c>
+      <c r="X63" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y63">
+        <v>396.1782064984418</v>
+      </c>
+      <c r="Z63">
+        <v>378.1782064984418</v>
+      </c>
+      <c r="AA63">
+        <v>18</v>
+      </c>
+      <c r="AB63">
+        <v>18</v>
+      </c>
+      <c r="AC63">
+        <v>438</v>
+      </c>
+      <c r="AD63">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0.1574867146920618</v>
+      </c>
+      <c r="AH63">
+        <v>0.1574867146920618</v>
+      </c>
+      <c r="AI63">
+        <v>0.1503314476481936</v>
+      </c>
+      <c r="AK63">
+        <v>110.84218206</v>
+      </c>
+      <c r="AL63">
+        <v>267.3360244384418</v>
+      </c>
+      <c r="AN63">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO63">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP63">
+        <v>754.4330897207792</v>
+      </c>
+      <c r="AQ63">
+        <v>2515.62938037726</v>
+      </c>
+      <c r="AR63">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS63">
+        <v>1933.060617902024</v>
+      </c>
+      <c r="AT63">
+        <v>18.6036030210154</v>
+      </c>
+      <c r="AU63">
+        <v>269.6858673129335</v>
+      </c>
+      <c r="AV63">
+        <v>2.349842874491725</v>
+      </c>
+      <c r="AW63">
+        <v>184.7369701</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>-62.6875752</v>
+      </c>
+      <c r="BA63">
+        <v>15.84957010000001</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:55">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>56</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
@@ -8628,13 +10458,16 @@
       <c r="T64">
         <v>0.03</v>
       </c>
+      <c r="X64" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:55">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>55</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
@@ -8684,13 +10517,112 @@
       <c r="R65" t="s">
         <v>82</v>
       </c>
+      <c r="U65">
+        <v>407.2017529277634</v>
+      </c>
+      <c r="V65">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W65">
+        <v>4420.745734000004</v>
+      </c>
+      <c r="X65" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y65">
+        <v>407.2017529277634</v>
+      </c>
+      <c r="Z65">
+        <v>389.2017529277634</v>
+      </c>
+      <c r="AA65">
+        <v>18</v>
+      </c>
+      <c r="AB65">
+        <v>18</v>
+      </c>
+      <c r="AC65">
+        <v>438</v>
+      </c>
+      <c r="AD65">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0.1618687379405215</v>
+      </c>
+      <c r="AH65">
+        <v>0.1618687379405215</v>
+      </c>
+      <c r="AI65">
+        <v>0.1547134708966533</v>
+      </c>
+      <c r="AK65">
+        <v>122.26998</v>
+      </c>
+      <c r="AL65">
+        <v>266.9317729277635</v>
+      </c>
+      <c r="AN65">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO65">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP65">
+        <v>754.4330897207806</v>
+      </c>
+      <c r="AQ65">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR65">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS65">
+        <v>1926.68732245002</v>
+      </c>
+      <c r="AT65">
+        <v>12.06870089379677</v>
+      </c>
+      <c r="AU65">
+        <v>268.5970914800606</v>
+      </c>
+      <c r="AV65">
+        <v>1.665318552297167</v>
+      </c>
+      <c r="AW65">
+        <v>203.7833</v>
+      </c>
+      <c r="AX65">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AY65">
+        <v>6.023546448786179E-16</v>
+      </c>
+      <c r="AZ65">
+        <v>-61.13808536617337</v>
+      </c>
+      <c r="BA65">
+        <v>52.16011448297026</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:55">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>55</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
@@ -8740,13 +10672,112 @@
       <c r="R66" t="s">
         <v>82</v>
       </c>
+      <c r="U66">
+        <v>402.0395629716839</v>
+      </c>
+      <c r="V66">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W66">
+        <v>4984.711459400001</v>
+      </c>
+      <c r="X66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y66">
+        <v>402.0395629716839</v>
+      </c>
+      <c r="Z66">
+        <v>384.0395629716839</v>
+      </c>
+      <c r="AA66">
+        <v>18</v>
+      </c>
+      <c r="AB66">
+        <v>18</v>
+      </c>
+      <c r="AC66">
+        <v>438</v>
+      </c>
+      <c r="AD66">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0.1598166908479147</v>
+      </c>
+      <c r="AH66">
+        <v>0.1598166908479147</v>
+      </c>
+      <c r="AI66">
+        <v>0.1526614238040465</v>
+      </c>
+      <c r="AK66">
+        <v>113.03934</v>
+      </c>
+      <c r="AL66">
+        <v>271.0002229716839</v>
+      </c>
+      <c r="AN66">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO66">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP66">
+        <v>754.4330897207792</v>
+      </c>
+      <c r="AQ66">
+        <v>2515.62938037726</v>
+      </c>
+      <c r="AR66">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS66">
+        <v>1921.913280301995</v>
+      </c>
+      <c r="AT66">
+        <v>8.008646389491727</v>
+      </c>
+      <c r="AU66">
+        <v>272.2325205863826</v>
+      </c>
+      <c r="AV66">
+        <v>1.232297614698657</v>
+      </c>
+      <c r="AW66">
+        <v>188.3989</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>-61.0537</v>
+      </c>
+      <c r="BA66">
+        <v>57.7833</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:55">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>0</v>
+      <c r="B67" t="s">
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>57</v>
@@ -8796,13 +10827,112 @@
       <c r="R67" t="s">
         <v>83</v>
       </c>
+      <c r="U67">
+        <v>480.1991331359791</v>
+      </c>
+      <c r="V67">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W67">
+        <v>2902.568533500002</v>
+      </c>
+      <c r="X67" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y67">
+        <v>480.1991331359791</v>
+      </c>
+      <c r="Z67">
+        <v>462.1991331359791</v>
+      </c>
+      <c r="AA67">
+        <v>18</v>
+      </c>
+      <c r="AB67">
+        <v>18</v>
+      </c>
+      <c r="AC67">
+        <v>438</v>
+      </c>
+      <c r="AD67">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0.1908862795456639</v>
+      </c>
+      <c r="AH67">
+        <v>0.1908862795456639</v>
+      </c>
+      <c r="AI67">
+        <v>0.1837310125017957</v>
+      </c>
+      <c r="AK67">
+        <v>122.7362998923553</v>
+      </c>
+      <c r="AL67">
+        <v>339.4628332436238</v>
+      </c>
+      <c r="AN67">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO67">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP67">
+        <v>754.4330897207794</v>
+      </c>
+      <c r="AQ67">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AR67">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS67">
+        <v>1890.98697588306</v>
+      </c>
+      <c r="AT67">
+        <v>4.312863601044721E-15</v>
+      </c>
+      <c r="AU67">
+        <v>339.4628332436238</v>
+      </c>
+      <c r="AV67">
+        <v>3.180516635054375E-16</v>
+      </c>
+      <c r="AW67">
+        <v>204.5604998205922</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:55">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>57</v>
@@ -8852,13 +10982,112 @@
       <c r="R68" t="s">
         <v>82</v>
       </c>
+      <c r="U68">
+        <v>338.1124350797022</v>
+      </c>
+      <c r="V68">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W68">
+        <v>3810.769064799999</v>
+      </c>
+      <c r="X68" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y68">
+        <v>338.1124350797022</v>
+      </c>
+      <c r="Z68">
+        <v>320.1124350797022</v>
+      </c>
+      <c r="AA68">
+        <v>18</v>
+      </c>
+      <c r="AB68">
+        <v>18</v>
+      </c>
+      <c r="AC68">
+        <v>438</v>
+      </c>
+      <c r="AD68">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0.1638355811450562</v>
+      </c>
+      <c r="AH68">
+        <v>0.1638355811450562</v>
+      </c>
+      <c r="AI68">
+        <v>0.1551135107488111</v>
+      </c>
+      <c r="AK68">
+        <v>101.3324400000001</v>
+      </c>
+      <c r="AL68">
+        <v>218.779995079702</v>
+      </c>
+      <c r="AN68">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO68">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP68">
+        <v>549.6920444315269</v>
+      </c>
+      <c r="AQ68">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR68">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS68">
+        <v>1630.096711999408</v>
+      </c>
+      <c r="AT68">
+        <v>16.22300932804932</v>
+      </c>
+      <c r="AU68">
+        <v>221.6417339251699</v>
+      </c>
+      <c r="AV68">
+        <v>2.861738845467898</v>
+      </c>
+      <c r="AW68">
+        <v>168.8874000000002</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:55">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>57</v>
@@ -8908,13 +11137,112 @@
       <c r="R69" t="s">
         <v>82</v>
       </c>
+      <c r="U69">
+        <v>353.0878109937219</v>
+      </c>
+      <c r="V69">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W69">
+        <v>2337.723505999995</v>
+      </c>
+      <c r="X69" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y69">
+        <v>353.0878109937219</v>
+      </c>
+      <c r="Z69">
+        <v>335.0878109937219</v>
+      </c>
+      <c r="AA69">
+        <v>18</v>
+      </c>
+      <c r="AB69">
+        <v>18</v>
+      </c>
+      <c r="AC69">
+        <v>438</v>
+      </c>
+      <c r="AD69">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0.1710920413079624</v>
+      </c>
+      <c r="AH69">
+        <v>0.1710920413079624</v>
+      </c>
+      <c r="AI69">
+        <v>0.1623699709117173</v>
+      </c>
+      <c r="AK69">
+        <v>115.55719158</v>
+      </c>
+      <c r="AL69">
+        <v>219.5306194137218</v>
+      </c>
+      <c r="AN69">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO69">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP69">
+        <v>549.6920444315274</v>
+      </c>
+      <c r="AQ69">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AR69">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS69">
+        <v>1643.219036488805</v>
+      </c>
+      <c r="AT69">
+        <v>29.43218164544738</v>
+      </c>
+      <c r="AU69">
+        <v>223.7849036182762</v>
+      </c>
+      <c r="AV69">
+        <v>4.254284204554355</v>
+      </c>
+      <c r="AW69">
+        <v>192.5953193</v>
+      </c>
+      <c r="AX69">
+        <v>2.664535259100376E-14</v>
+      </c>
+      <c r="AY69">
+        <v>4.517659836589635E-15</v>
+      </c>
+      <c r="AZ69">
+        <v>-14.24341029999999</v>
+      </c>
+      <c r="BA69">
+        <v>23.7079193</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:55">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>56</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
@@ -8970,13 +11298,16 @@
       <c r="T70">
         <v>0.03</v>
       </c>
+      <c r="X70" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:55">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>57</v>
@@ -9026,13 +11357,112 @@
       <c r="R71" t="s">
         <v>82</v>
       </c>
+      <c r="U71">
+        <v>344.7899055804565</v>
+      </c>
+      <c r="V71">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W71">
+        <v>2595.4314409</v>
+      </c>
+      <c r="X71" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y71">
+        <v>344.7899055804565</v>
+      </c>
+      <c r="Z71">
+        <v>326.7899055804565</v>
+      </c>
+      <c r="AA71">
+        <v>18</v>
+      </c>
+      <c r="AB71">
+        <v>18</v>
+      </c>
+      <c r="AC71">
+        <v>438</v>
+      </c>
+      <c r="AD71">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0.1670712126881912</v>
+      </c>
+      <c r="AH71">
+        <v>0.1670712126881912</v>
+      </c>
+      <c r="AI71">
+        <v>0.1583491422919461</v>
+      </c>
+      <c r="AK71">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AL71">
+        <v>220.1865255497309</v>
+      </c>
+      <c r="AN71">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO71">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP71">
+        <v>549.6920444315269</v>
+      </c>
+      <c r="AQ71">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR71">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS71">
+        <v>1649.004031133258</v>
+      </c>
+      <c r="AT71">
+        <v>35.01390984538056</v>
+      </c>
+      <c r="AU71">
+        <v>224.8381397524136</v>
+      </c>
+      <c r="AV71">
+        <v>4.651614202682685</v>
+      </c>
+      <c r="AW71">
+        <v>177.6723000512094</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>-16.59457687080194</v>
+      </c>
+      <c r="BA71">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:55">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>57</v>
@@ -9082,13 +11512,112 @@
       <c r="R72" t="s">
         <v>82</v>
       </c>
+      <c r="U72">
+        <v>347.7877424764736</v>
+      </c>
+      <c r="V72">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W72">
+        <v>2084.802824500002</v>
+      </c>
+      <c r="X72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y72">
+        <v>347.7877424764736</v>
+      </c>
+      <c r="Z72">
+        <v>329.7877424764736</v>
+      </c>
+      <c r="AA72">
+        <v>18</v>
+      </c>
+      <c r="AB72">
+        <v>18</v>
+      </c>
+      <c r="AC72">
+        <v>438</v>
+      </c>
+      <c r="AD72">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0.1685238429350535</v>
+      </c>
+      <c r="AH72">
+        <v>0.1685238429350535</v>
+      </c>
+      <c r="AI72">
+        <v>0.1598017725388084</v>
+      </c>
+      <c r="AK72">
+        <v>109.10934</v>
+      </c>
+      <c r="AL72">
+        <v>220.6784024764736</v>
+      </c>
+      <c r="AN72">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO72">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP72">
+        <v>549.6920444315271</v>
+      </c>
+      <c r="AQ72">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR72">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS72">
+        <v>1637.001619046727</v>
+      </c>
+      <c r="AT72">
+        <v>23.00800522940394</v>
+      </c>
+      <c r="AU72">
+        <v>224.5084256352725</v>
+      </c>
+      <c r="AV72">
+        <v>3.830023158798911</v>
+      </c>
+      <c r="AW72">
+        <v>181.8489</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>-13.56230000000001</v>
+      </c>
+      <c r="BA72">
+        <v>12.9615</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:55">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="s">
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>57</v>
@@ -9137,6 +11666,105 @@
       </c>
       <c r="R73" t="s">
         <v>83</v>
+      </c>
+      <c r="U73">
+        <v>418.6846936943224</v>
+      </c>
+      <c r="V73">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W73">
+        <v>1370.110724099999</v>
+      </c>
+      <c r="X73" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y73">
+        <v>418.6846936943224</v>
+      </c>
+      <c r="Z73">
+        <v>400.6846936943224</v>
+      </c>
+      <c r="AA73">
+        <v>18</v>
+      </c>
+      <c r="AB73">
+        <v>18</v>
+      </c>
+      <c r="AC73">
+        <v>438</v>
+      </c>
+      <c r="AD73">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0.2028776317906774</v>
+      </c>
+      <c r="AH73">
+        <v>0.2028776317906774</v>
+      </c>
+      <c r="AI73">
+        <v>0.1941555613944323</v>
+      </c>
+      <c r="AK73">
+        <v>121.1359295774175</v>
+      </c>
+      <c r="AL73">
+        <v>279.548764116905</v>
+      </c>
+      <c r="AN73">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO73">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP73">
+        <v>549.6920444315281</v>
+      </c>
+      <c r="AQ73">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AR73">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS73">
+        <v>1590.590509650287</v>
+      </c>
+      <c r="AT73">
+        <v>3.304060741572887E-15</v>
+      </c>
+      <c r="AU73">
+        <v>279.548764116905</v>
+      </c>
+      <c r="AV73">
+        <v>2.502601113489304E-16</v>
+      </c>
+      <c r="AW73">
+        <v>201.8932159623624</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/experiments/thesis_topic1/6h-bat-12months-0dc.xlsx
+++ b/output/experiments/thesis_topic1/6h-bat-12months-0dc.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Energy_grid_new\output\experiments\thesis_topic1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C984FDA-F905-4FC8-9125-7990C6B81F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$73</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="156">
   <si>
     <t>status</t>
   </si>
@@ -283,6 +274,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -298,6 +292,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal-0.03-2023-08-28_002.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -328,6 +328,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -373,6 +382,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-normal-0.03-2023-08-28_002.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -388,6 +400,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -403,6 +418,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -418,6 +436,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -433,6 +454,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -448,6 +472,9 @@
     <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
   </si>
   <si>
@@ -455,21 +482,17 @@
   </si>
   <si>
     <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>flex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -477,15 +500,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -535,14 +551,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -589,7 +597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,27 +629,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,24 +663,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -866,16 +838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1042,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:55">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1098,22 +1068,22 @@
         <v>81</v>
       </c>
       <c r="U2">
-        <v>369.74712287332068</v>
+        <v>369.7471228733207</v>
       </c>
       <c r="V2">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W2">
-        <v>4432.8100502999996</v>
+        <v>4432.8100503</v>
       </c>
       <c r="X2" t="s">
         <v>84</v>
       </c>
       <c r="Y2">
-        <v>369.74712287332068</v>
+        <v>369.7471228733207</v>
       </c>
       <c r="Z2">
-        <v>351.74712287332068</v>
+        <v>351.7471228733207</v>
       </c>
       <c r="AA2">
         <v>18</v>
@@ -1134,49 +1104,49 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.15506551545095501</v>
+        <v>0.155065515450955</v>
       </c>
       <c r="AH2">
-        <v>0.15506551545095501</v>
+        <v>0.155065515450955</v>
       </c>
       <c r="AI2">
-        <v>0.14751662837260049</v>
+        <v>0.1475166283726005</v>
       </c>
       <c r="AK2">
         <v>100.8328589311587</v>
       </c>
       <c r="AL2">
-        <v>250.91426394216199</v>
+        <v>250.914263942162</v>
       </c>
       <c r="AN2">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO2">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP2">
         <v>560.5129658720623</v>
       </c>
       <c r="AQ2">
-        <v>2384.4574456031542</v>
+        <v>2384.457445603154</v>
       </c>
       <c r="AR2">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS2">
         <v>1803.658232962264</v>
       </c>
       <c r="AT2">
-        <v>8.0822743455871573E-15</v>
+        <v>8.082274345587157E-15</v>
       </c>
       <c r="AU2">
-        <v>250.91426394216199</v>
+        <v>250.914263942162</v>
       </c>
       <c r="AV2">
-        <v>7.3714641113853574E-16</v>
+        <v>7.371464111385357E-16</v>
       </c>
       <c r="AW2">
-        <v>168.05476488526449</v>
+        <v>168.0547648852645</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -1197,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:55">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1256,7 +1226,7 @@
         <v>382.8535483078951</v>
       </c>
       <c r="V3">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W3">
         <v>3748.1108847</v>
@@ -1295,40 +1265,40 @@
         <v>0.1605621224290926</v>
       </c>
       <c r="AI3">
-        <v>0.15301323535073799</v>
+        <v>0.153013235350738</v>
       </c>
       <c r="AK3">
         <v>116.66447784</v>
       </c>
       <c r="AL3">
-        <v>248.18907046789499</v>
+        <v>248.189070467895</v>
       </c>
       <c r="AN3">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO3">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP3">
-        <v>560.51296587206264</v>
+        <v>560.5129658720626</v>
       </c>
       <c r="AQ3">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AR3">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS3">
-        <v>1811.7742875011461</v>
+        <v>1811.774287501146</v>
       </c>
       <c r="AT3">
-        <v>6.9606067615022074</v>
+        <v>6.960606761502207</v>
       </c>
       <c r="AU3">
-        <v>249.00413046109981</v>
+        <v>249.0041304610998</v>
       </c>
       <c r="AV3">
-        <v>0.81505999320474642</v>
+        <v>0.8150599932047464</v>
       </c>
       <c r="AW3">
         <v>194.4407964000001</v>
@@ -1340,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-9.4614995999999962</v>
+        <v>-9.461499599999996</v>
       </c>
       <c r="BA3">
         <v>25.5533964</v>
@@ -1352,12 +1322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:55">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1405,7 +1375,7 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
         <v>83</v>
@@ -1413,8 +1383,107 @@
       <c r="T4">
         <v>0.03</v>
       </c>
+      <c r="U4">
+        <v>373.8367331928495</v>
+      </c>
+      <c r="V4">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W4">
+        <v>4552.217316599999</v>
+      </c>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4">
+        <v>373.8367331928495</v>
+      </c>
+      <c r="Z4">
+        <v>355.8367331928495</v>
+      </c>
+      <c r="AA4">
+        <v>18</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>438</v>
+      </c>
+      <c r="AD4">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.1567806269229882</v>
+      </c>
+      <c r="AH4">
+        <v>0.1567806269229882</v>
+      </c>
+      <c r="AI4">
+        <v>0.1492317398446336</v>
+      </c>
+      <c r="AK4">
+        <v>107.1088732736859</v>
+      </c>
+      <c r="AL4">
+        <v>248.7278599191636</v>
+      </c>
+      <c r="AN4">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AO4">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AP4">
+        <v>560.5129658720623</v>
+      </c>
+      <c r="AQ4">
+        <v>2384.457445603154</v>
+      </c>
+      <c r="AR4">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AS4">
+        <v>1813.796369774422</v>
+      </c>
+      <c r="AT4">
+        <v>9.13166393209535</v>
+      </c>
+      <c r="AU4">
+        <v>249.9636707444134</v>
+      </c>
+      <c r="AV4">
+        <v>1.235810825249773</v>
+      </c>
+      <c r="AW4">
+        <v>178.5147887894765</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>-9.992452774059615</v>
+      </c>
+      <c r="BA4">
+        <v>9.627388789476484</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:55">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1473,13 +1542,13 @@
         <v>378.8386038804129</v>
       </c>
       <c r="V5">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W5">
-        <v>4769.2291566000004</v>
+        <v>4769.2291566</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y5">
         <v>378.8386038804129</v>
@@ -1506,61 +1575,61 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.15887832453415199</v>
+        <v>0.158878324534152</v>
       </c>
       <c r="AH5">
-        <v>0.15887832453415199</v>
+        <v>0.158878324534152</v>
       </c>
       <c r="AI5">
-        <v>0.15132943745579741</v>
+        <v>0.1513294374557974</v>
       </c>
       <c r="AK5">
         <v>110.8939531571033</v>
       </c>
       <c r="AL5">
-        <v>249.94465072330959</v>
+        <v>249.9446507233096</v>
       </c>
       <c r="AN5">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO5">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP5">
         <v>560.5129658720623</v>
       </c>
       <c r="AQ5">
-        <v>2384.4574456031542</v>
+        <v>2384.457445603154</v>
       </c>
       <c r="AR5">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS5">
         <v>1809.665914604476</v>
       </c>
       <c r="AT5">
-        <v>5.2676102746204707</v>
+        <v>5.267610274620471</v>
       </c>
       <c r="AU5">
-        <v>250.55002780215989</v>
+        <v>250.5500278021599</v>
       </c>
       <c r="AV5">
-        <v>0.60537707885028291</v>
+        <v>0.6053770788502829</v>
       </c>
       <c r="AW5">
         <v>184.8232552618388</v>
       </c>
       <c r="AX5">
-        <v>1.7763568394002501E-15</v>
+        <v>1.77635683940025E-15</v>
       </c>
       <c r="AY5">
         <v>3.011769731834787E-16</v>
       </c>
       <c r="AZ5">
-        <v>-11.327159598491241</v>
+        <v>-11.32715959849124</v>
       </c>
       <c r="BA5">
-        <v>17.660444161520939</v>
+        <v>17.66044416152094</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1569,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:55">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1625,22 +1694,22 @@
         <v>81</v>
       </c>
       <c r="U6">
-        <v>378.97576069691593</v>
+        <v>378.9757606969159</v>
       </c>
       <c r="V6">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W6">
-        <v>3713.2177148000001</v>
+        <v>3713.2177148</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y6">
-        <v>378.97576069691593</v>
+        <v>378.9757606969159</v>
       </c>
       <c r="Z6">
-        <v>360.97576069691593</v>
+        <v>360.9757606969159</v>
       </c>
       <c r="AA6">
         <v>18</v>
@@ -1661,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.15893584571858571</v>
+        <v>0.1589358457185857</v>
       </c>
       <c r="AH6">
-        <v>0.15893584571858571</v>
+        <v>0.1589358457185857</v>
       </c>
       <c r="AI6">
-        <v>0.15138695864023111</v>
+        <v>0.1513869586402311</v>
       </c>
       <c r="AK6">
         <v>109.33908</v>
@@ -1676,37 +1745,37 @@
         <v>251.6366806969159</v>
       </c>
       <c r="AN6">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO6">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP6">
-        <v>560.51296587206309</v>
+        <v>560.5129658720631</v>
       </c>
       <c r="AQ6">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AR6">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS6">
         <v>1810.524606574091</v>
       </c>
       <c r="AT6">
-        <v>6.6037848944105262</v>
+        <v>6.603784894410526</v>
       </c>
       <c r="AU6">
         <v>252.6204276486061</v>
       </c>
       <c r="AV6">
-        <v>0.98374695169021642</v>
+        <v>0.9837469516902164</v>
       </c>
       <c r="AW6">
-        <v>182.23179999999999</v>
+        <v>182.2318</v>
       </c>
       <c r="AX6">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AY6">
         <v>1.204707892733915E-15</v>
@@ -1715,7 +1784,7 @@
         <v>-15.756</v>
       </c>
       <c r="BA6">
-        <v>16.221599999999999</v>
+        <v>16.2216</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -1724,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:55">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1780,22 +1849,22 @@
         <v>82</v>
       </c>
       <c r="U7">
-        <v>457.06360650159212</v>
+        <v>457.0636065015921</v>
       </c>
       <c r="V7">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W7">
-        <v>2644.0581381000002</v>
+        <v>2644.0581381</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y7">
-        <v>457.06360650159212</v>
+        <v>457.0636065015921</v>
       </c>
       <c r="Z7">
-        <v>439.06360650159212</v>
+        <v>439.0636065015921</v>
       </c>
       <c r="AA7">
         <v>18</v>
@@ -1816,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.19166085203798319</v>
+        <v>0.1916608520379832</v>
       </c>
       <c r="AH7">
-        <v>0.19166085203798319</v>
+        <v>0.1916608520379832</v>
       </c>
       <c r="AI7">
         <v>0.1841128974697131</v>
@@ -1828,34 +1897,34 @@
         <v>121.7518385847668</v>
       </c>
       <c r="AL7">
-        <v>317.31176791682532</v>
+        <v>317.3117679168253</v>
       </c>
       <c r="AN7">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AO7">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AP7">
-        <v>560.80755304715922</v>
+        <v>560.8075530471592</v>
       </c>
       <c r="AQ7">
-        <v>2384.7520327782509</v>
+        <v>2384.752032778251</v>
       </c>
       <c r="AR7">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AS7">
         <v>1781.577252095055</v>
       </c>
       <c r="AT7">
-        <v>3.4446395315966541E-15</v>
+        <v>3.444639531596654E-15</v>
       </c>
       <c r="AU7">
-        <v>317.31176791682532</v>
+        <v>317.3117679168253</v>
       </c>
       <c r="AV7">
-        <v>2.5844039513487139E-16</v>
+        <v>2.584403951348714E-16</v>
       </c>
       <c r="AW7">
         <v>202.9197309746113</v>
@@ -1879,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:55">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1935,22 +2004,22 @@
         <v>81</v>
       </c>
       <c r="U8">
-        <v>366.74779980547419</v>
+        <v>366.7477998054742</v>
       </c>
       <c r="V8">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W8">
         <v>3969.5665491</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y8">
-        <v>366.74779980547419</v>
+        <v>366.7477998054742</v>
       </c>
       <c r="Z8">
-        <v>348.74779980547419</v>
+        <v>348.7477998054742</v>
       </c>
       <c r="AA8">
         <v>18</v>
@@ -1962,7 +2031,7 @@
         <v>438</v>
       </c>
       <c r="AD8">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1971,22 +2040,22 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.14649696266201831</v>
+        <v>0.1464969626620183</v>
       </c>
       <c r="AH8">
-        <v>0.14649696266201831</v>
+        <v>0.1464969626620183</v>
       </c>
       <c r="AI8">
-        <v>0.13930688455026149</v>
+        <v>0.1393068845502615</v>
       </c>
       <c r="AK8">
         <v>101.3324400000001</v>
       </c>
       <c r="AL8">
-        <v>247.41535980547411</v>
+        <v>247.4153598054741</v>
       </c>
       <c r="AN8">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO8">
         <v>1897.080720803875</v>
@@ -1995,31 +2064,31 @@
         <v>606.3691333176364</v>
       </c>
       <c r="AQ8">
-        <v>2503.4498541215112</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AR8">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS8">
-        <v>1780.7030387132529</v>
+        <v>1780.703038713253</v>
       </c>
       <c r="AT8">
         <v>1.067004071005584E-14</v>
       </c>
       <c r="AU8">
-        <v>247.41535980547411</v>
+        <v>247.4153598054741</v>
       </c>
       <c r="AV8">
-        <v>1.0522072234722039E-15</v>
+        <v>1.052207223472204E-15</v>
       </c>
       <c r="AW8">
-        <v>168.88740000000021</v>
+        <v>168.8874000000002</v>
       </c>
       <c r="AX8">
-        <v>8.8817841970012523E-16</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="AY8">
-        <v>1.5058904790967871E-16</v>
+        <v>1.505890479096787E-16</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2034,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:55">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2090,22 +2159,22 @@
         <v>81</v>
       </c>
       <c r="U9">
-        <v>372.83015886549572</v>
+        <v>372.8301588654957</v>
       </c>
       <c r="V9">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W9">
-        <v>4470.3701971999999</v>
+        <v>4470.3701972</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y9">
-        <v>372.83015886549572</v>
+        <v>372.8301588654957</v>
       </c>
       <c r="Z9">
-        <v>354.83015886549572</v>
+        <v>354.8301588654957</v>
       </c>
       <c r="AA9">
         <v>18</v>
@@ -2117,7 +2186,7 @@
         <v>438</v>
       </c>
       <c r="AD9">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2126,34 +2195,34 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.14892655359231319</v>
+        <v>0.1489265535923132</v>
       </c>
       <c r="AH9">
-        <v>0.14892655359231319</v>
+        <v>0.1489265535923132</v>
       </c>
       <c r="AI9">
-        <v>0.14173647548055629</v>
+        <v>0.1417364754805563</v>
       </c>
       <c r="AK9">
-        <v>108.40048674000001</v>
+        <v>108.40048674</v>
       </c>
       <c r="AL9">
-        <v>246.42967212549581</v>
+        <v>246.4296721254958</v>
       </c>
       <c r="AN9">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO9">
         <v>1897.080720803875</v>
       </c>
       <c r="AP9">
-        <v>606.36913331763594</v>
+        <v>606.3691333176359</v>
       </c>
       <c r="AQ9">
-        <v>2503.4498541215112</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AR9">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS9">
         <v>1792.526824060006</v>
@@ -2162,13 +2231,13 @@
         <v>11.23466960284847</v>
       </c>
       <c r="AU9">
-        <v>247.72287612717429</v>
+        <v>247.7228761271743</v>
       </c>
       <c r="AV9">
-        <v>1.2932040016785249</v>
+        <v>1.293204001678525</v>
       </c>
       <c r="AW9">
-        <v>180.66747789999999</v>
+        <v>180.6674779</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2177,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>-14.012924300000011</v>
+        <v>-14.01292430000001</v>
       </c>
       <c r="BA9">
         <v>13.8955929</v>
@@ -2189,12 +2258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:55">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
@@ -2242,7 +2311,7 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
         <v>83</v>
@@ -2250,8 +2319,107 @@
       <c r="T10">
         <v>0.03</v>
       </c>
+      <c r="U10">
+        <v>374.1464793676965</v>
+      </c>
+      <c r="V10">
+        <v>27.98958333333333</v>
+      </c>
+      <c r="W10">
+        <v>4430.744311000002</v>
+      </c>
+      <c r="X10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10">
+        <v>374.1464793676965</v>
+      </c>
+      <c r="Z10">
+        <v>356.1464793676965</v>
+      </c>
+      <c r="AA10">
+        <v>18</v>
+      </c>
+      <c r="AB10">
+        <v>18</v>
+      </c>
+      <c r="AC10">
+        <v>438</v>
+      </c>
+      <c r="AD10">
+        <v>5.541145342273898</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.1494523562162537</v>
+      </c>
+      <c r="AH10">
+        <v>0.1494523562162537</v>
+      </c>
+      <c r="AI10">
+        <v>0.1422622781044968</v>
+      </c>
+      <c r="AK10">
+        <v>109.5053267915083</v>
+      </c>
+      <c r="AL10">
+        <v>246.6411525761882</v>
+      </c>
+      <c r="AN10">
+        <v>69.49013770003722</v>
+      </c>
+      <c r="AO10">
+        <v>1897.080720803875</v>
+      </c>
+      <c r="AP10">
+        <v>606.369133317637</v>
+      </c>
+      <c r="AQ10">
+        <v>2503.449854121512</v>
+      </c>
+      <c r="AR10">
+        <v>747.2553716424334</v>
+      </c>
+      <c r="AS10">
+        <v>1791.784303448773</v>
+      </c>
+      <c r="AT10">
+        <v>10.52631263990955</v>
+      </c>
+      <c r="AU10">
+        <v>248.0283524524394</v>
+      </c>
+      <c r="AV10">
+        <v>1.387199876251217</v>
+      </c>
+      <c r="AW10">
+        <v>182.5088779858472</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>-10.91213709513363</v>
+      </c>
+      <c r="BA10">
+        <v>13.62147798584724</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:55">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2310,13 +2478,13 @@
         <v>371.3274527921069</v>
       </c>
       <c r="V11">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W11">
         <v>4600.5980215</v>
       </c>
       <c r="X11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y11">
         <v>371.3274527921069</v>
@@ -2334,7 +2502,7 @@
         <v>438</v>
       </c>
       <c r="AD11">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2343,49 +2511,49 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.14832629947860879</v>
+        <v>0.1483262994786088</v>
       </c>
       <c r="AH11">
-        <v>0.14832629947860879</v>
+        <v>0.1483262994786088</v>
       </c>
       <c r="AI11">
-        <v>0.14113622136685189</v>
+        <v>0.1411362213668519</v>
       </c>
       <c r="AK11">
         <v>106.5589862281232</v>
       </c>
       <c r="AL11">
-        <v>246.76846656398371</v>
+        <v>246.7684665639837</v>
       </c>
       <c r="AN11">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO11">
         <v>1897.080720803875</v>
       </c>
       <c r="AP11">
-        <v>606.36913331763719</v>
+        <v>606.3691333176372</v>
       </c>
       <c r="AQ11">
-        <v>2503.4498541215121</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AR11">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS11">
-        <v>1790.1468929718269</v>
+        <v>1790.146892971827</v>
       </c>
       <c r="AT11">
-        <v>9.0562835084547668</v>
+        <v>9.056283508454767</v>
       </c>
       <c r="AU11">
-        <v>247.90047675816299</v>
+        <v>247.900476758163</v>
       </c>
       <c r="AV11">
         <v>1.13201019417926</v>
       </c>
       <c r="AW11">
-        <v>177.59831038020519</v>
+        <v>177.5983103802052</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2397,7 +2565,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BA11">
-        <v>11.791396142640981</v>
+        <v>11.79139614264098</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -2406,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:55">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2462,22 +2630,22 @@
         <v>81</v>
       </c>
       <c r="U12">
-        <v>376.07715986224122</v>
+        <v>376.0771598622412</v>
       </c>
       <c r="V12">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W12">
-        <v>3510.5807178999989</v>
+        <v>3510.580717899999</v>
       </c>
       <c r="X12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y12">
-        <v>376.07715986224122</v>
+        <v>376.0771598622412</v>
       </c>
       <c r="Z12">
-        <v>358.07715986224122</v>
+        <v>358.0771598622412</v>
       </c>
       <c r="AA12">
         <v>18</v>
@@ -2489,7 +2657,7 @@
         <v>438</v>
       </c>
       <c r="AD12">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2498,22 +2666,22 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.15022356419206601</v>
+        <v>0.150223564192066</v>
       </c>
       <c r="AH12">
-        <v>0.15022356419206601</v>
+        <v>0.150223564192066</v>
       </c>
       <c r="AI12">
-        <v>0.14303348608030919</v>
+        <v>0.1430334860803092</v>
       </c>
       <c r="AK12">
         <v>109.55418</v>
       </c>
       <c r="AL12">
-        <v>248.52297986224119</v>
+        <v>248.5229798622412</v>
       </c>
       <c r="AN12">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO12">
         <v>1897.080720803875</v>
@@ -2522,16 +2690,16 @@
         <v>606.3691333176364</v>
       </c>
       <c r="AQ12">
-        <v>2503.4498541215112</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AR12">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS12">
         <v>1788.460419415399</v>
       </c>
       <c r="AT12">
-        <v>7.2257713430799306</v>
+        <v>7.225771343079931</v>
       </c>
       <c r="AU12">
         <v>249.5835929056469</v>
@@ -2540,7 +2708,7 @@
         <v>1.060613043405698</v>
       </c>
       <c r="AW12">
-        <v>182.59030000000001</v>
+        <v>182.5903</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2549,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="AZ12">
-        <v>-16.020199999999999</v>
+        <v>-16.0202</v>
       </c>
       <c r="BA12">
-        <v>14.349299999999999</v>
+        <v>14.3493</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -2561,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:55">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2617,22 +2785,22 @@
         <v>82</v>
       </c>
       <c r="U13">
-        <v>447.27786401694817</v>
+        <v>447.2778640169482</v>
       </c>
       <c r="V13">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="W13">
-        <v>2487.0814357999998</v>
+        <v>2487.0814358</v>
       </c>
       <c r="X13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y13">
-        <v>447.27786401694817</v>
+        <v>447.2778640169482</v>
       </c>
       <c r="Z13">
-        <v>429.27786401694817</v>
+        <v>429.2778640169482</v>
       </c>
       <c r="AA13">
         <v>18</v>
@@ -2644,7 +2812,7 @@
         <v>438</v>
       </c>
       <c r="AD13">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2659,16 +2827,16 @@
         <v>0.1786488563467159</v>
       </c>
       <c r="AI13">
-        <v>0.17145941176888399</v>
+        <v>0.171459411768884</v>
       </c>
       <c r="AK13">
-        <v>115.01397926650159</v>
+        <v>115.0139792665016</v>
       </c>
       <c r="AL13">
-        <v>314.26388475044661</v>
+        <v>314.2638847504466</v>
       </c>
       <c r="AN13">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AO13">
         <v>1897.080720803875</v>
@@ -2677,25 +2845,25 @@
         <v>606.5897373427249</v>
       </c>
       <c r="AQ13">
-        <v>2503.6704581466001</v>
+        <v>2503.6704581466</v>
       </c>
       <c r="AR13">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AS13">
-        <v>1759.1867965501831</v>
+        <v>1759.186796550183</v>
       </c>
       <c r="AT13">
-        <v>2.6972593616498029E-15</v>
+        <v>2.697259361649803E-15</v>
       </c>
       <c r="AU13">
-        <v>314.26388475044661</v>
+        <v>314.2638847504466</v>
       </c>
       <c r="AV13">
-        <v>2.3012540886649951E-16</v>
+        <v>2.301254088664995E-16</v>
       </c>
       <c r="AW13">
-        <v>191.68996544416939</v>
+        <v>191.6899654441694</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2716,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:55">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2772,22 +2940,22 @@
         <v>81</v>
       </c>
       <c r="U14">
-        <v>307.07330443314322</v>
+        <v>307.0733044331432</v>
       </c>
       <c r="V14">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W14">
         <v>4077.046264399999</v>
       </c>
       <c r="X14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y14">
-        <v>307.07330443314322</v>
+        <v>307.0733044331432</v>
       </c>
       <c r="Z14">
-        <v>289.07330443314322</v>
+        <v>289.0733044331432</v>
       </c>
       <c r="AA14">
         <v>18</v>
@@ -2799,7 +2967,7 @@
         <v>438</v>
       </c>
       <c r="AD14">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2808,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.12961425337957799</v>
+        <v>0.129614253379578</v>
       </c>
       <c r="AH14">
-        <v>0.12961425337957799</v>
+        <v>0.129614253379578</v>
       </c>
       <c r="AI14">
         <v>0.1220165347659745</v>
       </c>
       <c r="AK14">
-        <v>91.657318078610203</v>
+        <v>91.6573180786102</v>
       </c>
       <c r="AL14">
         <v>197.415986354533</v>
@@ -2826,31 +2994,31 @@
         <v>61.60134453781513</v>
       </c>
       <c r="AO14">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP14">
         <v>542.1001516034994</v>
       </c>
       <c r="AQ14">
-        <v>2369.1322244774478</v>
+        <v>2369.132224477448</v>
       </c>
       <c r="AR14">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS14">
-        <v>1476.7454403443051</v>
+        <v>1476.745440344305</v>
       </c>
       <c r="AT14">
-        <v>27.690309605312809</v>
+        <v>27.69030960531281</v>
       </c>
       <c r="AU14">
-        <v>201.70650019121041</v>
+        <v>201.7065001912104</v>
       </c>
       <c r="AV14">
         <v>4.290513836677432</v>
       </c>
       <c r="AW14">
-        <v>152.76219679768371</v>
+        <v>152.7621967976837</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -2871,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:55">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2927,22 +3095,22 @@
         <v>81</v>
       </c>
       <c r="U15">
-        <v>323.48743437972689</v>
+        <v>323.4874343797269</v>
       </c>
       <c r="V15">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W15">
-        <v>4130.6560761999999</v>
+        <v>4130.6560762</v>
       </c>
       <c r="X15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y15">
-        <v>323.48743437972689</v>
+        <v>323.4874343797269</v>
       </c>
       <c r="Z15">
-        <v>305.48743437972689</v>
+        <v>305.4874343797269</v>
       </c>
       <c r="AA15">
         <v>18</v>
@@ -2954,7 +3122,7 @@
         <v>438</v>
       </c>
       <c r="AD15">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2963,34 +3131,34 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.13654258341409281</v>
+        <v>0.1365425834140928</v>
       </c>
       <c r="AH15">
-        <v>0.13654258341409281</v>
+        <v>0.1365425834140928</v>
       </c>
       <c r="AI15">
-        <v>0.12894486480048931</v>
+        <v>0.1289448648004893</v>
       </c>
       <c r="AK15">
         <v>108.8444262</v>
       </c>
       <c r="AL15">
-        <v>196.64300817972691</v>
+        <v>196.6430081797269</v>
       </c>
       <c r="AN15">
         <v>61.60134453781513</v>
       </c>
       <c r="AO15">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP15">
-        <v>542.10015160349872</v>
+        <v>542.1001516034987</v>
       </c>
       <c r="AQ15">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR15">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS15">
         <v>1493.246266851831</v>
@@ -2999,22 +3167,22 @@
         <v>43.44643229557839</v>
       </c>
       <c r="AU15">
-        <v>202.54135415566159</v>
+        <v>202.5413541556616</v>
       </c>
       <c r="AV15">
-        <v>5.8983459759346646</v>
+        <v>5.898345975934665</v>
       </c>
       <c r="AW15">
         <v>181.407377</v>
       </c>
       <c r="AX15">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY15">
         <v>6.023539463669574E-16</v>
       </c>
       <c r="AZ15">
-        <v>-25.145092699999999</v>
+        <v>-25.1450927</v>
       </c>
       <c r="BA15">
         <v>16.1165229</v>
@@ -3026,12 +3194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:55">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -3079,7 +3247,7 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s">
         <v>83</v>
@@ -3087,8 +3255,107 @@
       <c r="T16">
         <v>0.03</v>
       </c>
+      <c r="U16">
+        <v>323.0236682097969</v>
+      </c>
+      <c r="V16">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W16">
+        <v>4771.065311800005</v>
+      </c>
+      <c r="X16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16">
+        <v>323.0236682097969</v>
+      </c>
+      <c r="Z16">
+        <v>305.0236682097969</v>
+      </c>
+      <c r="AA16">
+        <v>18</v>
+      </c>
+      <c r="AB16">
+        <v>18</v>
+      </c>
+      <c r="AC16">
+        <v>438</v>
+      </c>
+      <c r="AD16">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0.1363468298106685</v>
+      </c>
+      <c r="AH16">
+        <v>0.1363468298106685</v>
+      </c>
+      <c r="AI16">
+        <v>0.1287491111970651</v>
+      </c>
+      <c r="AK16">
+        <v>108.5115651361321</v>
+      </c>
+      <c r="AL16">
+        <v>196.5121030736648</v>
+      </c>
+      <c r="AN16">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AO16">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AP16">
+        <v>542.1001516034981</v>
+      </c>
+      <c r="AQ16">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AR16">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AS16">
+        <v>1490.380883852495</v>
+      </c>
+      <c r="AT16">
+        <v>40.52942534451651</v>
+      </c>
+      <c r="AU16">
+        <v>202.4211158795195</v>
+      </c>
+      <c r="AV16">
+        <v>5.909012805854702</v>
+      </c>
+      <c r="AW16">
+        <v>180.8526085602202</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>-10.41473665336267</v>
+      </c>
+      <c r="BA16">
+        <v>13.82887725803263</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:55">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3144,22 +3411,22 @@
         <v>81</v>
       </c>
       <c r="U17">
-        <v>323.58257337298761</v>
+        <v>323.5825733729876</v>
       </c>
       <c r="V17">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W17">
-        <v>4751.8543427000004</v>
+        <v>4751.8543427</v>
       </c>
       <c r="X17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y17">
-        <v>323.58257337298761</v>
+        <v>323.5825733729876</v>
       </c>
       <c r="Z17">
-        <v>305.58257337298761</v>
+        <v>305.5825733729876</v>
       </c>
       <c r="AA17">
         <v>18</v>
@@ -3171,7 +3438,7 @@
         <v>438</v>
       </c>
       <c r="AD17">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3186,43 +3453,43 @@
         <v>0.1365827411529803</v>
       </c>
       <c r="AI17">
-        <v>0.12898502253937691</v>
+        <v>0.1289850225393769</v>
       </c>
       <c r="AK17">
         <v>108.6235597207575</v>
       </c>
       <c r="AL17">
-        <v>196.95901365223011</v>
+        <v>196.9590136522301</v>
       </c>
       <c r="AN17">
         <v>61.60134453781513</v>
       </c>
       <c r="AO17">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP17">
-        <v>542.10015160349883</v>
+        <v>542.1001516034988</v>
       </c>
       <c r="AQ17">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR17">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS17">
-        <v>1492.5678123588771</v>
+        <v>1492.567812358877</v>
       </c>
       <c r="AT17">
-        <v>42.664526430430257</v>
+        <v>42.66452643043026</v>
       </c>
       <c r="AU17">
         <v>202.5869853735108</v>
       </c>
       <c r="AV17">
-        <v>5.6279717212807379</v>
+        <v>5.627971721280738</v>
       </c>
       <c r="AW17">
-        <v>181.03926620126251</v>
+        <v>181.0392662012625</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -3234,7 +3501,7 @@
         <v>-16.17920982126445</v>
       </c>
       <c r="BA17">
-        <v>12.876906861902301</v>
+        <v>12.8769068619023</v>
       </c>
       <c r="BB17">
         <v>0</v>
@@ -3243,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:55">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3299,22 +3566,22 @@
         <v>81</v>
       </c>
       <c r="U18">
-        <v>325.02842608807879</v>
+        <v>325.0284260880788</v>
       </c>
       <c r="V18">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W18">
-        <v>4319.1319693999994</v>
+        <v>4319.131969399999</v>
       </c>
       <c r="X18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y18">
-        <v>325.02842608807879</v>
+        <v>325.0284260880788</v>
       </c>
       <c r="Z18">
-        <v>307.02842608807879</v>
+        <v>307.0284260880788</v>
       </c>
       <c r="AA18">
         <v>18</v>
@@ -3326,7 +3593,7 @@
         <v>438</v>
       </c>
       <c r="AD18">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3335,16 +3602,16 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.13719302904664571</v>
+        <v>0.1371930290466457</v>
       </c>
       <c r="AH18">
-        <v>0.13719302904664571</v>
+        <v>0.1371930290466457</v>
       </c>
       <c r="AI18">
-        <v>0.12959531043304229</v>
+        <v>0.1295953104330423</v>
       </c>
       <c r="AK18">
-        <v>108.79242000000001</v>
+        <v>108.79242</v>
       </c>
       <c r="AL18">
         <v>198.2360060880788</v>
@@ -3353,31 +3620,31 @@
         <v>61.60134453781513</v>
       </c>
       <c r="AO18">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP18">
-        <v>542.10015160349838</v>
+        <v>542.1001516034984</v>
       </c>
       <c r="AQ18">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AR18">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS18">
-        <v>1487.3259581979901</v>
+        <v>1487.32595819799</v>
       </c>
       <c r="AT18">
-        <v>37.765606919174218</v>
+        <v>37.76560691917422</v>
       </c>
       <c r="AU18">
-        <v>203.88205854444629</v>
+        <v>203.8820585444463</v>
       </c>
       <c r="AV18">
-        <v>5.6460524563675403</v>
+        <v>5.64605245636754</v>
       </c>
       <c r="AW18">
-        <v>181.32069999999999</v>
+        <v>181.3207</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3389,7 +3656,7 @@
         <v>-17.4482</v>
       </c>
       <c r="BA18">
-        <v>16.199100000000001</v>
+        <v>16.1991</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -3398,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:55">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3454,22 +3721,22 @@
         <v>82</v>
       </c>
       <c r="U19">
-        <v>377.62252880403429</v>
+        <v>377.6225288040343</v>
       </c>
       <c r="V19">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W19">
-        <v>2414.2544766999999</v>
+        <v>2414.2544767</v>
       </c>
       <c r="X19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y19">
-        <v>377.62252880403429</v>
+        <v>377.6225288040343</v>
       </c>
       <c r="Z19">
-        <v>359.62252880403429</v>
+        <v>359.6225288040343</v>
       </c>
       <c r="AA19">
         <v>18</v>
@@ -3481,7 +3748,7 @@
         <v>438</v>
       </c>
       <c r="AD19">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3490,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0.15938835173315191</v>
+        <v>0.1593883517331519</v>
       </c>
       <c r="AH19">
-        <v>0.15938835173315191</v>
+        <v>0.1593883517331519</v>
       </c>
       <c r="AI19">
         <v>0.1517908433422116</v>
@@ -3502,37 +3769,37 @@
         <v>104.4130096875969</v>
       </c>
       <c r="AL19">
-        <v>255.20951911643741</v>
+        <v>255.2095191164374</v>
       </c>
       <c r="AN19">
         <v>61.60134453781513</v>
       </c>
       <c r="AO19">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AP19">
-        <v>542.16570536928407</v>
+        <v>542.1657053692841</v>
       </c>
       <c r="AQ19">
-        <v>2369.1977782432332</v>
+        <v>2369.197778243233</v>
       </c>
       <c r="AR19">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AS19">
-        <v>1437.0634418282491</v>
+        <v>1437.063441828249</v>
       </c>
       <c r="AT19">
-        <v>7.9609455488418508</v>
+        <v>7.960945548841851</v>
       </c>
       <c r="AU19">
-        <v>255.97455229285589</v>
+        <v>255.9745522928559</v>
       </c>
       <c r="AV19">
-        <v>0.76503317641848789</v>
+        <v>0.7650331764184879</v>
       </c>
       <c r="AW19">
-        <v>174.02168281266151</v>
+        <v>174.0216828126615</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -3553,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:55">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3609,22 +3876,22 @@
         <v>81</v>
       </c>
       <c r="U20">
-        <v>313.92174919513081</v>
+        <v>313.9217491951308</v>
       </c>
       <c r="V20">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W20">
-        <v>4480.5869347000007</v>
+        <v>4480.586934700001</v>
       </c>
       <c r="X20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y20">
-        <v>313.92174919513081</v>
+        <v>313.9217491951308</v>
       </c>
       <c r="Z20">
-        <v>295.92174919513081</v>
+        <v>295.9217491951308</v>
       </c>
       <c r="AA20">
         <v>18</v>
@@ -3636,7 +3903,7 @@
         <v>438</v>
       </c>
       <c r="AD20">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3651,49 +3918,49 @@
         <v>0.1209649544142152</v>
       </c>
       <c r="AI20">
-        <v>0.11402892916257699</v>
+        <v>0.114028929162577</v>
       </c>
       <c r="AK20">
-        <v>87.444325554399981</v>
+        <v>87.44432555439998</v>
       </c>
       <c r="AL20">
-        <v>208.47742364073079</v>
+        <v>208.4774236407308</v>
       </c>
       <c r="AN20">
         <v>79.39423410906565</v>
       </c>
       <c r="AO20">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP20">
-        <v>693.40410998716879</v>
+        <v>693.4041099871688</v>
       </c>
       <c r="AQ20">
-        <v>2595.1462612897089</v>
+        <v>2595.146261289709</v>
       </c>
       <c r="AR20">
         <v>1094.388561628032</v>
       </c>
       <c r="AS20">
-        <v>1533.1539426908021</v>
+        <v>1533.153942690802</v>
       </c>
       <c r="AT20">
-        <v>7.6063876777480992</v>
+        <v>7.606387677748099</v>
       </c>
       <c r="AU20">
-        <v>209.62924505132881</v>
+        <v>209.6292450513288</v>
       </c>
       <c r="AV20">
-        <v>1.1518214105979241</v>
+        <v>1.151821410597924</v>
       </c>
       <c r="AW20">
-        <v>145.74054259066659</v>
+        <v>145.7405425906666</v>
       </c>
       <c r="AX20">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY20">
-        <v>6.0235464487861794E-16</v>
+        <v>6.023546448786179E-16</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -3708,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:55">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3767,13 +4034,13 @@
         <v>332.3164314261403</v>
       </c>
       <c r="V21">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W21">
-        <v>4306.8290593000002</v>
+        <v>4306.8290593</v>
       </c>
       <c r="X21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y21">
         <v>332.3164314261403</v>
@@ -3791,7 +4058,7 @@
         <v>438</v>
       </c>
       <c r="AD21">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3800,49 +4067,49 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.12805306443922321</v>
+        <v>0.1280530644392232</v>
       </c>
       <c r="AH21">
-        <v>0.12805306443922321</v>
+        <v>0.1280530644392232</v>
       </c>
       <c r="AI21">
         <v>0.1211170391875849</v>
       </c>
       <c r="AK21">
-        <v>110.24487480000001</v>
+        <v>110.2448748</v>
       </c>
       <c r="AL21">
-        <v>204.07155662614031</v>
+        <v>204.0715566261403</v>
       </c>
       <c r="AN21">
         <v>79.39423410906565</v>
       </c>
       <c r="AO21">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP21">
-        <v>693.40410998716925</v>
+        <v>693.4041099871692</v>
       </c>
       <c r="AQ21">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR21">
         <v>1094.388561628032</v>
       </c>
       <c r="AS21">
-        <v>1543.2014459359391</v>
+        <v>1543.201445935939</v>
       </c>
       <c r="AT21">
-        <v>16.516903183165859</v>
+        <v>16.51690318316586</v>
       </c>
       <c r="AU21">
-        <v>206.34204442550259</v>
+        <v>206.3420444255026</v>
       </c>
       <c r="AV21">
-        <v>2.2704877993623289</v>
+        <v>2.270487799362329</v>
       </c>
       <c r="AW21">
-        <v>183.74145800000011</v>
+        <v>183.7414580000001</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -3851,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="AZ21">
-        <v>-9.5456855999999988</v>
+        <v>-9.545685599999999</v>
       </c>
       <c r="BA21">
         <v>17.7250406</v>
@@ -3863,12 +4130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:55">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -3916,7 +4183,7 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s">
         <v>83</v>
@@ -3924,8 +4191,107 @@
       <c r="T22">
         <v>0.03</v>
       </c>
+      <c r="U22">
+        <v>329.269179269111</v>
+      </c>
+      <c r="V22">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W22">
+        <v>5197.014642399998</v>
+      </c>
+      <c r="X22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22">
+        <v>329.269179269111</v>
+      </c>
+      <c r="Z22">
+        <v>311.269179269111</v>
+      </c>
+      <c r="AA22">
+        <v>18</v>
+      </c>
+      <c r="AB22">
+        <v>18</v>
+      </c>
+      <c r="AC22">
+        <v>438</v>
+      </c>
+      <c r="AD22">
+        <v>5.527563236057068</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0.126878852333153</v>
+      </c>
+      <c r="AH22">
+        <v>0.126878852333153</v>
+      </c>
+      <c r="AI22">
+        <v>0.1199428270815147</v>
+      </c>
+      <c r="AK22">
+        <v>106.7431132060613</v>
+      </c>
+      <c r="AL22">
+        <v>204.5260660630497</v>
+      </c>
+      <c r="AN22">
+        <v>79.39423410906565</v>
+      </c>
+      <c r="AO22">
+        <v>1901.742151302541</v>
+      </c>
+      <c r="AP22">
+        <v>693.4041099871686</v>
+      </c>
+      <c r="AQ22">
+        <v>2595.146261289709</v>
+      </c>
+      <c r="AR22">
+        <v>1094.388561628032</v>
+      </c>
+      <c r="AS22">
+        <v>1546.473025735383</v>
+      </c>
+      <c r="AT22">
+        <v>19.82138099746975</v>
+      </c>
+      <c r="AU22">
+        <v>207.2132902716029</v>
+      </c>
+      <c r="AV22">
+        <v>2.687224208553172</v>
+      </c>
+      <c r="AW22">
+        <v>177.9051886767689</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>-12.57352436215784</v>
+      </c>
+      <c r="BA22">
+        <v>12.98520505409144</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:55">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3981,22 +4347,22 @@
         <v>81</v>
       </c>
       <c r="U23">
-        <v>331.16448338128481</v>
+        <v>331.1644833812848</v>
       </c>
       <c r="V23">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W23">
-        <v>5391.3105467999994</v>
+        <v>5391.310546799999</v>
       </c>
       <c r="X23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y23">
-        <v>331.16448338128481</v>
+        <v>331.1644833812848</v>
       </c>
       <c r="Z23">
-        <v>313.16448338128481</v>
+        <v>313.1644833812848</v>
       </c>
       <c r="AA23">
         <v>18</v>
@@ -4008,7 +4374,7 @@
         <v>438</v>
       </c>
       <c r="AD23">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -4017,61 +4383,61 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0.12760917884324019</v>
+        <v>0.1276091788432402</v>
       </c>
       <c r="AH23">
-        <v>0.12760917884324019</v>
+        <v>0.1276091788432402</v>
       </c>
       <c r="AI23">
-        <v>0.12067315359160199</v>
+        <v>0.120673153591602</v>
       </c>
       <c r="AK23">
-        <v>108.70139359810121</v>
+        <v>108.7013935981012</v>
       </c>
       <c r="AL23">
-        <v>204.46308978318359</v>
+        <v>204.4630897831836</v>
       </c>
       <c r="AN23">
         <v>79.39423410906565</v>
       </c>
       <c r="AO23">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP23">
-        <v>693.40410998716925</v>
+        <v>693.4041099871692</v>
       </c>
       <c r="AQ23">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR23">
         <v>1094.388561628032</v>
       </c>
       <c r="AS23">
-        <v>1541.3994184701251</v>
+        <v>1541.399418470125</v>
       </c>
       <c r="AT23">
         <v>14.77854434262424</v>
       </c>
       <c r="AU23">
-        <v>206.68064476306679</v>
+        <v>206.6806447630668</v>
       </c>
       <c r="AV23">
-        <v>2.2175549798832712</v>
+        <v>2.217554979883271</v>
       </c>
       <c r="AW23">
         <v>181.1689893301687</v>
       </c>
       <c r="AX23">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY23">
-        <v>6.0235464487861794E-16</v>
+        <v>6.023546448786179E-16</v>
       </c>
       <c r="AZ23">
-        <v>-10.781352368211071</v>
+        <v>-10.78135236821107</v>
       </c>
       <c r="BA23">
-        <v>12.281589330168689</v>
+        <v>12.28158933016869</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -4080,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:55">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4136,22 +4502,22 @@
         <v>81</v>
       </c>
       <c r="U24">
-        <v>332.22530782629889</v>
+        <v>332.2253078262989</v>
       </c>
       <c r="V24">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W24">
-        <v>4396.5472488999994</v>
+        <v>4396.547248899999</v>
       </c>
       <c r="X24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Y24">
-        <v>332.22530782629889</v>
+        <v>332.2253078262989</v>
       </c>
       <c r="Z24">
-        <v>314.22530782629889</v>
+        <v>314.2253078262989</v>
       </c>
       <c r="AA24">
         <v>18</v>
@@ -4163,7 +4529,7 @@
         <v>438</v>
       </c>
       <c r="AD24">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -4172,46 +4538,46 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.12801795135091651</v>
+        <v>0.1280179513509165</v>
       </c>
       <c r="AH24">
-        <v>0.12801795135091651</v>
+        <v>0.1280179513509165</v>
       </c>
       <c r="AI24">
         <v>0.1210819260992782</v>
       </c>
       <c r="AK24">
-        <v>108.59238000000001</v>
+        <v>108.59238</v>
       </c>
       <c r="AL24">
-        <v>205.63292782629901</v>
+        <v>205.632927826299</v>
       </c>
       <c r="AN24">
         <v>79.39423410906565</v>
       </c>
       <c r="AO24">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP24">
-        <v>693.40410998716993</v>
+        <v>693.4041099871699</v>
       </c>
       <c r="AQ24">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR24">
         <v>1094.388561628032</v>
       </c>
       <c r="AS24">
-        <v>1546.3477179579691</v>
+        <v>1546.347717957969</v>
       </c>
       <c r="AT24">
-        <v>19.592809124744459</v>
+        <v>19.59280912474446</v>
       </c>
       <c r="AU24">
         <v>208.490644330864</v>
       </c>
       <c r="AV24">
-        <v>2.8577165045650759</v>
+        <v>2.857716504565076</v>
       </c>
       <c r="AW24">
         <v>180.9873</v>
@@ -4226,7 +4592,7 @@
         <v>-16.19929999999999</v>
       </c>
       <c r="BA24">
-        <v>14.270500000000011</v>
+        <v>14.27050000000001</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -4235,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:55">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4291,22 +4657,22 @@
         <v>82</v>
       </c>
       <c r="U25">
-        <v>404.17335073704612</v>
+        <v>404.1733507370461</v>
       </c>
       <c r="V25">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W25">
-        <v>2734.4682315999999</v>
+        <v>2734.4682316</v>
       </c>
       <c r="X25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Y25">
-        <v>404.17335073704612</v>
+        <v>404.1733507370461</v>
       </c>
       <c r="Z25">
-        <v>386.17335073704612</v>
+        <v>386.1733507370461</v>
       </c>
       <c r="AA25">
         <v>18</v>
@@ -4318,7 +4684,7 @@
         <v>438</v>
       </c>
       <c r="AD25">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -4327,31 +4693,31 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.15572280472705671</v>
+        <v>0.1557228047270567</v>
       </c>
       <c r="AH25">
-        <v>0.15572280472705671</v>
+        <v>0.1557228047270567</v>
       </c>
       <c r="AI25">
-        <v>0.14878763574578791</v>
+        <v>0.1487876357457879</v>
       </c>
       <c r="AK25">
         <v>117.832588729582</v>
       </c>
       <c r="AL25">
-        <v>268.34076200746409</v>
+        <v>268.3407620074641</v>
       </c>
       <c r="AN25">
         <v>79.39423410906565</v>
       </c>
       <c r="AO25">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AP25">
-        <v>693.72452710375546</v>
+        <v>693.7245271037555</v>
       </c>
       <c r="AQ25">
-        <v>2595.4666784062961</v>
+        <v>2595.466678406296</v>
       </c>
       <c r="AR25">
         <v>1094.388561628032</v>
@@ -4360,16 +4726,16 @@
         <v>1509.974238681267</v>
       </c>
       <c r="AT25">
-        <v>5.2108694950744363</v>
+        <v>5.210869495074436</v>
       </c>
       <c r="AU25">
         <v>268.8458555737335</v>
       </c>
       <c r="AV25">
-        <v>0.50509356626942292</v>
+        <v>0.5050935662694229</v>
       </c>
       <c r="AW25">
-        <v>196.38764788263671</v>
+        <v>196.3876478826367</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -4390,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:55">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4446,22 +4812,22 @@
         <v>81</v>
       </c>
       <c r="U26">
-        <v>321.02795521649148</v>
+        <v>321.0279552164915</v>
       </c>
       <c r="V26">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W26">
-        <v>4408.0312689000002</v>
+        <v>4408.0312689</v>
       </c>
       <c r="X26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Y26">
-        <v>321.02795521649148</v>
+        <v>321.0279552164915</v>
       </c>
       <c r="Z26">
-        <v>303.02795521649148</v>
+        <v>303.0279552164915</v>
       </c>
       <c r="AA26">
         <v>18</v>
@@ -4473,7 +4839,7 @@
         <v>438</v>
       </c>
       <c r="AD26">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4482,46 +4848,46 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.12526761195560249</v>
+        <v>0.1252676119556025</v>
       </c>
       <c r="AH26">
-        <v>0.12526761195560249</v>
+        <v>0.1252676119556025</v>
       </c>
       <c r="AI26">
         <v>0.1182438715661393</v>
       </c>
       <c r="AK26">
-        <v>87.276957246813723</v>
+        <v>87.27695724681372</v>
       </c>
       <c r="AL26">
         <v>215.7509979696778</v>
       </c>
       <c r="AN26">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO26">
         <v>1862.336656134451</v>
       </c>
       <c r="AP26">
-        <v>700.40043292469613</v>
+        <v>700.4004329246961</v>
       </c>
       <c r="AQ26">
         <v>2562.737089059146</v>
       </c>
       <c r="AR26">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS26">
-        <v>1608.8313029404089</v>
+        <v>1608.831302940409</v>
       </c>
       <c r="AT26">
-        <v>19.815721715432769</v>
+        <v>19.81572171543277</v>
       </c>
       <c r="AU26">
-        <v>218.87721514091669</v>
+        <v>218.8772151409167</v>
       </c>
       <c r="AV26">
-        <v>3.1262171712389599</v>
+        <v>3.12621717123896</v>
       </c>
       <c r="AW26">
         <v>145.4615954113562</v>
@@ -4545,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:55">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4601,22 +4967,22 @@
         <v>81</v>
       </c>
       <c r="U27">
-        <v>340.39353908687173</v>
+        <v>340.3935390868717</v>
       </c>
       <c r="V27">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W27">
-        <v>5029.4755323999998</v>
+        <v>5029.4755324</v>
       </c>
       <c r="X27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Y27">
-        <v>340.39353908687173</v>
+        <v>340.3935390868717</v>
       </c>
       <c r="Z27">
-        <v>322.39353908687173</v>
+        <v>322.3935390868717</v>
       </c>
       <c r="AA27">
         <v>18</v>
@@ -4628,7 +4994,7 @@
         <v>438</v>
       </c>
       <c r="AD27">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -4637,49 +5003,49 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.13282385696953411</v>
+        <v>0.1328238569695341</v>
       </c>
       <c r="AH27">
-        <v>0.13282385696953411</v>
+        <v>0.1328238569695341</v>
       </c>
       <c r="AI27">
-        <v>0.12580013545042071</v>
+        <v>0.1258001354504207</v>
       </c>
       <c r="AK27">
-        <v>109.68526661999999</v>
+        <v>109.68526662</v>
       </c>
       <c r="AL27">
         <v>212.7082724668717</v>
       </c>
       <c r="AN27">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO27">
         <v>1862.336656134451</v>
       </c>
       <c r="AP27">
-        <v>700.40731812725187</v>
+        <v>700.4073181272519</v>
       </c>
       <c r="AQ27">
         <v>2562.743974261703</v>
       </c>
       <c r="AR27">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS27">
         <v>1619.862183749352</v>
       </c>
       <c r="AT27">
-        <v>29.690558937228701</v>
+        <v>29.6905589372287</v>
       </c>
       <c r="AU27">
-        <v>217.01804464512639</v>
+        <v>217.0180446451264</v>
       </c>
       <c r="AV27">
-        <v>4.3097721782547227</v>
+        <v>4.309772178254723</v>
       </c>
       <c r="AW27">
-        <v>182.80877770000001</v>
+        <v>182.8087777</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -4688,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>-9.3715451999999928</v>
+        <v>-9.371545199999993</v>
       </c>
       <c r="BA27">
         <v>13.92137769999999</v>
@@ -4700,12 +5066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:55">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -4753,7 +5119,7 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -4761,8 +5127,107 @@
       <c r="T28">
         <v>0.03</v>
       </c>
+      <c r="U28">
+        <v>338.1294978296661</v>
+      </c>
+      <c r="V28">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W28">
+        <v>5360.426135900001</v>
+      </c>
+      <c r="X28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28">
+        <v>338.1294978296661</v>
+      </c>
+      <c r="Z28">
+        <v>320.1294978296661</v>
+      </c>
+      <c r="AA28">
+        <v>18</v>
+      </c>
+      <c r="AB28">
+        <v>18</v>
+      </c>
+      <c r="AC28">
+        <v>438</v>
+      </c>
+      <c r="AD28">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0.1319404127862899</v>
+      </c>
+      <c r="AH28">
+        <v>0.1319404127862899</v>
+      </c>
+      <c r="AI28">
+        <v>0.1249166912671766</v>
+      </c>
+      <c r="AK28">
+        <v>107.6757571945984</v>
+      </c>
+      <c r="AL28">
+        <v>212.4537406350676</v>
+      </c>
+      <c r="AN28">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AO28">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AP28">
+        <v>700.4073181272513</v>
+      </c>
+      <c r="AQ28">
+        <v>2562.743974261702</v>
+      </c>
+      <c r="AR28">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AS28">
+        <v>1623.063282939574</v>
+      </c>
+      <c r="AT28">
+        <v>32.83038491794956</v>
+      </c>
+      <c r="AU28">
+        <v>217.2645388729399</v>
+      </c>
+      <c r="AV28">
+        <v>4.810798237872259</v>
+      </c>
+      <c r="AW28">
+        <v>179.4595953243308</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>-10.52741407858322</v>
+      </c>
+      <c r="BA28">
+        <v>11.46014220525018</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:55">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4821,13 +5286,13 @@
         <v>336.7464877154593</v>
       </c>
       <c r="V29">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W29">
-        <v>5162.2252600000011</v>
+        <v>5162.225260000001</v>
       </c>
       <c r="X29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Y29">
         <v>336.7464877154593</v>
@@ -4845,7 +5310,7 @@
         <v>438</v>
       </c>
       <c r="AD29">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4854,10 +5319,10 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.13140175914022409</v>
+        <v>0.1314017591402241</v>
       </c>
       <c r="AH29">
-        <v>0.13140175914022409</v>
+        <v>0.1314017591402241</v>
       </c>
       <c r="AI29">
         <v>0.1243779838350378</v>
@@ -4866,37 +5331,37 @@
         <v>106.4060359165518</v>
       </c>
       <c r="AL29">
-        <v>212.34045179890751</v>
+        <v>212.3404517989075</v>
       </c>
       <c r="AN29">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO29">
         <v>1862.336656134451</v>
       </c>
       <c r="AP29">
-        <v>700.38769336306018</v>
+        <v>700.3876933630602</v>
       </c>
       <c r="AQ29">
         <v>2562.724349497511</v>
       </c>
       <c r="AR29">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS29">
-        <v>1618.8391517133221</v>
+        <v>1618.839151713322</v>
       </c>
       <c r="AT29">
-        <v>28.638631861588809</v>
+        <v>28.63863186158881</v>
       </c>
       <c r="AU29">
-        <v>216.49486835243641</v>
+        <v>216.4948683524364</v>
       </c>
       <c r="AV29">
         <v>4.154416553528911</v>
       </c>
       <c r="AW29">
-        <v>177.34339319425311</v>
+        <v>177.3433931942531</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -4905,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="AZ29">
-        <v>-14.662973288702601</v>
+        <v>-14.6629732887026</v>
       </c>
       <c r="BA29">
-        <v>9.9019678789736503</v>
+        <v>9.90196787897365</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -4917,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:55">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4973,22 +5438,22 @@
         <v>81</v>
       </c>
       <c r="U30">
-        <v>340.23195443806139</v>
+        <v>340.2319544380614</v>
       </c>
       <c r="V30">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W30">
-        <v>4597.3369950999986</v>
+        <v>4597.336995099999</v>
       </c>
       <c r="X30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y30">
-        <v>340.23195443806139</v>
+        <v>340.2319544380614</v>
       </c>
       <c r="Z30">
-        <v>322.23195443806139</v>
+        <v>322.2319544380614</v>
       </c>
       <c r="AA30">
         <v>18</v>
@@ -5000,7 +5465,7 @@
         <v>438</v>
       </c>
       <c r="AD30">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -5018,13 +5483,13 @@
         <v>0.125737084029587</v>
       </c>
       <c r="AK30">
-        <v>108.58992000000001</v>
+        <v>108.58992</v>
       </c>
       <c r="AL30">
-        <v>213.64203443806139</v>
+        <v>213.6420344380614</v>
       </c>
       <c r="AN30">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO30">
         <v>1862.336656134451</v>
@@ -5033,25 +5498,25 @@
         <v>700.4073181272513</v>
       </c>
       <c r="AQ30">
-        <v>2562.7439742617021</v>
+        <v>2562.743974261702</v>
       </c>
       <c r="AR30">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS30">
-        <v>1621.4152982513081</v>
+        <v>1621.415298251308</v>
       </c>
       <c r="AT30">
-        <v>30.923383572200962</v>
+        <v>30.92338357220096</v>
       </c>
       <c r="AU30">
-        <v>218.35010529669071</v>
+        <v>218.3501052966907</v>
       </c>
       <c r="AV30">
         <v>4.708070858629287</v>
       </c>
       <c r="AW30">
-        <v>180.98320000000001</v>
+        <v>180.9832</v>
       </c>
       <c r="AX30">
         <v>0</v>
@@ -5060,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AZ30">
-        <v>-15.535600000000001</v>
+        <v>-15.5356</v>
       </c>
       <c r="BA30">
         <v>14.1259</v>
@@ -5072,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:55">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5131,13 +5596,13 @@
         <v>406.8163820868121</v>
       </c>
       <c r="V31">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W31">
-        <v>3081.8897509000021</v>
+        <v>3081.889750900002</v>
       </c>
       <c r="X31" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Y31">
         <v>406.8163820868121</v>
@@ -5155,7 +5620,7 @@
         <v>438</v>
       </c>
       <c r="AD31">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -5164,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.15873612456875011</v>
+        <v>0.1587361245687501</v>
       </c>
       <c r="AH31">
-        <v>0.15873612456875011</v>
+        <v>0.1587361245687501</v>
       </c>
       <c r="AI31">
         <v>0.1517126850809376</v>
@@ -5176,37 +5641,37 @@
         <v>113.9669336698602</v>
       </c>
       <c r="AL31">
-        <v>274.84944841695187</v>
+        <v>274.8494484169519</v>
       </c>
       <c r="AN31">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AO31">
         <v>1862.336656134451</v>
       </c>
       <c r="AP31">
-        <v>700.51022696818086</v>
+        <v>700.5102269681809</v>
       </c>
       <c r="AQ31">
-        <v>2562.8468831026312</v>
+        <v>2562.846883102631</v>
       </c>
       <c r="AR31">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AS31">
-        <v>1573.5177818156119</v>
+        <v>1573.517781815612</v>
       </c>
       <c r="AT31">
-        <v>5.6431807879044698</v>
+        <v>5.64318078790447</v>
       </c>
       <c r="AU31">
-        <v>275.34758842948997</v>
+        <v>275.34758842949</v>
       </c>
       <c r="AV31">
         <v>0.4981400125380876</v>
       </c>
       <c r="AW31">
-        <v>189.94488944976709</v>
+        <v>189.9448894497671</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -5227,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:55">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5283,22 +5748,22 @@
         <v>81</v>
       </c>
       <c r="U32">
-        <v>296.84382271385891</v>
+        <v>296.8438227138589</v>
       </c>
       <c r="V32">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W32">
-        <v>4805.5266041000004</v>
+        <v>4805.5266041</v>
       </c>
       <c r="X32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y32">
-        <v>296.84382271385891</v>
+        <v>296.8438227138589</v>
       </c>
       <c r="Z32">
-        <v>278.84382271385891</v>
+        <v>278.8438227138589</v>
       </c>
       <c r="AA32">
         <v>18</v>
@@ -5310,7 +5775,7 @@
         <v>438</v>
       </c>
       <c r="AD32">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -5319,49 +5784,49 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.13350493890499071</v>
+        <v>0.1335049389049907</v>
       </c>
       <c r="AH32">
-        <v>0.13350493890499071</v>
+        <v>0.1335049389049907</v>
       </c>
       <c r="AI32">
-        <v>0.12540947349048459</v>
+        <v>0.1254094734904846</v>
       </c>
       <c r="AK32">
-        <v>93.028828727978237</v>
+        <v>93.02882872797824</v>
       </c>
       <c r="AL32">
-        <v>185.81499398588059</v>
+        <v>185.8149939858806</v>
       </c>
       <c r="AN32">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO32">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP32">
-        <v>545.30342309900755</v>
+        <v>545.3034230990075</v>
       </c>
       <c r="AQ32">
         <v>2223.466975443574</v>
       </c>
       <c r="AR32">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS32">
         <v>1451.117032634555</v>
       </c>
       <c r="AT32">
-        <v>43.530778916740253</v>
+        <v>43.53077891674025</v>
       </c>
       <c r="AU32">
         <v>193.2801890157786</v>
       </c>
       <c r="AV32">
-        <v>7.4651950298980054</v>
+        <v>7.465195029898005</v>
       </c>
       <c r="AW32">
-        <v>155.04804787996369</v>
+        <v>155.0480478799637</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -5382,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:55">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5441,13 +5906,13 @@
         <v>309.8850957169908</v>
       </c>
       <c r="V33">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W33">
-        <v>3990.0028820000011</v>
+        <v>3990.002882000001</v>
       </c>
       <c r="X33" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Y33">
         <v>309.8850957169908</v>
@@ -5465,7 +5930,7 @@
         <v>438</v>
       </c>
       <c r="AD33">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -5480,43 +5945,43 @@
         <v>0.1393702263804345</v>
       </c>
       <c r="AI33">
-        <v>0.13127476096592841</v>
+        <v>0.1312747609659284</v>
       </c>
       <c r="AK33">
         <v>106.75437846</v>
       </c>
       <c r="AL33">
-        <v>185.13071725699081</v>
+        <v>185.1307172569908</v>
       </c>
       <c r="AN33">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO33">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP33">
-        <v>545.30342309900709</v>
+        <v>545.3034230990071</v>
       </c>
       <c r="AQ33">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR33">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS33">
-        <v>1465.2010430141249</v>
+        <v>1465.201043014125</v>
       </c>
       <c r="AT33">
-        <v>56.714174058790533</v>
+        <v>56.71417405879053</v>
       </c>
       <c r="AU33">
-        <v>193.92249513433711</v>
+        <v>193.9224951343371</v>
       </c>
       <c r="AV33">
-        <v>8.7917778773463198</v>
+        <v>8.79177787734632</v>
       </c>
       <c r="AW33">
-        <v>177.92396410000001</v>
+        <v>177.9239641</v>
       </c>
       <c r="AX33">
         <v>0</v>
@@ -5528,7 +5993,7 @@
         <v>-11.2707692</v>
       </c>
       <c r="BA33">
-        <v>9.2829169999999976</v>
+        <v>9.282916999999998</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -5537,12 +6002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:55">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -5590,7 +6055,7 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s">
         <v>83</v>
@@ -5598,8 +6063,107 @@
       <c r="T34">
         <v>0.03</v>
       </c>
+      <c r="U34">
+        <v>311.4662145976599</v>
+      </c>
+      <c r="V34">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W34">
+        <v>4651.1717174</v>
+      </c>
+      <c r="X34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y34">
+        <v>311.4662145976599</v>
+      </c>
+      <c r="Z34">
+        <v>293.4662145976599</v>
+      </c>
+      <c r="AA34">
+        <v>18</v>
+      </c>
+      <c r="AB34">
+        <v>18</v>
+      </c>
+      <c r="AC34">
+        <v>438</v>
+      </c>
+      <c r="AD34">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0.1400813315590279</v>
+      </c>
+      <c r="AH34">
+        <v>0.1400813315590279</v>
+      </c>
+      <c r="AI34">
+        <v>0.1319858661445217</v>
+      </c>
+      <c r="AK34">
+        <v>108.4100247496534</v>
+      </c>
+      <c r="AL34">
+        <v>185.0561898480066</v>
+      </c>
+      <c r="AN34">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AO34">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AP34">
+        <v>545.3034230990064</v>
+      </c>
+      <c r="AQ34">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AR34">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AS34">
+        <v>1463.559535149554</v>
+      </c>
+      <c r="AT34">
+        <v>55.00334767299045</v>
+      </c>
+      <c r="AU34">
+        <v>193.9505002763175</v>
+      </c>
+      <c r="AV34">
+        <v>8.894310428310968</v>
+      </c>
+      <c r="AW34">
+        <v>180.6833745827556</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>-10.13792834195151</v>
+      </c>
+      <c r="BA34">
+        <v>11.79597458275563</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:55">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5655,22 +6219,22 @@
         <v>81</v>
       </c>
       <c r="U35">
-        <v>309.60648460498157</v>
+        <v>309.6064846049816</v>
       </c>
       <c r="V35">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W35">
-        <v>4626.5784198000001</v>
+        <v>4626.5784198</v>
       </c>
       <c r="X35" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Y35">
-        <v>309.60648460498157</v>
+        <v>309.6064846049816</v>
       </c>
       <c r="Z35">
-        <v>291.60648460498157</v>
+        <v>291.6064846049816</v>
       </c>
       <c r="AA35">
         <v>18</v>
@@ -5682,7 +6246,7 @@
         <v>438</v>
       </c>
       <c r="AD35">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -5691,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0.13924492156813631</v>
+        <v>0.1392449215681363</v>
       </c>
       <c r="AH35">
-        <v>0.13924492156813631</v>
+        <v>0.1392449215681363</v>
       </c>
       <c r="AI35">
-        <v>0.13114945615363011</v>
+        <v>0.1311494561536301</v>
       </c>
       <c r="AK35">
         <v>106.0479950548862</v>
@@ -5706,10 +6270,10 @@
         <v>185.5584895500954</v>
       </c>
       <c r="AN35">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO35">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP35">
         <v>545.3034230990072</v>
@@ -5718,22 +6282,22 @@
         <v>2223.466975443574</v>
       </c>
       <c r="AR35">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS35">
         <v>1462.03011191107</v>
       </c>
       <c r="AT35">
-        <v>53.517754059669628</v>
+        <v>53.51775405966963</v>
       </c>
       <c r="AU35">
         <v>193.6087802792558</v>
       </c>
       <c r="AV35">
-        <v>8.0502907291604604</v>
+        <v>8.05029072916046</v>
       </c>
       <c r="AW35">
-        <v>176.74665842481031</v>
+        <v>176.7466584248103</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -5742,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="AZ35">
-        <v>-12.671797090554961</v>
+        <v>-12.67179709055496</v>
       </c>
       <c r="BA35">
-        <v>9.8738014563410275</v>
+        <v>9.873801456341027</v>
       </c>
       <c r="BB35">
         <v>0</v>
@@ -5754,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:55">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5810,22 +6374,22 @@
         <v>81</v>
       </c>
       <c r="U36">
-        <v>312.04982798323522</v>
+        <v>312.0498279832352</v>
       </c>
       <c r="V36">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W36">
-        <v>4347.8883198000003</v>
+        <v>4347.8883198</v>
       </c>
       <c r="X36" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y36">
-        <v>312.04982798323522</v>
+        <v>312.0498279832352</v>
       </c>
       <c r="Z36">
-        <v>294.04982798323522</v>
+        <v>294.0498279832352</v>
       </c>
       <c r="AA36">
         <v>18</v>
@@ -5837,7 +6401,7 @@
         <v>438</v>
       </c>
       <c r="AD36">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -5846,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>0.14034381055782599</v>
+        <v>0.140343810557826</v>
       </c>
       <c r="AH36">
-        <v>0.14034381055782599</v>
+        <v>0.140343810557826</v>
       </c>
       <c r="AI36">
         <v>0.1322483451433199</v>
@@ -5858,49 +6422,49 @@
         <v>107.97528</v>
       </c>
       <c r="AL36">
-        <v>186.07454798323511</v>
+        <v>186.0745479832351</v>
       </c>
       <c r="AN36">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO36">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP36">
-        <v>545.30342309900675</v>
+        <v>545.3034230990067</v>
       </c>
       <c r="AQ36">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR36">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS36">
         <v>1461.372893724033</v>
       </c>
       <c r="AT36">
-        <v>52.929967646590711</v>
+        <v>52.92996764659071</v>
       </c>
       <c r="AU36">
         <v>194.8137341087982</v>
       </c>
       <c r="AV36">
-        <v>8.7391861255630765</v>
+        <v>8.739186125563077</v>
       </c>
       <c r="AW36">
         <v>179.9588</v>
       </c>
       <c r="AX36">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY36">
-        <v>6.0235464487861794E-16</v>
+        <v>6.023546448786179E-16</v>
       </c>
       <c r="AZ36">
         <v>-15.8574</v>
       </c>
       <c r="BA36">
-        <v>11.196700000000011</v>
+        <v>11.19670000000001</v>
       </c>
       <c r="BB36">
         <v>0</v>
@@ -5909,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:55">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5965,22 +6529,22 @@
         <v>82</v>
       </c>
       <c r="U37">
-        <v>373.16421286263619</v>
+        <v>373.1642128626362</v>
       </c>
       <c r="V37">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W37">
         <v>2155.698132699999</v>
       </c>
       <c r="X37" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y37">
-        <v>373.16421286263619</v>
+        <v>373.1642128626362</v>
       </c>
       <c r="Z37">
-        <v>355.16421286263619</v>
+        <v>355.1642128626362</v>
       </c>
       <c r="AA37">
         <v>18</v>
@@ -5992,7 +6556,7 @@
         <v>438</v>
       </c>
       <c r="AD37">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -6001,55 +6565,55 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0.16783059642566139</v>
+        <v>0.1678305964256614</v>
       </c>
       <c r="AH37">
-        <v>0.16783059642566139</v>
+        <v>0.1678305964256614</v>
       </c>
       <c r="AI37">
         <v>0.1597350968264703</v>
       </c>
       <c r="AK37">
-        <v>130.25024071374651</v>
+        <v>130.2502407137465</v>
       </c>
       <c r="AL37">
-        <v>238.14317254876769</v>
+        <v>238.1431725487677</v>
       </c>
       <c r="AN37">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AO37">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AP37">
-        <v>545.29403411479598</v>
+        <v>545.294034114796</v>
       </c>
       <c r="AQ37">
-        <v>2223.4575864593621</v>
+        <v>2223.457586459362</v>
       </c>
       <c r="AR37">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AS37">
         <v>1394.275333979085</v>
       </c>
       <c r="AT37">
-        <v>4.7718162428039914</v>
+        <v>4.771816242803991</v>
       </c>
       <c r="AU37">
-        <v>238.59942811381919</v>
+        <v>238.5994281138192</v>
       </c>
       <c r="AV37">
-        <v>0.45625556505147619</v>
+        <v>0.4562555650514762</v>
       </c>
       <c r="AW37">
-        <v>217.08373452291079</v>
+        <v>217.0837345229108</v>
       </c>
       <c r="AX37">
-        <v>78.026394616265151</v>
+        <v>78.02639461626515</v>
       </c>
       <c r="AY37">
-        <v>13.229200399877911</v>
+        <v>13.22920039987791</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -6064,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:55">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6120,22 +6684,22 @@
         <v>81</v>
       </c>
       <c r="U38">
-        <v>202.53937507394511</v>
+        <v>202.5393750739451</v>
       </c>
       <c r="V38">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W38">
         <v>3785.950578200001</v>
       </c>
       <c r="X38" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Y38">
-        <v>202.53937507394511</v>
+        <v>202.5393750739451</v>
       </c>
       <c r="Z38">
-        <v>184.53937507394511</v>
+        <v>184.5393750739451</v>
       </c>
       <c r="AA38">
         <v>18</v>
@@ -6147,7 +6711,7 @@
         <v>438</v>
       </c>
       <c r="AD38">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -6156,52 +6720,52 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>9.4323236781738901E-2</v>
+        <v>0.0943232367817389</v>
       </c>
       <c r="AH38">
-        <v>9.4323236781738901E-2</v>
+        <v>0.0943232367817389</v>
       </c>
       <c r="AI38">
-        <v>8.5940579032096662E-2</v>
+        <v>0.08594057903209666</v>
       </c>
       <c r="AK38">
-        <v>64.250985475254581</v>
+        <v>64.25098547525458</v>
       </c>
       <c r="AL38">
-        <v>132.72375563948901</v>
+        <v>132.723755639489</v>
       </c>
       <c r="AN38">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO38">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP38">
-        <v>558.73555273537977</v>
+        <v>558.7355527353798</v>
       </c>
       <c r="AQ38">
-        <v>2147.2903388866421</v>
+        <v>2147.290338886642</v>
       </c>
       <c r="AR38">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS38">
-        <v>1090.1242507198731</v>
+        <v>1090.124250719873</v>
       </c>
       <c r="AT38">
-        <v>84.676057606460517</v>
+        <v>84.67605760646052</v>
       </c>
       <c r="AU38">
-        <v>145.72469822482259</v>
+        <v>145.7246982248226</v>
       </c>
       <c r="AV38">
-        <v>13.000942585333609</v>
+        <v>13.00094258533361</v>
       </c>
       <c r="AW38">
         <v>107.084975792091</v>
       </c>
       <c r="AX38">
-        <v>73.344410376157697</v>
+        <v>73.3444103761577</v>
       </c>
       <c r="AY38">
         <v>12.43536604079854</v>
@@ -6219,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:55">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6275,22 +6839,22 @@
         <v>81</v>
       </c>
       <c r="U39">
-        <v>252.16012846604011</v>
+        <v>252.1601284660401</v>
       </c>
       <c r="V39">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W39">
         <v>3933.969730999997</v>
       </c>
       <c r="X39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Y39">
-        <v>252.16012846604011</v>
+        <v>252.1601284660401</v>
       </c>
       <c r="Z39">
-        <v>234.16012846604011</v>
+        <v>234.1601284660401</v>
       </c>
       <c r="AA39">
         <v>18</v>
@@ -6302,7 +6866,7 @@
         <v>438</v>
       </c>
       <c r="AD39">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -6317,43 +6881,43 @@
         <v>0.117439428512059</v>
       </c>
       <c r="AI39">
-        <v>0.10905622484668751</v>
+        <v>0.1090562248466875</v>
       </c>
       <c r="AK39">
         <v>106.2331533</v>
       </c>
       <c r="AL39">
-        <v>127.92697516604009</v>
+        <v>127.9269751660401</v>
       </c>
       <c r="AN39">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO39">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP39">
-        <v>558.59572080260659</v>
+        <v>558.5957208026066</v>
       </c>
       <c r="AQ39">
         <v>2147.150506953868</v>
       </c>
       <c r="AR39">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS39">
-        <v>1120.4434704088389</v>
+        <v>1120.443470408839</v>
       </c>
       <c r="AT39">
         <v>114.8993540919824</v>
       </c>
       <c r="AU39">
-        <v>145.42183013756821</v>
+        <v>145.4218301375682</v>
       </c>
       <c r="AV39">
         <v>17.49485497152811</v>
       </c>
       <c r="AW39">
-        <v>177.05525549999999</v>
+        <v>177.0552555</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -6365,7 +6929,7 @@
         <v>-11.5378943</v>
       </c>
       <c r="BA39">
-        <v>8.4215313999999921</v>
+        <v>8.421531399999992</v>
       </c>
       <c r="BB39">
         <v>0</v>
@@ -6374,12 +6938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:55">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
@@ -6427,7 +6991,7 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s">
         <v>83</v>
@@ -6435,8 +6999,107 @@
       <c r="T40">
         <v>0.03</v>
       </c>
+      <c r="U40">
+        <v>254.2218780692646</v>
+      </c>
+      <c r="V40">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W40">
+        <v>1085.101120799998</v>
+      </c>
+      <c r="X40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y40">
+        <v>254.2218780692646</v>
+      </c>
+      <c r="Z40">
+        <v>236.2218780692646</v>
+      </c>
+      <c r="AA40">
+        <v>18</v>
+      </c>
+      <c r="AB40">
+        <v>18</v>
+      </c>
+      <c r="AC40">
+        <v>438</v>
+      </c>
+      <c r="AD40">
+        <v>6.617335512531104</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0.1183996544471051</v>
+      </c>
+      <c r="AH40">
+        <v>0.1183996544471051</v>
+      </c>
+      <c r="AI40">
+        <v>0.1100164507817336</v>
+      </c>
+      <c r="AK40">
+        <v>108.6608975569714</v>
+      </c>
+      <c r="AL40">
+        <v>127.5609805122932</v>
+      </c>
+      <c r="AN40">
+        <v>58.69714285714286</v>
+      </c>
+      <c r="AO40">
+        <v>1588.554786151262</v>
+      </c>
+      <c r="AP40">
+        <v>558.5957208026068</v>
+      </c>
+      <c r="AQ40">
+        <v>2147.150506953869</v>
+      </c>
+      <c r="AR40">
+        <v>1167.710296098818</v>
+      </c>
+      <c r="AS40">
+        <v>1121.269668035464</v>
+      </c>
+      <c r="AT40">
+        <v>115.4802095395816</v>
+      </c>
+      <c r="AU40">
+        <v>145.1928087405863</v>
+      </c>
+      <c r="AV40">
+        <v>17.63182822829319</v>
+      </c>
+      <c r="AW40">
+        <v>181.1014959282857</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>-9.502326731270045</v>
+      </c>
+      <c r="BA40">
+        <v>12.21409592828573</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:55">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6492,22 +7155,22 @@
         <v>81</v>
       </c>
       <c r="U41">
-        <v>252.84619050058339</v>
+        <v>252.8461905005834</v>
       </c>
       <c r="V41">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W41">
-        <v>3713.9349309000031</v>
+        <v>3713.934930900003</v>
       </c>
       <c r="X41" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Y41">
-        <v>252.84619050058339</v>
+        <v>252.8461905005834</v>
       </c>
       <c r="Z41">
-        <v>234.84619050058339</v>
+        <v>234.8461905005834</v>
       </c>
       <c r="AA41">
         <v>18</v>
@@ -6519,7 +7182,7 @@
         <v>438</v>
       </c>
       <c r="AD41">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -6540,22 +7203,22 @@
         <v>105.8134854485876</v>
       </c>
       <c r="AL41">
-        <v>129.03270505199569</v>
+        <v>129.0327050519957</v>
       </c>
       <c r="AN41">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO41">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP41">
-        <v>558.59572080260682</v>
+        <v>558.5957208026068</v>
       </c>
       <c r="AQ41">
-        <v>2147.1505069538689</v>
+        <v>2147.150506953869</v>
       </c>
       <c r="AR41">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS41">
         <v>1108.50016927866</v>
@@ -6564,13 +7227,13 @@
         <v>103.6622145923499</v>
       </c>
       <c r="AU41">
-        <v>144.75608819640439</v>
+        <v>144.7560881964044</v>
       </c>
       <c r="AV41">
-        <v>15.723383144408629</v>
+        <v>15.72338314440863</v>
       </c>
       <c r="AW41">
-        <v>176.35580908097941</v>
+        <v>176.3558090809794</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -6591,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:55">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6650,13 +7313,13 @@
         <v>251.5540912825789</v>
       </c>
       <c r="V42">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W42">
         <v>4435.972125799999</v>
       </c>
       <c r="X42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Y42">
         <v>251.5540912825789</v>
@@ -6674,7 +7337,7 @@
         <v>438</v>
       </c>
       <c r="AD42">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -6692,25 +7355,25 @@
         <v>0.1087739730057017</v>
       </c>
       <c r="AK42">
-        <v>104.51448000000001</v>
+        <v>104.51448</v>
       </c>
       <c r="AL42">
-        <v>129.03961128257879</v>
+        <v>129.0396112825788</v>
       </c>
       <c r="AN42">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO42">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP42">
-        <v>558.59572080260659</v>
+        <v>558.5957208026066</v>
       </c>
       <c r="AQ42">
         <v>2147.150506953868</v>
       </c>
       <c r="AR42">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS42">
         <v>1116.383503563889</v>
@@ -6722,7 +7385,7 @@
         <v>146.0180953466587</v>
       </c>
       <c r="AV42">
-        <v>16.978484064079829</v>
+        <v>16.97848406407983</v>
       </c>
       <c r="AW42">
         <v>174.1908</v>
@@ -6746,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:55">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6802,22 +7465,22 @@
         <v>82</v>
       </c>
       <c r="U43">
-        <v>281.70780807850832</v>
+        <v>281.7078080785083</v>
       </c>
       <c r="V43">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W43">
         <v>2425.651271700001</v>
       </c>
       <c r="X43" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Y43">
-        <v>281.70780807850832</v>
+        <v>281.7078080785083</v>
       </c>
       <c r="Z43">
-        <v>263.70780807850832</v>
+        <v>263.7078080785083</v>
       </c>
       <c r="AA43">
         <v>18</v>
@@ -6829,7 +7492,7 @@
         <v>438</v>
       </c>
       <c r="AD43">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -6838,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0.13118293547240539</v>
+        <v>0.1311829354724054</v>
       </c>
       <c r="AH43">
-        <v>0.13118293547240539</v>
+        <v>0.1311829354724054</v>
       </c>
       <c r="AI43">
         <v>0.1228008716076891</v>
@@ -6853,31 +7516,31 @@
         <v>174.7900379939887</v>
       </c>
       <c r="AN43">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AO43">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AP43">
-        <v>558.88769227815362</v>
+        <v>558.8876922781536</v>
       </c>
       <c r="AQ43">
         <v>2147.442478429416</v>
       </c>
       <c r="AR43">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AS43">
         <v>1013.817661960604</v>
       </c>
       <c r="AT43">
-        <v>28.644924667230899</v>
+        <v>28.6449246672309</v>
       </c>
       <c r="AU43">
-        <v>177.58811220232619</v>
+        <v>177.5881122023262</v>
       </c>
       <c r="AV43">
-        <v>2.7980742083375398</v>
+        <v>2.79807420833754</v>
       </c>
       <c r="AW43">
         <v>148.1962834741993</v>
@@ -6901,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:55">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6957,22 +7620,22 @@
         <v>81</v>
       </c>
       <c r="U44">
-        <v>220.86910316564339</v>
+        <v>220.8691031656434</v>
       </c>
       <c r="V44">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W44">
         <v>4034.9013639</v>
       </c>
       <c r="X44" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y44">
-        <v>220.86910316564339</v>
+        <v>220.8691031656434</v>
       </c>
       <c r="Z44">
-        <v>202.86910316564339</v>
+        <v>202.8691031656434</v>
       </c>
       <c r="AA44">
         <v>18</v>
@@ -6984,7 +7647,7 @@
         <v>438</v>
       </c>
       <c r="AD44">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6999,49 +7662,49 @@
         <v>0.1029213036845322</v>
       </c>
       <c r="AI44">
-        <v>9.4533605089440684E-2</v>
+        <v>0.09453360508944068</v>
       </c>
       <c r="AK44">
-        <v>63.328706658872619</v>
+        <v>63.32870665887262</v>
       </c>
       <c r="AL44">
-        <v>139.54039650677069</v>
+        <v>139.5403965067707</v>
       </c>
       <c r="AN44">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO44">
         <v>1615.704738151263</v>
       </c>
       <c r="AP44">
-        <v>530.29512056251099</v>
+        <v>530.295120562511</v>
       </c>
       <c r="AQ44">
-        <v>2145.9998587137729</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR44">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS44">
-        <v>1125.8001350346431</v>
+        <v>1125.800135034643</v>
       </c>
       <c r="AT44">
-        <v>65.903730648754589</v>
+        <v>65.90373064875459</v>
       </c>
       <c r="AU44">
-        <v>150.41583382017251</v>
+        <v>150.4158338201725</v>
       </c>
       <c r="AV44">
         <v>10.8754373134018</v>
       </c>
       <c r="AW44">
-        <v>105.54784443145439</v>
+        <v>105.5478444314544</v>
       </c>
       <c r="AX44">
-        <v>2.1316282072803009E-14</v>
+        <v>2.131628207280301E-14</v>
       </c>
       <c r="AY44">
-        <v>3.6141236782017448E-15</v>
+        <v>3.614123678201745E-15</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -7056,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:55">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7112,19 +7775,19 @@
         <v>81</v>
       </c>
       <c r="U45">
-        <v>259.96035679131973</v>
+        <v>259.9603567913197</v>
       </c>
       <c r="V45">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W45">
         <v>3542.0395641</v>
       </c>
       <c r="X45" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Y45">
-        <v>259.96035679131973</v>
+        <v>259.9603567913197</v>
       </c>
       <c r="Z45">
         <v>241.9603567913197</v>
@@ -7139,7 +7802,7 @@
         <v>438</v>
       </c>
       <c r="AD45">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -7154,55 +7817,55 @@
         <v>0.1211371733021126</v>
       </c>
       <c r="AI45">
-        <v>0.11274947470702119</v>
+        <v>0.1127494747070212</v>
       </c>
       <c r="AK45">
         <v>105.72771822</v>
       </c>
       <c r="AL45">
-        <v>136.23263857131971</v>
+        <v>136.2326385713197</v>
       </c>
       <c r="AN45">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO45">
         <v>1615.704738151263</v>
       </c>
       <c r="AP45">
-        <v>530.29512056251133</v>
+        <v>530.2951205625113</v>
       </c>
       <c r="AQ45">
-        <v>2145.9998587137738</v>
+        <v>2145.999858713774</v>
       </c>
       <c r="AR45">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS45">
         <v>1138.820264761338</v>
       </c>
       <c r="AT45">
-        <v>77.809087004447434</v>
+        <v>77.80908700444743</v>
       </c>
       <c r="AU45">
-        <v>148.42143777691851</v>
+        <v>148.4214377769185</v>
       </c>
       <c r="AV45">
         <v>12.1887992055988</v>
       </c>
       <c r="AW45">
-        <v>176.21286370000001</v>
+        <v>176.2128637</v>
       </c>
       <c r="AX45">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY45">
         <v>6.023539463669574E-16</v>
       </c>
       <c r="AZ45">
-        <v>-8.9287703999999977</v>
+        <v>-8.928770399999998</v>
       </c>
       <c r="BA45">
-        <v>7.4296906999999948</v>
+        <v>7.429690699999995</v>
       </c>
       <c r="BB45">
         <v>0</v>
@@ -7211,12 +7874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:55">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -7264,7 +7927,7 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s">
         <v>83</v>
@@ -7272,8 +7935,107 @@
       <c r="T46">
         <v>0.03</v>
       </c>
+      <c r="U46">
+        <v>259.8496231416889</v>
+      </c>
+      <c r="V46">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W46">
+        <v>4419.770444299997</v>
+      </c>
+      <c r="X46" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y46">
+        <v>259.8496231416889</v>
+      </c>
+      <c r="Z46">
+        <v>241.8496231416889</v>
+      </c>
+      <c r="AA46">
+        <v>18</v>
+      </c>
+      <c r="AB46">
+        <v>18</v>
+      </c>
+      <c r="AC46">
+        <v>438</v>
+      </c>
+      <c r="AD46">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0.1210855732755884</v>
+      </c>
+      <c r="AH46">
+        <v>0.1210855732755884</v>
+      </c>
+      <c r="AI46">
+        <v>0.1126978746804969</v>
+      </c>
+      <c r="AK46">
+        <v>106.1102033765803</v>
+      </c>
+      <c r="AL46">
+        <v>135.7394197651086</v>
+      </c>
+      <c r="AN46">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AO46">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AP46">
+        <v>530.2951205625111</v>
+      </c>
+      <c r="AQ46">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AR46">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AS46">
+        <v>1141.212311308453</v>
+      </c>
+      <c r="AT46">
+        <v>79.72743890979996</v>
+      </c>
+      <c r="AU46">
+        <v>148.2365934788574</v>
+      </c>
+      <c r="AV46">
+        <v>12.49717371374883</v>
+      </c>
+      <c r="AW46">
+        <v>176.8503389609672</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>-10.81671595956716</v>
+      </c>
+      <c r="BA46">
+        <v>9.512037084353494</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:55">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7329,22 +8091,22 @@
         <v>81</v>
       </c>
       <c r="U47">
-        <v>258.40475889032922</v>
+        <v>258.4047588903292</v>
       </c>
       <c r="V47">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W47">
         <v>4033.925197</v>
       </c>
       <c r="X47" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Y47">
-        <v>258.40475889032922</v>
+        <v>258.4047588903292</v>
       </c>
       <c r="Z47">
-        <v>240.40475889032919</v>
+        <v>240.4047588903292</v>
       </c>
       <c r="AA47">
         <v>18</v>
@@ -7356,7 +8118,7 @@
         <v>438</v>
       </c>
       <c r="AD47">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -7371,55 +8133,55 @@
         <v>0.120412290728298</v>
       </c>
       <c r="AI47">
-        <v>0.11202459213320649</v>
+        <v>0.1120245921332065</v>
       </c>
       <c r="AK47">
         <v>104.352103293657</v>
       </c>
       <c r="AL47">
-        <v>136.05265559667231</v>
+        <v>136.0526555966723</v>
       </c>
       <c r="AN47">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO47">
         <v>1615.704738151263</v>
       </c>
       <c r="AP47">
-        <v>530.29512056251076</v>
+        <v>530.2951205625108</v>
       </c>
       <c r="AQ47">
-        <v>2145.9998587137729</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR47">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS47">
         <v>1141.15249835448</v>
       </c>
       <c r="AT47">
-        <v>79.846518963630231</v>
+        <v>79.84651896363023</v>
       </c>
       <c r="AU47">
-        <v>148.80947723083051</v>
+        <v>148.8094772308305</v>
       </c>
       <c r="AV47">
-        <v>12.756821634158261</v>
+        <v>12.75682163415826</v>
       </c>
       <c r="AW47">
-        <v>173.92017215609499</v>
+        <v>173.920172156095</v>
       </c>
       <c r="AX47">
-        <v>1.4210854715202001E-14</v>
+        <v>1.4210854715202E-14</v>
       </c>
       <c r="AY47">
         <v>2.40941578546783E-15</v>
       </c>
       <c r="AZ47">
-        <v>-9.0130585592351622</v>
+        <v>-9.013058559235162</v>
       </c>
       <c r="BA47">
-        <v>11.605235898302711</v>
+        <v>11.60523589830271</v>
       </c>
       <c r="BB47">
         <v>0</v>
@@ -7428,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:55">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7484,19 +8246,19 @@
         <v>81</v>
       </c>
       <c r="U48">
-        <v>260.28475929374167</v>
+        <v>260.2847592937417</v>
       </c>
       <c r="V48">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W48">
-        <v>4446.9703320999979</v>
+        <v>4446.970332099998</v>
       </c>
       <c r="X48" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Y48">
-        <v>260.28475929374167</v>
+        <v>260.2847592937417</v>
       </c>
       <c r="Z48">
         <v>242.2847592937417</v>
@@ -7511,7 +8273,7 @@
         <v>438</v>
       </c>
       <c r="AD48">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -7526,37 +8288,37 @@
         <v>0.1212883394362132</v>
       </c>
       <c r="AI48">
-        <v>0.11290064084112179</v>
+        <v>0.1129006408411218</v>
       </c>
       <c r="AK48">
-        <v>105.50033999999999</v>
+        <v>105.50034</v>
       </c>
       <c r="AL48">
-        <v>136.78441929374171</v>
+        <v>136.7844192937417</v>
       </c>
       <c r="AN48">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO48">
         <v>1615.704738151263</v>
       </c>
       <c r="AP48">
-        <v>530.29512056251008</v>
+        <v>530.2951205625101</v>
       </c>
       <c r="AQ48">
         <v>2145.999858713772</v>
       </c>
       <c r="AR48">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS48">
-        <v>1144.9153442404661</v>
+        <v>1144.915344240466</v>
       </c>
       <c r="AT48">
-        <v>83.556854223463333</v>
+        <v>83.55685422346333</v>
       </c>
       <c r="AU48">
-        <v>149.92951612762661</v>
+        <v>149.9295161276266</v>
       </c>
       <c r="AV48">
         <v>13.14509683388491</v>
@@ -7571,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="AZ48">
-        <v>-13.001200000000001</v>
+        <v>-13.0012</v>
       </c>
       <c r="BA48">
         <v>14.71709999999999</v>
@@ -7583,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:55">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7642,13 +8404,13 @@
         <v>284.9565950485669</v>
       </c>
       <c r="V49">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W49">
-        <v>2710.7044859999992</v>
+        <v>2710.704485999999</v>
       </c>
       <c r="X49" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Y49">
         <v>284.9565950485669</v>
@@ -7666,7 +8428,7 @@
         <v>438</v>
       </c>
       <c r="AD49">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -7675,34 +8437,34 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0.13278500177505079</v>
+        <v>0.1327850017750508</v>
       </c>
       <c r="AH49">
-        <v>0.13278500177505079</v>
+        <v>0.1327850017750508</v>
       </c>
       <c r="AI49">
         <v>0.1243973031799593</v>
       </c>
       <c r="AK49">
-        <v>82.825798593990513</v>
+        <v>82.82579859399051</v>
       </c>
       <c r="AL49">
         <v>184.1307964545764</v>
       </c>
       <c r="AN49">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AO49">
         <v>1615.704738151263</v>
       </c>
       <c r="AP49">
-        <v>530.29512056250951</v>
+        <v>530.2951205625095</v>
       </c>
       <c r="AQ49">
         <v>2145.999858713772</v>
       </c>
       <c r="AR49">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AS49">
         <v>1050.96200448077</v>
@@ -7711,7 +8473,7 @@
         <v>10.15305457700342</v>
       </c>
       <c r="AU49">
-        <v>185.13781775618409</v>
+        <v>185.1378177561841</v>
       </c>
       <c r="AV49">
         <v>1.007021301607659</v>
@@ -7738,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:55">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7794,22 +8556,22 @@
         <v>81</v>
       </c>
       <c r="U50">
-        <v>279.80424768985881</v>
+        <v>279.8042476898588</v>
       </c>
       <c r="V50">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W50">
-        <v>4387.4618907999966</v>
+        <v>4387.461890799997</v>
       </c>
       <c r="X50" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Y50">
-        <v>279.80424768985881</v>
+        <v>279.8042476898588</v>
       </c>
       <c r="Z50">
-        <v>261.80424768985881</v>
+        <v>261.8042476898588</v>
       </c>
       <c r="AA50">
         <v>18</v>
@@ -7821,7 +8583,7 @@
         <v>438</v>
       </c>
       <c r="AD50">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -7836,31 +8598,31 @@
         <v>0.1251541445308369</v>
       </c>
       <c r="AI50">
-        <v>0.11710289219941381</v>
+        <v>0.1171028921994138</v>
       </c>
       <c r="AK50">
-        <v>88.561481839182008</v>
+        <v>88.56148183918201</v>
       </c>
       <c r="AL50">
         <v>173.2427658506767</v>
       </c>
       <c r="AN50">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO50">
         <v>1640.910548940604</v>
       </c>
       <c r="AP50">
-        <v>594.76649346782779</v>
+        <v>594.7664934678278</v>
       </c>
       <c r="AQ50">
         <v>2235.677042408432</v>
       </c>
       <c r="AR50">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS50">
-        <v>1285.9645220659261</v>
+        <v>1285.964522065926</v>
       </c>
       <c r="AT50">
         <v>14.4013131946794</v>
@@ -7872,7 +8634,7 @@
         <v>2.529103342857288</v>
       </c>
       <c r="AW50">
-        <v>147.60246973196999</v>
+        <v>147.60246973197</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -7893,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:55">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7949,22 +8711,22 @@
         <v>81</v>
       </c>
       <c r="U51">
-        <v>292.76098018397232</v>
+        <v>292.7609801839723</v>
       </c>
       <c r="V51">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W51">
-        <v>4030.1361468000032</v>
+        <v>4030.136146800003</v>
       </c>
       <c r="X51" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y51">
-        <v>292.76098018397232</v>
+        <v>292.7609801839723</v>
       </c>
       <c r="Z51">
-        <v>274.76098018397232</v>
+        <v>274.7609801839723</v>
       </c>
       <c r="AA51">
         <v>18</v>
@@ -7976,7 +8738,7 @@
         <v>438</v>
       </c>
       <c r="AD51">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE51">
         <v>0</v>
@@ -7985,49 +8747,49 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>0.13094958468088441</v>
+        <v>0.1309495846808844</v>
       </c>
       <c r="AH51">
-        <v>0.13094958468088441</v>
+        <v>0.1309495846808844</v>
       </c>
       <c r="AI51">
-        <v>0.12289833234946131</v>
+        <v>0.1228983323494613</v>
       </c>
       <c r="AK51">
         <v>107.68123944</v>
       </c>
       <c r="AL51">
-        <v>167.07974074397231</v>
+        <v>167.0797407439723</v>
       </c>
       <c r="AN51">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO51">
         <v>1640.910548940604</v>
       </c>
       <c r="AP51">
-        <v>594.76649346782892</v>
+        <v>594.7664934678289</v>
       </c>
       <c r="AQ51">
         <v>2235.677042408433</v>
       </c>
       <c r="AR51">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS51">
         <v>1312.457451321724</v>
       </c>
       <c r="AT51">
-        <v>38.470644515344318</v>
+        <v>38.47064451534432</v>
       </c>
       <c r="AU51">
-        <v>172.53015042737201</v>
+        <v>172.530150427372</v>
       </c>
       <c r="AV51">
-        <v>5.4504096833996769</v>
+        <v>5.450409683399677</v>
       </c>
       <c r="AW51">
-        <v>179.46873239999999</v>
+        <v>179.4687324</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -8036,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AZ51">
-        <v>-15.257862899999999</v>
+        <v>-15.2578629</v>
       </c>
       <c r="BA51">
         <v>13.17740139999999</v>
@@ -8048,12 +8810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:55">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>56</v>
@@ -8101,7 +8863,7 @@
         <v>0.6</v>
       </c>
       <c r="R52" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s">
         <v>83</v>
@@ -8109,8 +8871,107 @@
       <c r="T52">
         <v>0.03</v>
       </c>
+      <c r="U52">
+        <v>292.548527520901</v>
+      </c>
+      <c r="V52">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W52">
+        <v>4488.814633300004</v>
+      </c>
+      <c r="X52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y52">
+        <v>292.548527520901</v>
+      </c>
+      <c r="Z52">
+        <v>274.548527520901</v>
+      </c>
+      <c r="AA52">
+        <v>18</v>
+      </c>
+      <c r="AB52">
+        <v>18</v>
+      </c>
+      <c r="AC52">
+        <v>438</v>
+      </c>
+      <c r="AD52">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0.1308545563476139</v>
+      </c>
+      <c r="AH52">
+        <v>0.1308545563476139</v>
+      </c>
+      <c r="AI52">
+        <v>0.1228033040161908</v>
+      </c>
+      <c r="AK52">
+        <v>107.6019871788487</v>
+      </c>
+      <c r="AL52">
+        <v>166.9465403420523</v>
+      </c>
+      <c r="AN52">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AO52">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AP52">
+        <v>594.7664934678278</v>
+      </c>
+      <c r="AQ52">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AR52">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AS52">
+        <v>1308.640692576375</v>
+      </c>
+      <c r="AT52">
+        <v>34.41082680572709</v>
+      </c>
+      <c r="AU52">
+        <v>172.3398594297562</v>
+      </c>
+      <c r="AV52">
+        <v>5.393319087703909</v>
+      </c>
+      <c r="AW52">
+        <v>179.3366452980812</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>-10.3993042022568</v>
+      </c>
+      <c r="BA52">
+        <v>10.44924529808114</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:55">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8166,22 +9027,22 @@
         <v>81</v>
       </c>
       <c r="U53">
-        <v>291.70288644499487</v>
+        <v>291.7028864449949</v>
       </c>
       <c r="V53">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W53">
-        <v>3975.2822305000009</v>
+        <v>3975.282230500001</v>
       </c>
       <c r="X53" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y53">
-        <v>291.70288644499487</v>
+        <v>291.7028864449949</v>
       </c>
       <c r="Z53">
-        <v>273.70288644499487</v>
+        <v>273.7028864449949</v>
       </c>
       <c r="AA53">
         <v>18</v>
@@ -8193,7 +9054,7 @@
         <v>438</v>
       </c>
       <c r="AD53">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -8202,10 +9063,10 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0.13047630803183971</v>
+        <v>0.1304763080318397</v>
       </c>
       <c r="AH53">
-        <v>0.13047630803183971</v>
+        <v>0.1304763080318397</v>
       </c>
       <c r="AI53">
         <v>0.1224250557004166</v>
@@ -8217,34 +9078,34 @@
         <v>167.4539882818969</v>
       </c>
       <c r="AN53">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO53">
         <v>1640.910548940604</v>
       </c>
       <c r="AP53">
-        <v>594.76649346782767</v>
+        <v>594.7664934678277</v>
       </c>
       <c r="AQ53">
         <v>2235.677042408432</v>
       </c>
       <c r="AR53">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS53">
-        <v>1303.8595937997979</v>
+        <v>1303.859593799798</v>
       </c>
       <c r="AT53">
-        <v>29.983903253818621</v>
+        <v>29.98390325381862</v>
       </c>
       <c r="AU53">
-        <v>172.15915706549771</v>
+        <v>172.1591570654977</v>
       </c>
       <c r="AV53">
-        <v>4.7051687836008451</v>
+        <v>4.705168783600845</v>
       </c>
       <c r="AW53">
-        <v>177.08149693849671</v>
+        <v>177.0814969384967</v>
       </c>
       <c r="AX53">
         <v>0</v>
@@ -8265,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:55">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8321,22 +9182,22 @@
         <v>81</v>
       </c>
       <c r="U54">
-        <v>291.50558438948792</v>
+        <v>291.5055843894879</v>
       </c>
       <c r="V54">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W54">
-        <v>5450.5691479000016</v>
+        <v>5450.569147900002</v>
       </c>
       <c r="X54" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y54">
-        <v>291.50558438948792</v>
+        <v>291.5055843894879</v>
       </c>
       <c r="Z54">
-        <v>273.50558438948792</v>
+        <v>273.5055843894879</v>
       </c>
       <c r="AA54">
         <v>18</v>
@@ -8348,7 +9209,7 @@
         <v>438</v>
       </c>
       <c r="AD54">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -8357,40 +9218,40 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0.13038805644104001</v>
+        <v>0.13038805644104</v>
       </c>
       <c r="AH54">
-        <v>0.13038805644104001</v>
+        <v>0.13038805644104</v>
       </c>
       <c r="AI54">
-        <v>0.12233680410961691</v>
+        <v>0.1223368041096169</v>
       </c>
       <c r="AK54">
         <v>105.43656</v>
       </c>
       <c r="AL54">
-        <v>168.06902438948791</v>
+        <v>168.0690243894879</v>
       </c>
       <c r="AN54">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO54">
         <v>1640.910548940604</v>
       </c>
       <c r="AP54">
-        <v>594.76649346782767</v>
+        <v>594.7664934678277</v>
       </c>
       <c r="AQ54">
         <v>2235.677042408432</v>
       </c>
       <c r="AR54">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS54">
         <v>1304.852722408536</v>
       </c>
       <c r="AT54">
-        <v>31.119778303228589</v>
+        <v>31.11977830322859</v>
       </c>
       <c r="AU54">
         <v>173.0534162334917</v>
@@ -8411,7 +9272,7 @@
         <v>-14.2308</v>
       </c>
       <c r="BA54">
-        <v>17.121000000000009</v>
+        <v>17.12100000000001</v>
       </c>
       <c r="BB54">
         <v>0</v>
@@ -8420,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:55">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8476,22 +9337,22 @@
         <v>82</v>
       </c>
       <c r="U55">
-        <v>348.35314674999722</v>
+        <v>348.3531467499972</v>
       </c>
       <c r="V55">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W55">
-        <v>2685.3571256999999</v>
+        <v>2685.3571257</v>
       </c>
       <c r="X55" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y55">
-        <v>348.35314674999722</v>
+        <v>348.3531467499972</v>
       </c>
       <c r="Z55">
-        <v>330.35314674999722</v>
+        <v>330.3531467499972</v>
       </c>
       <c r="AA55">
         <v>18</v>
@@ -8503,7 +9364,7 @@
         <v>438</v>
       </c>
       <c r="AD55">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -8518,43 +9379,43 @@
         <v>0.1558155047183051</v>
       </c>
       <c r="AI55">
-        <v>0.14776425238688201</v>
+        <v>0.147764252386882</v>
       </c>
       <c r="AK55">
-        <v>108.74298395652561</v>
+        <v>108.7429839565256</v>
       </c>
       <c r="AL55">
         <v>221.6101627934716</v>
       </c>
       <c r="AN55">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AO55">
         <v>1640.910548940604</v>
       </c>
       <c r="AP55">
-        <v>594.76649346782665</v>
+        <v>594.7664934678266</v>
       </c>
       <c r="AQ55">
-        <v>2235.6770424084311</v>
+        <v>2235.677042408431</v>
       </c>
       <c r="AR55">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AS55">
         <v>1252.275043262551</v>
       </c>
       <c r="AT55">
-        <v>6.0417110703047069E-15</v>
+        <v>6.041711070304707E-15</v>
       </c>
       <c r="AU55">
         <v>221.6101627934716</v>
       </c>
       <c r="AV55">
-        <v>4.9458068762359795E-16</v>
+        <v>4.94580687623598E-16</v>
       </c>
       <c r="AW55">
-        <v>181.23830659420929</v>
+        <v>181.2383065942093</v>
       </c>
       <c r="AX55">
         <v>0</v>
@@ -8575,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:55">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8631,22 +9492,22 @@
         <v>81</v>
       </c>
       <c r="U56">
-        <v>339.90998083824638</v>
+        <v>339.9099808382464</v>
       </c>
       <c r="V56">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W56">
-        <v>5750.6801011999996</v>
+        <v>5750.6801012</v>
       </c>
       <c r="X56" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y56">
-        <v>339.90998083824638</v>
+        <v>339.9099808382464</v>
       </c>
       <c r="Z56">
-        <v>321.90998083824638</v>
+        <v>321.9099808382464</v>
       </c>
       <c r="AA56">
         <v>18</v>
@@ -8658,7 +9519,7 @@
         <v>438</v>
       </c>
       <c r="AD56">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE56">
         <v>0</v>
@@ -8676,25 +9537,25 @@
         <v>0.1195226168756283</v>
       </c>
       <c r="AK56">
-        <v>80.867059908839394</v>
+        <v>80.86705990883939</v>
       </c>
       <c r="AL56">
         <v>251.3858279808226</v>
       </c>
       <c r="AN56">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO56">
         <v>1861.262727529411</v>
       </c>
       <c r="AP56">
-        <v>832.03490310409961</v>
+        <v>832.0349031040996</v>
       </c>
       <c r="AQ56">
-        <v>2693.2976306335099</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AR56">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS56">
         <v>1787.098664323865</v>
@@ -8706,13 +9567,13 @@
         <v>251.3858279808226</v>
       </c>
       <c r="AV56">
-        <v>1.5033675145106919E-15</v>
+        <v>1.503367514510692E-15</v>
       </c>
       <c r="AW56">
-        <v>134.77843318139901</v>
+        <v>134.778433181399</v>
       </c>
       <c r="AX56">
-        <v>61.002982684437683</v>
+        <v>61.00298268443768</v>
       </c>
       <c r="AY56">
         <v>10.34290705141556</v>
@@ -8730,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:55">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8789,13 +9650,13 @@
         <v>379.5845586066452</v>
       </c>
       <c r="V57">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W57">
-        <v>5201.5951798000024</v>
+        <v>5201.595179800002</v>
       </c>
       <c r="X57" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Y57">
         <v>379.5845586066452</v>
@@ -8813,7 +9674,7 @@
         <v>438</v>
       </c>
       <c r="AD57">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE57">
         <v>0</v>
@@ -8822,13 +9683,13 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>0.14093672911944771</v>
+        <v>0.1409367291194477</v>
       </c>
       <c r="AH57">
-        <v>0.14093672911944771</v>
+        <v>0.1409367291194477</v>
       </c>
       <c r="AI57">
-        <v>0.13425347220967709</v>
+        <v>0.1342534722096771</v>
       </c>
       <c r="AK57">
         <v>116.4712629</v>
@@ -8837,34 +9698,34 @@
         <v>245.1132957066452</v>
       </c>
       <c r="AN57">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO57">
         <v>1861.262727529411</v>
       </c>
       <c r="AP57">
-        <v>832.03490310409916</v>
+        <v>832.0349031040992</v>
       </c>
       <c r="AQ57">
-        <v>2693.2976306335099</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AR57">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS57">
-        <v>1796.7745828922209</v>
+        <v>1796.774582892221</v>
       </c>
       <c r="AT57">
-        <v>10.090075365516229</v>
+        <v>10.09007536551623</v>
       </c>
       <c r="AU57">
-        <v>246.34130875361109</v>
+        <v>246.3413087536111</v>
       </c>
       <c r="AV57">
-        <v>1.2280130469659829</v>
+        <v>1.228013046965983</v>
       </c>
       <c r="AW57">
-        <v>194.11877150000001</v>
+        <v>194.1187715</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -8873,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>-8.4512329000000008</v>
+        <v>-8.451232900000001</v>
       </c>
       <c r="BA57">
-        <v>25.231371499999991</v>
+        <v>25.23137149999999</v>
       </c>
       <c r="BB57">
         <v>0</v>
@@ -8885,12 +9746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:55">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
@@ -8938,7 +9799,7 @@
         <v>0.6</v>
       </c>
       <c r="R58" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S58" t="s">
         <v>83</v>
@@ -8946,8 +9807,107 @@
       <c r="T58">
         <v>0.03</v>
       </c>
+      <c r="U58">
+        <v>371.8986253258022</v>
+      </c>
+      <c r="V58">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="W58">
+        <v>4826.959895200001</v>
+      </c>
+      <c r="X58" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y58">
+        <v>371.8986253258022</v>
+      </c>
+      <c r="Z58">
+        <v>353.8986253258022</v>
+      </c>
+      <c r="AA58">
+        <v>18</v>
+      </c>
+      <c r="AB58">
+        <v>18</v>
+      </c>
+      <c r="AC58">
+        <v>438</v>
+      </c>
+      <c r="AD58">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0.1380830031912682</v>
+      </c>
+      <c r="AH58">
+        <v>0.1380830031912682</v>
+      </c>
+      <c r="AI58">
+        <v>0.1313997462814977</v>
+      </c>
+      <c r="AK58">
+        <v>108.8366981141541</v>
+      </c>
+      <c r="AL58">
+        <v>245.0619272116482</v>
+      </c>
+      <c r="AN58">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AO58">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AP58">
+        <v>832.0349031041001</v>
+      </c>
+      <c r="AQ58">
+        <v>2693.297630633511</v>
+      </c>
+      <c r="AR58">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AS58">
+        <v>1796.438038086327</v>
+      </c>
+      <c r="AT58">
+        <v>9.699207181266235</v>
+      </c>
+      <c r="AU58">
+        <v>246.3741636729987</v>
+      </c>
+      <c r="AV58">
+        <v>1.312236461350539</v>
+      </c>
+      <c r="AW58">
+        <v>181.3944968569234</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>-11.0383652965116</v>
+      </c>
+      <c r="BA58">
+        <v>12.50709685692345</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:55">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -9003,22 +9963,22 @@
         <v>81</v>
       </c>
       <c r="U59">
-        <v>371.07778258403403</v>
+        <v>371.077782584034</v>
       </c>
       <c r="V59">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W59">
-        <v>6907.5192913999999</v>
+        <v>6907.5192914</v>
       </c>
       <c r="X59" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y59">
-        <v>371.07778258403403</v>
+        <v>371.077782584034</v>
       </c>
       <c r="Z59">
-        <v>353.07778258403403</v>
+        <v>353.077782584034</v>
       </c>
       <c r="AA59">
         <v>18</v>
@@ -9030,7 +9990,7 @@
         <v>438</v>
       </c>
       <c r="AD59">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE59">
         <v>0</v>
@@ -9051,34 +10011,34 @@
         <v>108.1378678442093</v>
       </c>
       <c r="AL59">
-        <v>244.93991473982459</v>
+        <v>244.9399147398246</v>
       </c>
       <c r="AN59">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO59">
         <v>1861.262727529411</v>
       </c>
       <c r="AP59">
-        <v>832.03490310409813</v>
+        <v>832.0349031040981</v>
       </c>
       <c r="AQ59">
         <v>2693.297630633509</v>
       </c>
       <c r="AR59">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS59">
         <v>1789.730092562394</v>
       </c>
       <c r="AT59">
-        <v>3.0576822802869552</v>
+        <v>3.057682280286955</v>
       </c>
       <c r="AU59">
-        <v>245.38414081047389</v>
+        <v>245.3841408104739</v>
       </c>
       <c r="AV59">
-        <v>0.44422607064922759</v>
+        <v>0.4442260706492276</v>
       </c>
       <c r="AW59">
         <v>180.2297797403489</v>
@@ -9093,7 +10053,7 @@
         <v>-12.71181636181905</v>
       </c>
       <c r="BA59">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BB59">
         <v>0</v>
@@ -9102,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:55">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -9158,22 +10118,22 @@
         <v>81</v>
       </c>
       <c r="U60">
-        <v>372.35685033784551</v>
+        <v>372.3568503378455</v>
       </c>
       <c r="V60">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W60">
         <v>6237.529884100004</v>
       </c>
       <c r="X60" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y60">
-        <v>372.35685033784551</v>
+        <v>372.3568503378455</v>
       </c>
       <c r="Z60">
-        <v>354.35685033784551</v>
+        <v>354.3568503378455</v>
       </c>
       <c r="AA60">
         <v>18</v>
@@ -9185,7 +10145,7 @@
         <v>438</v>
       </c>
       <c r="AD60">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -9194,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AG60">
-        <v>0.13825313849559989</v>
+        <v>0.1382531384955999</v>
       </c>
       <c r="AH60">
-        <v>0.13825313849559989</v>
+        <v>0.1382531384955999</v>
       </c>
       <c r="AI60">
         <v>0.1315698815858293</v>
@@ -9206,40 +10166,40 @@
         <v>108.11478</v>
       </c>
       <c r="AL60">
-        <v>246.24207033784549</v>
+        <v>246.2420703378455</v>
       </c>
       <c r="AN60">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO60">
         <v>1861.262727529411</v>
       </c>
       <c r="AP60">
-        <v>832.03490310409813</v>
+        <v>832.0349031040981</v>
       </c>
       <c r="AQ60">
         <v>2693.297630633509</v>
       </c>
       <c r="AR60">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS60">
         <v>1792.994773694176</v>
       </c>
       <c r="AT60">
-        <v>6.3865059815809637</v>
+        <v>6.386505981580964</v>
       </c>
       <c r="AU60">
         <v>247.1574211178378</v>
       </c>
       <c r="AV60">
-        <v>0.91535077999229286</v>
+        <v>0.9153507799922929</v>
       </c>
       <c r="AW60">
-        <v>180.19130000000001</v>
+        <v>180.1913</v>
       </c>
       <c r="AX60">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AY60">
         <v>1.204707892733915E-15</v>
@@ -9248,7 +10208,7 @@
         <v>-16.59869999999999</v>
       </c>
       <c r="BA60">
-        <v>15.948999999999989</v>
+        <v>15.94899999999999</v>
       </c>
       <c r="BB60">
         <v>0</v>
@@ -9257,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:55">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -9313,22 +10273,22 @@
         <v>82</v>
       </c>
       <c r="U61">
-        <v>440.35346651424072</v>
+        <v>440.3534665142407</v>
       </c>
       <c r="V61">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="W61">
-        <v>3381.0679853999968</v>
+        <v>3381.067985399997</v>
       </c>
       <c r="X61" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y61">
-        <v>440.35346651424072</v>
+        <v>440.3534665142407</v>
       </c>
       <c r="Z61">
-        <v>422.35346651424072</v>
+        <v>422.3534665142407</v>
       </c>
       <c r="AA61">
         <v>18</v>
@@ -9340,7 +10300,7 @@
         <v>438</v>
       </c>
       <c r="AD61">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -9349,10 +10309,10 @@
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>0.16349974154570579</v>
+        <v>0.1634997415457058</v>
       </c>
       <c r="AH61">
-        <v>0.16349974154570579</v>
+        <v>0.1634997415457058</v>
       </c>
       <c r="AI61">
         <v>0.1568164846359352</v>
@@ -9364,25 +10324,25 @@
         <v>319.199425320469</v>
       </c>
       <c r="AN61">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AO61">
         <v>1861.262727529411</v>
       </c>
       <c r="AP61">
-        <v>832.03490310409961</v>
+        <v>832.0349031040996</v>
       </c>
       <c r="AQ61">
-        <v>2693.2976306335099</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AR61">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AS61">
-        <v>1762.2183606291819</v>
+        <v>1762.218360629182</v>
       </c>
       <c r="AT61">
-        <v>3.8548436151825269E-15</v>
+        <v>3.854843615182527E-15</v>
       </c>
       <c r="AU61">
         <v>319.199425320469</v>
@@ -9391,7 +10351,7 @@
         <v>3.394555225146606E-16</v>
       </c>
       <c r="AW61">
-        <v>171.92340198961949</v>
+        <v>171.9234019896195</v>
       </c>
       <c r="AX61">
         <v>0</v>
@@ -9412,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:55">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -9468,22 +10428,22 @@
         <v>81</v>
       </c>
       <c r="U62">
-        <v>387.03680133019469</v>
+        <v>387.0368013301947</v>
       </c>
       <c r="V62">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W62">
-        <v>5013.3131850999998</v>
+        <v>5013.3131851</v>
       </c>
       <c r="X62" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y62">
-        <v>387.03680133019469</v>
+        <v>387.0368013301947</v>
       </c>
       <c r="Z62">
-        <v>369.03680133019469</v>
+        <v>369.0368013301947</v>
       </c>
       <c r="AA62">
         <v>18</v>
@@ -9495,7 +10455,7 @@
         <v>438</v>
       </c>
       <c r="AD62">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE62">
         <v>0</v>
@@ -9504,28 +10464,28 @@
         <v>0</v>
       </c>
       <c r="AG62">
-        <v>0.15385287051789481</v>
+        <v>0.1538528705178948</v>
       </c>
       <c r="AH62">
-        <v>0.15385287051789481</v>
+        <v>0.1538528705178948</v>
       </c>
       <c r="AI62">
-        <v>0.14669760347402661</v>
+        <v>0.1466976034740266</v>
       </c>
       <c r="AK62">
         <v>101.0670155130132</v>
       </c>
       <c r="AL62">
-        <v>267.96978581718139</v>
+        <v>267.9697858171814</v>
       </c>
       <c r="AN62">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO62">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP62">
-        <v>754.43308972078012</v>
+        <v>754.4330897207801</v>
       </c>
       <c r="AQ62">
         <v>2515.629380377261</v>
@@ -9534,19 +10494,19 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AS62">
-        <v>1914.6158758293741</v>
+        <v>1914.615875829374</v>
       </c>
       <c r="AT62">
-        <v>0.96866258355037682</v>
+        <v>0.9686625835503768</v>
       </c>
       <c r="AU62">
-        <v>268.14065789691972</v>
+        <v>268.1406578969197</v>
       </c>
       <c r="AV62">
         <v>0.170872079738286</v>
       </c>
       <c r="AW62">
-        <v>168.44502585502201</v>
+        <v>168.445025855022</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -9567,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:55">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -9626,13 +10586,13 @@
         <v>396.1782064984418</v>
       </c>
       <c r="V63">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W63">
-        <v>5627.3846806000001</v>
+        <v>5627.3846806</v>
       </c>
       <c r="X63" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y63">
         <v>396.1782064984418</v>
@@ -9650,7 +10610,7 @@
         <v>438</v>
       </c>
       <c r="AD63">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -9665,25 +10625,25 @@
         <v>0.1574867146920618</v>
       </c>
       <c r="AI63">
-        <v>0.15033144764819359</v>
+        <v>0.1503314476481936</v>
       </c>
       <c r="AK63">
         <v>110.84218206</v>
       </c>
       <c r="AL63">
-        <v>267.33602443844183</v>
+        <v>267.3360244384418</v>
       </c>
       <c r="AN63">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO63">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP63">
-        <v>754.43308972077921</v>
+        <v>754.4330897207792</v>
       </c>
       <c r="AQ63">
-        <v>2515.6293803772601</v>
+        <v>2515.62938037726</v>
       </c>
       <c r="AR63">
         <v>626.1831707214252</v>
@@ -9692,16 +10652,16 @@
         <v>1933.060617902024</v>
       </c>
       <c r="AT63">
-        <v>18.603603021015399</v>
+        <v>18.6036030210154</v>
       </c>
       <c r="AU63">
-        <v>269.68586731293351</v>
+        <v>269.6858673129335</v>
       </c>
       <c r="AV63">
         <v>2.349842874491725</v>
       </c>
       <c r="AW63">
-        <v>184.73697010000001</v>
+        <v>184.7369701</v>
       </c>
       <c r="AX63">
         <v>0</v>
@@ -9710,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>-62.687575199999998</v>
+        <v>-62.6875752</v>
       </c>
       <c r="BA63">
         <v>15.84957010000001</v>
@@ -9722,12 +10682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:55">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>55</v>
       </c>
       <c r="C64" t="s">
         <v>56</v>
@@ -9775,7 +10735,7 @@
         <v>0.6</v>
       </c>
       <c r="R64" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S64" t="s">
         <v>83</v>
@@ -9783,8 +10743,107 @@
       <c r="T64">
         <v>0.03</v>
       </c>
+      <c r="U64">
+        <v>391.6884598354612</v>
+      </c>
+      <c r="V64">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W64">
+        <v>4080.492474399995</v>
+      </c>
+      <c r="X64" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y64">
+        <v>391.6884598354612</v>
+      </c>
+      <c r="Z64">
+        <v>373.6884598354612</v>
+      </c>
+      <c r="AA64">
+        <v>18</v>
+      </c>
+      <c r="AB64">
+        <v>18</v>
+      </c>
+      <c r="AC64">
+        <v>438</v>
+      </c>
+      <c r="AD64">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0.1557019737846762</v>
+      </c>
+      <c r="AH64">
+        <v>0.1557019737846762</v>
+      </c>
+      <c r="AI64">
+        <v>0.148546706740808</v>
+      </c>
+      <c r="AK64">
+        <v>106.9763075896843</v>
+      </c>
+      <c r="AL64">
+        <v>266.7121522457769</v>
+      </c>
+      <c r="AN64">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AO64">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AP64">
+        <v>754.4330897207781</v>
+      </c>
+      <c r="AQ64">
+        <v>2515.629380377259</v>
+      </c>
+      <c r="AR64">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AS64">
+        <v>1924.684484508199</v>
+      </c>
+      <c r="AT64">
+        <v>10.01241721982796</v>
+      </c>
+      <c r="AU64">
+        <v>268.1110490191485</v>
+      </c>
+      <c r="AV64">
+        <v>1.398896773371598</v>
+      </c>
+      <c r="AW64">
+        <v>178.2938459828071</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>-13.25696562151613</v>
+      </c>
+      <c r="BA64">
+        <v>10.42137630373843</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:55">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9840,22 +10899,22 @@
         <v>81</v>
       </c>
       <c r="U65">
-        <v>407.20175292776338</v>
+        <v>407.2017529277634</v>
       </c>
       <c r="V65">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W65">
-        <v>4420.7457340000037</v>
+        <v>4420.745734000004</v>
       </c>
       <c r="X65" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y65">
-        <v>407.20175292776338</v>
+        <v>407.2017529277634</v>
       </c>
       <c r="Z65">
-        <v>389.20175292776338</v>
+        <v>389.2017529277634</v>
       </c>
       <c r="AA65">
         <v>18</v>
@@ -9867,7 +10926,7 @@
         <v>438</v>
       </c>
       <c r="AD65">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE65">
         <v>0</v>
@@ -9876,10 +10935,10 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>0.16186873794052151</v>
+        <v>0.1618687379405215</v>
       </c>
       <c r="AH65">
-        <v>0.16186873794052151</v>
+        <v>0.1618687379405215</v>
       </c>
       <c r="AI65">
         <v>0.1547134708966533</v>
@@ -9888,16 +10947,16 @@
         <v>122.26998</v>
       </c>
       <c r="AL65">
-        <v>266.93177292776352</v>
+        <v>266.9317729277635</v>
       </c>
       <c r="AN65">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO65">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP65">
-        <v>754.43308972078057</v>
+        <v>754.4330897207806</v>
       </c>
       <c r="AQ65">
         <v>2515.629380377261</v>
@@ -9912,7 +10971,7 @@
         <v>12.06870089379677</v>
       </c>
       <c r="AU65">
-        <v>268.59709148006061</v>
+        <v>268.5970914800606</v>
       </c>
       <c r="AV65">
         <v>1.665318552297167</v>
@@ -9921,16 +10980,16 @@
         <v>203.7833</v>
       </c>
       <c r="AX65">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY65">
-        <v>6.0235464487861794E-16</v>
+        <v>6.023546448786179E-16</v>
       </c>
       <c r="AZ65">
-        <v>-61.138085366173371</v>
+        <v>-61.13808536617337</v>
       </c>
       <c r="BA65">
-        <v>52.160114482970258</v>
+        <v>52.16011448297026</v>
       </c>
       <c r="BB65">
         <v>0</v>
@@ -9939,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:55">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9995,22 +11054,22 @@
         <v>81</v>
       </c>
       <c r="U66">
-        <v>402.03956297168389</v>
+        <v>402.0395629716839</v>
       </c>
       <c r="V66">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W66">
-        <v>4984.7114594000013</v>
+        <v>4984.711459400001</v>
       </c>
       <c r="X66" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y66">
-        <v>402.03956297168389</v>
+        <v>402.0395629716839</v>
       </c>
       <c r="Z66">
-        <v>384.03956297168389</v>
+        <v>384.0395629716839</v>
       </c>
       <c r="AA66">
         <v>18</v>
@@ -10022,7 +11081,7 @@
         <v>438</v>
       </c>
       <c r="AD66">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE66">
         <v>0</v>
@@ -10031,31 +11090,31 @@
         <v>0</v>
       </c>
       <c r="AG66">
-        <v>0.15981669084791469</v>
+        <v>0.1598166908479147</v>
       </c>
       <c r="AH66">
-        <v>0.15981669084791469</v>
+        <v>0.1598166908479147</v>
       </c>
       <c r="AI66">
-        <v>0.15266142380404649</v>
+        <v>0.1526614238040465</v>
       </c>
       <c r="AK66">
         <v>113.03934</v>
       </c>
       <c r="AL66">
-        <v>271.00022297168391</v>
+        <v>271.0002229716839</v>
       </c>
       <c r="AN66">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO66">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP66">
-        <v>754.43308972077921</v>
+        <v>754.4330897207792</v>
       </c>
       <c r="AQ66">
-        <v>2515.6293803772601</v>
+        <v>2515.62938037726</v>
       </c>
       <c r="AR66">
         <v>626.1831707214252</v>
@@ -10064,13 +11123,13 @@
         <v>1921.913280301995</v>
       </c>
       <c r="AT66">
-        <v>8.0086463894917266</v>
+        <v>8.008646389491727</v>
       </c>
       <c r="AU66">
-        <v>272.23252058638258</v>
+        <v>272.2325205863826</v>
       </c>
       <c r="AV66">
-        <v>1.2322976146986571</v>
+        <v>1.232297614698657</v>
       </c>
       <c r="AW66">
         <v>188.3989</v>
@@ -10082,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="AZ66">
-        <v>-61.053699999999999</v>
+        <v>-61.0537</v>
       </c>
       <c r="BA66">
-        <v>57.783299999999997</v>
+        <v>57.7833</v>
       </c>
       <c r="BB66">
         <v>0</v>
@@ -10094,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:55">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -10150,22 +11209,22 @@
         <v>82</v>
       </c>
       <c r="U67">
-        <v>480.19913313597908</v>
+        <v>480.1991331359791</v>
       </c>
       <c r="V67">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W67">
-        <v>2902.5685335000021</v>
+        <v>2902.568533500002</v>
       </c>
       <c r="X67" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y67">
-        <v>480.19913313597908</v>
+        <v>480.1991331359791</v>
       </c>
       <c r="Z67">
-        <v>462.19913313597908</v>
+        <v>462.1991331359791</v>
       </c>
       <c r="AA67">
         <v>18</v>
@@ -10177,7 +11236,7 @@
         <v>438</v>
       </c>
       <c r="AD67">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -10186,28 +11245,28 @@
         <v>0</v>
       </c>
       <c r="AG67">
-        <v>0.19088627954566389</v>
+        <v>0.1908862795456639</v>
       </c>
       <c r="AH67">
-        <v>0.19088627954566389</v>
+        <v>0.1908862795456639</v>
       </c>
       <c r="AI67">
-        <v>0.18373101250179569</v>
+        <v>0.1837310125017957</v>
       </c>
       <c r="AK67">
-        <v>122.73629989235531</v>
+        <v>122.7362998923553</v>
       </c>
       <c r="AL67">
-        <v>339.46283324362378</v>
+        <v>339.4628332436238</v>
       </c>
       <c r="AN67">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AO67">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AP67">
-        <v>754.43308972077944</v>
+        <v>754.4330897207794</v>
       </c>
       <c r="AQ67">
         <v>2515.629380377261</v>
@@ -10219,16 +11278,16 @@
         <v>1890.98697588306</v>
       </c>
       <c r="AT67">
-        <v>4.3128636010447206E-15</v>
+        <v>4.312863601044721E-15</v>
       </c>
       <c r="AU67">
-        <v>339.46283324362378</v>
+        <v>339.4628332436238</v>
       </c>
       <c r="AV67">
         <v>3.180516635054375E-16</v>
       </c>
       <c r="AW67">
-        <v>204.56049982059221</v>
+        <v>204.5604998205922</v>
       </c>
       <c r="AX67">
         <v>0</v>
@@ -10249,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:55">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -10305,22 +11364,22 @@
         <v>81</v>
       </c>
       <c r="U68">
-        <v>338.11243507970221</v>
+        <v>338.1124350797022</v>
       </c>
       <c r="V68">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W68">
-        <v>3810.7690647999989</v>
+        <v>3810.769064799999</v>
       </c>
       <c r="X68" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y68">
-        <v>338.11243507970221</v>
+        <v>338.1124350797022</v>
       </c>
       <c r="Z68">
-        <v>320.11243507970221</v>
+        <v>320.1124350797022</v>
       </c>
       <c r="AA68">
         <v>18</v>
@@ -10332,7 +11391,7 @@
         <v>438</v>
       </c>
       <c r="AD68">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -10347,43 +11406,43 @@
         <v>0.1638355811450562</v>
       </c>
       <c r="AI68">
-        <v>0.15511351074881111</v>
+        <v>0.1551135107488111</v>
       </c>
       <c r="AK68">
         <v>101.3324400000001</v>
       </c>
       <c r="AL68">
-        <v>218.77999507970199</v>
+        <v>218.779995079702</v>
       </c>
       <c r="AN68">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO68">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP68">
-        <v>549.69204443152694</v>
+        <v>549.6920444315269</v>
       </c>
       <c r="AQ68">
-        <v>2063.7301904544488</v>
+        <v>2063.730190454449</v>
       </c>
       <c r="AR68">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS68">
-        <v>1630.0967119994079</v>
+        <v>1630.096711999408</v>
       </c>
       <c r="AT68">
-        <v>16.223009328049319</v>
+        <v>16.22300932804932</v>
       </c>
       <c r="AU68">
-        <v>221.64173392516989</v>
+        <v>221.6417339251699</v>
       </c>
       <c r="AV68">
-        <v>2.8617388454678978</v>
+        <v>2.861738845467898</v>
       </c>
       <c r="AW68">
-        <v>168.88740000000021</v>
+        <v>168.8874000000002</v>
       </c>
       <c r="AX68">
         <v>0</v>
@@ -10404,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:55">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -10460,22 +11519,22 @@
         <v>81</v>
       </c>
       <c r="U69">
-        <v>353.08781099372192</v>
+        <v>353.0878109937219</v>
       </c>
       <c r="V69">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W69">
-        <v>2337.7235059999948</v>
+        <v>2337.723505999995</v>
       </c>
       <c r="X69" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y69">
-        <v>353.08781099372192</v>
+        <v>353.0878109937219</v>
       </c>
       <c r="Z69">
-        <v>335.08781099372192</v>
+        <v>335.0878109937219</v>
       </c>
       <c r="AA69">
         <v>18</v>
@@ -10487,7 +11546,7 @@
         <v>438</v>
       </c>
       <c r="AD69">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -10496,43 +11555,43 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0.17109204130796241</v>
+        <v>0.1710920413079624</v>
       </c>
       <c r="AH69">
-        <v>0.17109204130796241</v>
+        <v>0.1710920413079624</v>
       </c>
       <c r="AI69">
-        <v>0.16236997091171729</v>
+        <v>0.1623699709117173</v>
       </c>
       <c r="AK69">
-        <v>115.55719157999999</v>
+        <v>115.55719158</v>
       </c>
       <c r="AL69">
-        <v>219.53061941372181</v>
+        <v>219.5306194137218</v>
       </c>
       <c r="AN69">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO69">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP69">
-        <v>549.69204443152739</v>
+        <v>549.6920444315274</v>
       </c>
       <c r="AQ69">
-        <v>2063.7301904544502</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AR69">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS69">
-        <v>1643.2190364888049</v>
+        <v>1643.219036488805</v>
       </c>
       <c r="AT69">
-        <v>29.432181645447379</v>
+        <v>29.43218164544738</v>
       </c>
       <c r="AU69">
-        <v>223.78490361827619</v>
+        <v>223.7849036182762</v>
       </c>
       <c r="AV69">
         <v>4.254284204554355</v>
@@ -10544,7 +11603,7 @@
         <v>2.664535259100376E-14</v>
       </c>
       <c r="AY69">
-        <v>4.5176598365896353E-15</v>
+        <v>4.517659836589635E-15</v>
       </c>
       <c r="AZ69">
         <v>-14.24341029999999</v>
@@ -10559,12 +11618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:55">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>55</v>
       </c>
       <c r="C70" t="s">
         <v>56</v>
@@ -10612,7 +11671,7 @@
         <v>0.6</v>
       </c>
       <c r="R70" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="S70" t="s">
         <v>83</v>
@@ -10620,8 +11679,107 @@
       <c r="T70">
         <v>0.03</v>
       </c>
+      <c r="U70">
+        <v>344.7086382048936</v>
+      </c>
+      <c r="V70">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="W70">
+        <v>1482.597952200005</v>
+      </c>
+      <c r="X70" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y70">
+        <v>344.7086382048936</v>
+      </c>
+      <c r="Z70">
+        <v>326.7086382048936</v>
+      </c>
+      <c r="AA70">
+        <v>18</v>
+      </c>
+      <c r="AB70">
+        <v>18</v>
+      </c>
+      <c r="AC70">
+        <v>438</v>
+      </c>
+      <c r="AD70">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0.1670318338120479</v>
+      </c>
+      <c r="AH70">
+        <v>0.1670318338120479</v>
+      </c>
+      <c r="AI70">
+        <v>0.1583097634158029</v>
+      </c>
+      <c r="AK70">
+        <v>107.3596458319358</v>
+      </c>
+      <c r="AL70">
+        <v>219.3489923729578</v>
+      </c>
+      <c r="AN70">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AO70">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AP70">
+        <v>549.6920444315268</v>
+      </c>
+      <c r="AQ70">
+        <v>2063.730190454449</v>
+      </c>
+      <c r="AR70">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AS70">
+        <v>1638.906700478922</v>
+      </c>
+      <c r="AT70">
+        <v>24.95380659208142</v>
+      </c>
+      <c r="AU70">
+        <v>223.3669650058611</v>
+      </c>
+      <c r="AV70">
+        <v>4.017972632903212</v>
+      </c>
+      <c r="AW70">
+        <v>178.9327430532263</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>-12.3392923185732</v>
+      </c>
+      <c r="BA70">
+        <v>10.0453430532263</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:55">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -10677,22 +11835,22 @@
         <v>81</v>
       </c>
       <c r="U71">
-        <v>344.78990558045649</v>
+        <v>344.7899055804565</v>
       </c>
       <c r="V71">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W71">
-        <v>2595.4314408999999</v>
+        <v>2595.4314409</v>
       </c>
       <c r="X71" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Y71">
-        <v>344.78990558045649</v>
+        <v>344.7899055804565</v>
       </c>
       <c r="Z71">
-        <v>326.78990558045649</v>
+        <v>326.7899055804565</v>
       </c>
       <c r="AA71">
         <v>18</v>
@@ -10704,7 +11862,7 @@
         <v>438</v>
       </c>
       <c r="AD71">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE71">
         <v>0</v>
@@ -10728,19 +11886,19 @@
         <v>220.1865255497309</v>
       </c>
       <c r="AN71">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO71">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP71">
-        <v>549.69204443152694</v>
+        <v>549.6920444315269</v>
       </c>
       <c r="AQ71">
-        <v>2063.7301904544488</v>
+        <v>2063.730190454449</v>
       </c>
       <c r="AR71">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS71">
         <v>1649.004031133258</v>
@@ -10749,13 +11907,13 @@
         <v>35.01390984538056</v>
       </c>
       <c r="AU71">
-        <v>224.83813975241361</v>
+        <v>224.8381397524136</v>
       </c>
       <c r="AV71">
-        <v>4.6516142026826852</v>
+        <v>4.651614202682685</v>
       </c>
       <c r="AW71">
-        <v>177.67230005120939</v>
+        <v>177.6723000512094</v>
       </c>
       <c r="AX71">
         <v>0</v>
@@ -10764,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="AZ71">
-        <v>-16.594576870801941</v>
+        <v>-16.59457687080194</v>
       </c>
       <c r="BA71">
         <v>11.74345269436844</v>
@@ -10776,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:55">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -10832,22 +11990,22 @@
         <v>81</v>
       </c>
       <c r="U72">
-        <v>347.78774247647362</v>
+        <v>347.7877424764736</v>
       </c>
       <c r="V72">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W72">
-        <v>2084.8028245000019</v>
+        <v>2084.802824500002</v>
       </c>
       <c r="X72" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y72">
-        <v>347.78774247647362</v>
+        <v>347.7877424764736</v>
       </c>
       <c r="Z72">
-        <v>329.78774247647362</v>
+        <v>329.7877424764736</v>
       </c>
       <c r="AA72">
         <v>18</v>
@@ -10859,7 +12017,7 @@
         <v>438</v>
       </c>
       <c r="AD72">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE72">
         <v>0</v>
@@ -10868,10 +12026,10 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>0.16852384293505351</v>
+        <v>0.1685238429350535</v>
       </c>
       <c r="AH72">
-        <v>0.16852384293505351</v>
+        <v>0.1685238429350535</v>
       </c>
       <c r="AI72">
         <v>0.1598017725388084</v>
@@ -10880,37 +12038,37 @@
         <v>109.10934</v>
       </c>
       <c r="AL72">
-        <v>220.67840247647359</v>
+        <v>220.6784024764736</v>
       </c>
       <c r="AN72">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO72">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP72">
-        <v>549.69204443152705</v>
+        <v>549.6920444315271</v>
       </c>
       <c r="AQ72">
-        <v>2063.7301904544488</v>
+        <v>2063.730190454449</v>
       </c>
       <c r="AR72">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS72">
         <v>1637.001619046727</v>
       </c>
       <c r="AT72">
-        <v>23.008005229403938</v>
+        <v>23.00800522940394</v>
       </c>
       <c r="AU72">
-        <v>224.50842563527249</v>
+        <v>224.5084256352725</v>
       </c>
       <c r="AV72">
-        <v>3.8300231587989111</v>
+        <v>3.830023158798911</v>
       </c>
       <c r="AW72">
-        <v>181.84889999999999</v>
+        <v>181.8489</v>
       </c>
       <c r="AX72">
         <v>0</v>
@@ -10919,10 +12077,10 @@
         <v>0</v>
       </c>
       <c r="AZ72">
-        <v>-13.562300000000009</v>
+        <v>-13.56230000000001</v>
       </c>
       <c r="BA72">
-        <v>12.961499999999999</v>
+        <v>12.9615</v>
       </c>
       <c r="BB72">
         <v>0</v>
@@ -10931,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:55">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -10987,22 +12145,22 @@
         <v>82</v>
       </c>
       <c r="U73">
-        <v>418.68469369432239</v>
+        <v>418.6846936943224</v>
       </c>
       <c r="V73">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="W73">
-        <v>1370.1107240999991</v>
+        <v>1370.110724099999</v>
       </c>
       <c r="X73" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y73">
-        <v>418.68469369432239</v>
+        <v>418.6846936943224</v>
       </c>
       <c r="Z73">
-        <v>400.68469369432239</v>
+        <v>400.6846936943224</v>
       </c>
       <c r="AA73">
         <v>18</v>
@@ -11014,7 +12172,7 @@
         <v>438</v>
       </c>
       <c r="AD73">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AE73">
         <v>0</v>
@@ -11023,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="AG73">
-        <v>0.20287763179067739</v>
+        <v>0.2028776317906774</v>
       </c>
       <c r="AH73">
-        <v>0.20287763179067739</v>
+        <v>0.2028776317906774</v>
       </c>
       <c r="AI73">
         <v>0.1941555613944323</v>
@@ -11035,22 +12193,22 @@
         <v>121.1359295774175</v>
       </c>
       <c r="AL73">
-        <v>279.54876411690498</v>
+        <v>279.548764116905</v>
       </c>
       <c r="AN73">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AO73">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AP73">
-        <v>549.69204443152807</v>
+        <v>549.6920444315281</v>
       </c>
       <c r="AQ73">
-        <v>2063.7301904544502</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AR73">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AS73">
         <v>1590.590509650287</v>
@@ -11059,10 +12217,10 @@
         <v>3.304060741572887E-15</v>
       </c>
       <c r="AU73">
-        <v>279.54876411690498</v>
+        <v>279.548764116905</v>
       </c>
       <c r="AV73">
-        <v>2.5026011134893038E-16</v>
+        <v>2.502601113489304E-16</v>
       </c>
       <c r="AW73">
         <v>201.8932159623624</v>
@@ -11087,7 +12245,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/experiments/thesis_topic1/6h-bat-12months-0dc.xlsx
+++ b/output/experiments/thesis_topic1/6h-bat-12months-0dc.xlsx
@@ -268,220 +268,220 @@
     <t>normal</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal-0.03-2023-08-28_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-normal-0.03-2023-08-28_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-normal-0.03-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-28_001.xlsx</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-normal-0.03-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0-0.6-unif-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-2023-08-31_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
         <v>1.5</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0.6</v>
@@ -1068,22 +1068,22 @@
         <v>81</v>
       </c>
       <c r="U2">
-        <v>369.7471228733207</v>
+        <v>265.3241939249889</v>
       </c>
       <c r="V2">
         <v>30.98958333333333</v>
       </c>
       <c r="W2">
-        <v>4432.8100503</v>
+        <v>3711.8436845</v>
       </c>
       <c r="X2" t="s">
         <v>84</v>
       </c>
       <c r="Y2">
-        <v>369.7471228733207</v>
+        <v>265.3241939249889</v>
       </c>
       <c r="Z2">
-        <v>351.7471228733207</v>
+        <v>247.3241939249889</v>
       </c>
       <c r="AA2">
         <v>18</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.155065515450955</v>
+        <v>0.1112723543941773</v>
       </c>
       <c r="AH2">
-        <v>0.155065515450955</v>
+        <v>0.1112723543941773</v>
       </c>
       <c r="AI2">
-        <v>0.1475166283726005</v>
+        <v>0.1037234673158227</v>
       </c>
       <c r="AK2">
-        <v>100.8328589311587</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>250.914263942162</v>
+        <v>247.3241939249889</v>
       </c>
       <c r="AN2">
         <v>62.56941176470588</v>
@@ -1134,19 +1134,19 @@
         <v>604.9537259916899</v>
       </c>
       <c r="AS2">
-        <v>1803.658232962264</v>
+        <v>1806.932380437593</v>
       </c>
       <c r="AT2">
-        <v>8.082274345587157E-15</v>
+        <v>1.746622635004545</v>
       </c>
       <c r="AU2">
-        <v>250.914263942162</v>
+        <v>247.6322981578037</v>
       </c>
       <c r="AV2">
-        <v>7.371464111385357E-16</v>
+        <v>0.3081042328148013</v>
       </c>
       <c r="AW2">
-        <v>168.0547648852645</v>
+        <v>168.8874000000004</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>1.5</v>
       </c>
       <c r="P3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0.6</v>
@@ -1223,22 +1223,22 @@
         <v>81</v>
       </c>
       <c r="U3">
-        <v>382.8535483078951</v>
+        <v>265.9337706038844</v>
       </c>
       <c r="V3">
         <v>30.98958333333333</v>
       </c>
       <c r="W3">
-        <v>3748.1108847</v>
+        <v>3634.4987578</v>
       </c>
       <c r="X3" t="s">
         <v>85</v>
       </c>
       <c r="Y3">
-        <v>382.8535483078951</v>
+        <v>265.9337706038844</v>
       </c>
       <c r="Z3">
-        <v>364.8535483078951</v>
+        <v>247.9337706038844</v>
       </c>
       <c r="AA3">
         <v>18</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.1605621224290926</v>
+        <v>0.1115280002560984</v>
       </c>
       <c r="AH3">
-        <v>0.1605621224290926</v>
+        <v>0.1115280002560984</v>
       </c>
       <c r="AI3">
-        <v>0.153013235350738</v>
+        <v>0.1039791131777439</v>
       </c>
       <c r="AK3">
-        <v>116.66447784</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>248.189070467895</v>
+        <v>247.9337706038844</v>
       </c>
       <c r="AN3">
         <v>62.56941176470588</v>
@@ -1280,28 +1280,28 @@
         <v>1823.944479731092</v>
       </c>
       <c r="AP3">
-        <v>560.5129658720626</v>
+        <v>560.5129658720622</v>
       </c>
       <c r="AQ3">
-        <v>2384.457445603155</v>
+        <v>2384.457445603154</v>
       </c>
       <c r="AR3">
         <v>604.9537259916899</v>
       </c>
       <c r="AS3">
-        <v>1811.774287501146</v>
+        <v>1813.009064557867</v>
       </c>
       <c r="AT3">
-        <v>6.960606761502207</v>
+        <v>7.84080070405034</v>
       </c>
       <c r="AU3">
-        <v>249.0041304610998</v>
+        <v>248.8972245673816</v>
       </c>
       <c r="AV3">
-        <v>0.8150599932047464</v>
+        <v>0.963453963497155</v>
       </c>
       <c r="AW3">
-        <v>194.4407964000001</v>
+        <v>194.4407964</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>1.5</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0.6</v>
@@ -1384,22 +1384,22 @@
         <v>0.03</v>
       </c>
       <c r="U4">
-        <v>373.8367331928495</v>
+        <v>266.2133270969708</v>
       </c>
       <c r="V4">
         <v>30.98958333333333</v>
       </c>
       <c r="W4">
-        <v>4552.217316599999</v>
+        <v>3656.0755006</v>
       </c>
       <c r="X4" t="s">
         <v>86</v>
       </c>
       <c r="Y4">
-        <v>373.8367331928495</v>
+        <v>266.2133270969708</v>
       </c>
       <c r="Z4">
-        <v>355.8367331928495</v>
+        <v>248.2133270969708</v>
       </c>
       <c r="AA4">
         <v>18</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.1567806269229882</v>
+        <v>0.111645241389339</v>
       </c>
       <c r="AH4">
-        <v>0.1567806269229882</v>
+        <v>0.111645241389339</v>
       </c>
       <c r="AI4">
-        <v>0.1492317398446336</v>
+        <v>0.1040963543109844</v>
       </c>
       <c r="AK4">
-        <v>107.1088732736859</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>248.7278599191636</v>
+        <v>248.2133270969708</v>
       </c>
       <c r="AN4">
         <v>62.56941176470588</v>
@@ -1441,7 +1441,7 @@
         <v>1823.944479731092</v>
       </c>
       <c r="AP4">
-        <v>560.5129658720623</v>
+        <v>560.5129658720622</v>
       </c>
       <c r="AQ4">
         <v>2384.457445603154</v>
@@ -1450,19 +1450,19 @@
         <v>604.9537259916899</v>
       </c>
       <c r="AS4">
-        <v>1813.796369774422</v>
+        <v>1816.361600565005</v>
       </c>
       <c r="AT4">
-        <v>9.13166393209535</v>
+        <v>11.15105101171243</v>
       </c>
       <c r="AU4">
-        <v>249.9636707444134</v>
+        <v>249.808384896951</v>
       </c>
       <c r="AV4">
-        <v>1.235810825249773</v>
+        <v>1.595057799980146</v>
       </c>
       <c r="AW4">
-        <v>178.5147887894765</v>
+        <v>183.0771405079316</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>-9.992452774059615</v>
+        <v>-11.35773635369011</v>
       </c>
       <c r="BA4">
-        <v>9.627388789476484</v>
+        <v>14.18974050793166</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>1.5</v>
       </c>
       <c r="P5">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0.6</v>
@@ -1539,22 +1539,22 @@
         <v>81</v>
       </c>
       <c r="U5">
-        <v>378.8386038804129</v>
+        <v>267.1441990215957</v>
       </c>
       <c r="V5">
         <v>30.98958333333333</v>
       </c>
       <c r="W5">
-        <v>4769.2291566</v>
+        <v>3672.3530045</v>
       </c>
       <c r="X5" t="s">
         <v>87</v>
       </c>
       <c r="Y5">
-        <v>378.8386038804129</v>
+        <v>267.1441990215957</v>
       </c>
       <c r="Z5">
-        <v>360.8386038804129</v>
+        <v>249.1441990215957</v>
       </c>
       <c r="AA5">
         <v>18</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.158878324534152</v>
+        <v>0.1120356328917503</v>
       </c>
       <c r="AH5">
-        <v>0.158878324534152</v>
+        <v>0.1120356328917503</v>
       </c>
       <c r="AI5">
-        <v>0.1513294374557974</v>
+        <v>0.1044867458133957</v>
       </c>
       <c r="AK5">
-        <v>110.8939531571033</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>249.9446507233096</v>
+        <v>249.1441990215957</v>
       </c>
       <c r="AN5">
         <v>62.56941176470588</v>
@@ -1605,25 +1605,25 @@
         <v>604.9537259916899</v>
       </c>
       <c r="AS5">
-        <v>1809.665914604476</v>
+        <v>1811.070775226077</v>
       </c>
       <c r="AT5">
-        <v>5.267610274620471</v>
+        <v>6.040527385145801</v>
       </c>
       <c r="AU5">
-        <v>250.5500278021599</v>
+        <v>249.8263425512683</v>
       </c>
       <c r="AV5">
-        <v>0.6053770788502829</v>
+        <v>0.6821435296726304</v>
       </c>
       <c r="AW5">
         <v>184.8232552618388</v>
       </c>
       <c r="AX5">
-        <v>1.77635683940025E-15</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.011769731834787E-16</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>-11.32715959849124</v>
@@ -1685,7 +1685,7 @@
         <v>1.5</v>
       </c>
       <c r="P6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0.6</v>
@@ -1694,22 +1694,22 @@
         <v>81</v>
       </c>
       <c r="U6">
-        <v>378.9757606969159</v>
+        <v>268.7555495566178</v>
       </c>
       <c r="V6">
         <v>30.98958333333333</v>
       </c>
       <c r="W6">
-        <v>3713.2177148</v>
+        <v>3030.4149374</v>
       </c>
       <c r="X6" t="s">
         <v>88</v>
       </c>
       <c r="Y6">
-        <v>378.9757606969159</v>
+        <v>268.7555495566178</v>
       </c>
       <c r="Z6">
-        <v>360.9757606969159</v>
+        <v>250.7555495566178</v>
       </c>
       <c r="AA6">
         <v>18</v>
@@ -1730,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.1589358457185857</v>
+        <v>0.1127114052935574</v>
       </c>
       <c r="AH6">
-        <v>0.1589358457185857</v>
+        <v>0.1127114052935574</v>
       </c>
       <c r="AI6">
-        <v>0.1513869586402311</v>
+        <v>0.1051625182152028</v>
       </c>
       <c r="AK6">
-        <v>109.33908</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>251.6366806969159</v>
+        <v>250.7555495566178</v>
       </c>
       <c r="AN6">
         <v>62.56941176470588</v>
@@ -1751,7 +1751,7 @@
         <v>1823.944479731092</v>
       </c>
       <c r="AP6">
-        <v>560.5129658720631</v>
+        <v>560.5129658720628</v>
       </c>
       <c r="AQ6">
         <v>2384.457445603155</v>
@@ -1760,16 +1760,16 @@
         <v>604.9537259916899</v>
       </c>
       <c r="AS6">
-        <v>1810.524606574091</v>
+        <v>1813.3719635303</v>
       </c>
       <c r="AT6">
-        <v>6.603784894410526</v>
+        <v>8.634152067230181</v>
       </c>
       <c r="AU6">
-        <v>252.6204276486061</v>
+        <v>252.0839352308841</v>
       </c>
       <c r="AV6">
-        <v>0.9837469516902164</v>
+        <v>1.328385674266361</v>
       </c>
       <c r="AW6">
         <v>182.2318</v>
@@ -1840,7 +1840,7 @@
         <v>1.5</v>
       </c>
       <c r="P7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0.6</v>
@@ -1849,22 +1849,22 @@
         <v>82</v>
       </c>
       <c r="U7">
-        <v>457.0636065015921</v>
+        <v>335.3117679168253</v>
       </c>
       <c r="V7">
         <v>30.98958333333333</v>
       </c>
       <c r="W7">
-        <v>2644.0581381</v>
+        <v>2140.5250371</v>
       </c>
       <c r="X7" t="s">
         <v>89</v>
       </c>
       <c r="Y7">
-        <v>457.0636065015921</v>
+        <v>335.3117679168253</v>
       </c>
       <c r="Z7">
-        <v>439.0636065015921</v>
+        <v>317.3117679168253</v>
       </c>
       <c r="AA7">
         <v>18</v>
@@ -1885,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.1916608520379832</v>
+        <v>0.1406065550245846</v>
       </c>
       <c r="AH7">
-        <v>0.1916608520379832</v>
+        <v>0.1406065550245846</v>
       </c>
       <c r="AI7">
-        <v>0.1841128974697131</v>
+        <v>0.1330586004563145</v>
       </c>
       <c r="AK7">
-        <v>121.7518385847668</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>317.3117679168253</v>
@@ -1995,7 +1995,7 @@
         <v>1.5</v>
       </c>
       <c r="P8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0.6</v>
@@ -2004,22 +2004,22 @@
         <v>81</v>
       </c>
       <c r="U8">
-        <v>366.7477998054742</v>
+        <v>263.6366990851082</v>
       </c>
       <c r="V8">
         <v>27.98958333333333</v>
       </c>
       <c r="W8">
-        <v>3969.5665491</v>
+        <v>2860.1631424</v>
       </c>
       <c r="X8" t="s">
         <v>90</v>
       </c>
       <c r="Y8">
-        <v>366.7477998054742</v>
+        <v>263.6366990851082</v>
       </c>
       <c r="Z8">
-        <v>348.7477998054742</v>
+        <v>245.6366990851082</v>
       </c>
       <c r="AA8">
         <v>18</v>
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.1464969626620183</v>
+        <v>0.1053093588637594</v>
       </c>
       <c r="AH8">
-        <v>0.1464969626620183</v>
+        <v>0.1053093588637594</v>
       </c>
       <c r="AI8">
-        <v>0.1393068845502615</v>
+        <v>0.09811928075200252</v>
       </c>
       <c r="AK8">
-        <v>101.3324400000001</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>247.4153598054741</v>
+        <v>245.6366990851082</v>
       </c>
       <c r="AN8">
         <v>69.49013770003722</v>
@@ -2061,28 +2061,28 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AP8">
-        <v>606.3691333176364</v>
+        <v>606.3691333176355</v>
       </c>
       <c r="AQ8">
-        <v>2503.449854121511</v>
+        <v>2503.44985412151</v>
       </c>
       <c r="AR8">
         <v>747.2553716424334</v>
       </c>
       <c r="AS8">
-        <v>1780.703038713253</v>
+        <v>1781.803009806096</v>
       </c>
       <c r="AT8">
-        <v>1.067004071005584E-14</v>
+        <v>1.324830333516227E-14</v>
       </c>
       <c r="AU8">
-        <v>247.4153598054741</v>
+        <v>245.6366990851082</v>
       </c>
       <c r="AV8">
-        <v>1.052207223472204E-15</v>
+        <v>1.395698443308845E-15</v>
       </c>
       <c r="AW8">
-        <v>168.8874000000002</v>
+        <v>168.8874000000006</v>
       </c>
       <c r="AX8">
         <v>8.881784197001252E-16</v>
@@ -2150,7 +2150,7 @@
         <v>1.5</v>
       </c>
       <c r="P9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0.6</v>
@@ -2159,22 +2159,22 @@
         <v>81</v>
       </c>
       <c r="U9">
-        <v>372.8301588654957</v>
+        <v>264.3829335318235</v>
       </c>
       <c r="V9">
         <v>27.98958333333333</v>
       </c>
       <c r="W9">
-        <v>4470.3701972</v>
+        <v>3341.5375153</v>
       </c>
       <c r="X9" t="s">
         <v>91</v>
       </c>
       <c r="Y9">
-        <v>372.8301588654957</v>
+        <v>264.3829335318235</v>
       </c>
       <c r="Z9">
-        <v>354.8301588654957</v>
+        <v>246.3829335318235</v>
       </c>
       <c r="AA9">
         <v>18</v>
@@ -2195,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.1489265535923132</v>
+        <v>0.1056074413060686</v>
       </c>
       <c r="AH9">
-        <v>0.1489265535923132</v>
+        <v>0.1056074413060686</v>
       </c>
       <c r="AI9">
-        <v>0.1417364754805563</v>
+        <v>0.09841736319431174</v>
       </c>
       <c r="AK9">
-        <v>108.40048674</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>246.4296721254958</v>
+        <v>246.3829335318235</v>
       </c>
       <c r="AN9">
         <v>69.49013770003722</v>
@@ -2216,7 +2216,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AP9">
-        <v>606.3691333176359</v>
+        <v>606.3691333176364</v>
       </c>
       <c r="AQ9">
         <v>2503.449854121511</v>
@@ -2225,16 +2225,16 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AS9">
-        <v>1792.526824060006</v>
+        <v>1792.968172239591</v>
       </c>
       <c r="AT9">
-        <v>11.23466960284847</v>
+        <v>11.09132872848893</v>
       </c>
       <c r="AU9">
-        <v>247.7228761271743</v>
+        <v>247.6610346501691</v>
       </c>
       <c r="AV9">
-        <v>1.293204001678525</v>
+        <v>1.278101118345637</v>
       </c>
       <c r="AW9">
         <v>180.6674779</v>
@@ -2305,7 +2305,7 @@
         <v>1.5</v>
       </c>
       <c r="P10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0.6</v>
@@ -2320,22 +2320,22 @@
         <v>0.03</v>
       </c>
       <c r="U10">
-        <v>374.1464793676965</v>
+        <v>264.6434873050043</v>
       </c>
       <c r="V10">
         <v>27.98958333333333</v>
       </c>
       <c r="W10">
-        <v>4430.744311000002</v>
+        <v>3184.692125999999</v>
       </c>
       <c r="X10" t="s">
         <v>92</v>
       </c>
       <c r="Y10">
-        <v>374.1464793676965</v>
+        <v>264.6434873050043</v>
       </c>
       <c r="Z10">
-        <v>356.1464793676965</v>
+        <v>246.6434873050044</v>
       </c>
       <c r="AA10">
         <v>18</v>
@@ -2356,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.1494523562162537</v>
+        <v>0.1057115191939288</v>
       </c>
       <c r="AH10">
-        <v>0.1494523562162537</v>
+        <v>0.1057115191939288</v>
       </c>
       <c r="AI10">
-        <v>0.1422622781044968</v>
+        <v>0.09852144108217191</v>
       </c>
       <c r="AK10">
-        <v>109.5053267915083</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>246.6411525761882</v>
+        <v>246.6434873050044</v>
       </c>
       <c r="AN10">
         <v>69.49013770003722</v>
@@ -2377,7 +2377,7 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AP10">
-        <v>606.369133317637</v>
+        <v>606.3691333176371</v>
       </c>
       <c r="AQ10">
         <v>2503.449854121512</v>
@@ -2386,19 +2386,19 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AS10">
-        <v>1791.784303448773</v>
+        <v>1791.801220536836</v>
       </c>
       <c r="AT10">
-        <v>10.52631263990955</v>
+        <v>9.981164776394976</v>
       </c>
       <c r="AU10">
-        <v>248.0283524524394</v>
+        <v>247.9690567293011</v>
       </c>
       <c r="AV10">
-        <v>1.387199876251217</v>
+        <v>1.325569424296761</v>
       </c>
       <c r="AW10">
-        <v>182.5088779858472</v>
+        <v>181.1008994574697</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>-10.91213709513363</v>
+        <v>-10.35959572067009</v>
       </c>
       <c r="BA10">
-        <v>13.62147798584724</v>
+        <v>13.29254565749547</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>1.5</v>
       </c>
       <c r="P11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0.6</v>
@@ -2475,22 +2475,22 @@
         <v>81</v>
       </c>
       <c r="U11">
-        <v>371.3274527921069</v>
+        <v>264.617101663951</v>
       </c>
       <c r="V11">
         <v>27.98958333333333</v>
       </c>
       <c r="W11">
-        <v>4600.5980215</v>
+        <v>3182.3847279</v>
       </c>
       <c r="X11" t="s">
         <v>93</v>
       </c>
       <c r="Y11">
-        <v>371.3274527921069</v>
+        <v>264.617101663951</v>
       </c>
       <c r="Z11">
-        <v>353.3274527921069</v>
+        <v>246.617101663951</v>
       </c>
       <c r="AA11">
         <v>18</v>
@@ -2511,19 +2511,19 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.1483262994786088</v>
+        <v>0.1057009794816953</v>
       </c>
       <c r="AH11">
-        <v>0.1483262994786088</v>
+        <v>0.1057009794816953</v>
       </c>
       <c r="AI11">
-        <v>0.1411362213668519</v>
+        <v>0.0985109013699384</v>
       </c>
       <c r="AK11">
-        <v>106.5589862281232</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>246.7684665639837</v>
+        <v>246.617101663951</v>
       </c>
       <c r="AN11">
         <v>69.49013770003722</v>
@@ -2541,16 +2541,16 @@
         <v>747.2553716424334</v>
       </c>
       <c r="AS11">
-        <v>1790.146892971827</v>
+        <v>1790.765001991481</v>
       </c>
       <c r="AT11">
-        <v>9.056283508454767</v>
+        <v>9.020914046308965</v>
       </c>
       <c r="AU11">
-        <v>247.900476758163</v>
+        <v>247.743841469403</v>
       </c>
       <c r="AV11">
-        <v>1.13201019417926</v>
+        <v>1.126739805452015</v>
       </c>
       <c r="AW11">
         <v>177.5983103802052</v>
@@ -2621,7 +2621,7 @@
         <v>1.5</v>
       </c>
       <c r="P12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0.6</v>
@@ -2630,22 +2630,22 @@
         <v>81</v>
       </c>
       <c r="U12">
-        <v>376.0771598622412</v>
+        <v>266.435395883157</v>
       </c>
       <c r="V12">
         <v>27.98958333333333</v>
       </c>
       <c r="W12">
-        <v>3510.580717899999</v>
+        <v>2737.9285359</v>
       </c>
       <c r="X12" t="s">
         <v>94</v>
       </c>
       <c r="Y12">
-        <v>376.0771598622412</v>
+        <v>266.435395883157</v>
       </c>
       <c r="Z12">
-        <v>358.0771598622412</v>
+        <v>248.435395883157</v>
       </c>
       <c r="AA12">
         <v>18</v>
@@ -2666,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.150223564192066</v>
+        <v>0.1064272948964868</v>
       </c>
       <c r="AH12">
-        <v>0.150223564192066</v>
+        <v>0.1064272948964868</v>
       </c>
       <c r="AI12">
-        <v>0.1430334860803092</v>
+        <v>0.09923721678472992</v>
       </c>
       <c r="AK12">
-        <v>109.55418</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>248.5229798622412</v>
+        <v>248.435395883157</v>
       </c>
       <c r="AN12">
         <v>69.49013770003722</v>
@@ -2687,25 +2687,25 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AP12">
-        <v>606.3691333176364</v>
+        <v>606.3691333176367</v>
       </c>
       <c r="AQ12">
-        <v>2503.449854121511</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AR12">
         <v>747.2553716424334</v>
       </c>
       <c r="AS12">
-        <v>1788.460419415399</v>
+        <v>1789.118159060117</v>
       </c>
       <c r="AT12">
-        <v>7.225771343079931</v>
+        <v>7.248955281550245</v>
       </c>
       <c r="AU12">
-        <v>249.5835929056469</v>
+        <v>249.4975207435403</v>
       </c>
       <c r="AV12">
-        <v>1.060613043405698</v>
+        <v>1.062124860383341</v>
       </c>
       <c r="AW12">
         <v>182.5903</v>
@@ -2776,7 +2776,7 @@
         <v>1.5</v>
       </c>
       <c r="P13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0.6</v>
@@ -2785,22 +2785,22 @@
         <v>82</v>
       </c>
       <c r="U13">
-        <v>447.2778640169482</v>
+        <v>332.2638847504466</v>
       </c>
       <c r="V13">
         <v>27.98958333333333</v>
       </c>
       <c r="W13">
-        <v>2487.0814358</v>
+        <v>1872.5516508</v>
       </c>
       <c r="X13" t="s">
         <v>95</v>
       </c>
       <c r="Y13">
-        <v>447.2778640169482</v>
+        <v>332.2638847504466</v>
       </c>
       <c r="Z13">
-        <v>429.2778640169482</v>
+        <v>314.2638847504466</v>
       </c>
       <c r="AA13">
         <v>18</v>
@@ -2821,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0.1786488563467159</v>
+        <v>0.1327107102571369</v>
       </c>
       <c r="AH13">
-        <v>0.1786488563467159</v>
+        <v>0.1327107102571369</v>
       </c>
       <c r="AI13">
-        <v>0.171459411768884</v>
+        <v>0.125521265679305</v>
       </c>
       <c r="AK13">
-        <v>115.0139792665016</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>314.2638847504466</v>
@@ -2931,7 +2931,7 @@
         <v>1.5</v>
       </c>
       <c r="P14">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0.6</v>
@@ -2940,22 +2940,22 @@
         <v>81</v>
       </c>
       <c r="U14">
-        <v>307.0733044331432</v>
+        <v>213.4356945757051</v>
       </c>
       <c r="V14">
         <v>30.98958333333333</v>
       </c>
       <c r="W14">
-        <v>4077.046264399999</v>
+        <v>3370.8556521</v>
       </c>
       <c r="X14" t="s">
         <v>96</v>
       </c>
       <c r="Y14">
-        <v>307.0733044331432</v>
+        <v>213.4356945757051</v>
       </c>
       <c r="Z14">
-        <v>289.0733044331432</v>
+        <v>195.4356945757051</v>
       </c>
       <c r="AA14">
         <v>18</v>
@@ -2976,19 +2976,19 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.129614253379578</v>
+        <v>0.09009024163806734</v>
       </c>
       <c r="AH14">
-        <v>0.129614253379578</v>
+        <v>0.09009024163806734</v>
       </c>
       <c r="AI14">
-        <v>0.1220165347659745</v>
+        <v>0.0824925230244639</v>
       </c>
       <c r="AK14">
-        <v>91.6573180786102</v>
+        <v>0</v>
       </c>
       <c r="AL14">
-        <v>197.415986354533</v>
+        <v>195.4356945757051</v>
       </c>
       <c r="AN14">
         <v>61.60134453781513</v>
@@ -2997,28 +2997,28 @@
         <v>1827.032072873949</v>
       </c>
       <c r="AP14">
-        <v>542.1001516034994</v>
+        <v>542.1001516034978</v>
       </c>
       <c r="AQ14">
-        <v>2369.132224477448</v>
+        <v>2369.132224477446</v>
       </c>
       <c r="AR14">
         <v>944.9298545577608</v>
       </c>
       <c r="AS14">
-        <v>1476.745440344305</v>
+        <v>1478.148103776645</v>
       </c>
       <c r="AT14">
         <v>27.69030960531281</v>
       </c>
       <c r="AU14">
-        <v>201.7065001912104</v>
+        <v>199.7262084123826</v>
       </c>
       <c r="AV14">
-        <v>4.290513836677432</v>
+        <v>4.290513836677434</v>
       </c>
       <c r="AW14">
-        <v>152.7621967976837</v>
+        <v>168.8874000000001</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>1.5</v>
       </c>
       <c r="P15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0.6</v>
@@ -3095,22 +3095,22 @@
         <v>81</v>
       </c>
       <c r="U15">
-        <v>323.4874343797269</v>
+        <v>214.584281862615</v>
       </c>
       <c r="V15">
         <v>30.98958333333333</v>
       </c>
       <c r="W15">
-        <v>4130.6560762</v>
+        <v>3473.8479252</v>
       </c>
       <c r="X15" t="s">
         <v>97</v>
       </c>
       <c r="Y15">
-        <v>323.4874343797269</v>
+        <v>214.584281862615</v>
       </c>
       <c r="Z15">
-        <v>305.4874343797269</v>
+        <v>196.584281862615</v>
       </c>
       <c r="AA15">
         <v>18</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.1365425834140928</v>
+        <v>0.09057505513857306</v>
       </c>
       <c r="AH15">
-        <v>0.1365425834140928</v>
+        <v>0.09057505513857306</v>
       </c>
       <c r="AI15">
-        <v>0.1289448648004893</v>
+        <v>0.08297733652496962</v>
       </c>
       <c r="AK15">
-        <v>108.8444262</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>196.6430081797269</v>
+        <v>196.584281862615</v>
       </c>
       <c r="AN15">
         <v>61.60134453781513</v>
@@ -3152,7 +3152,7 @@
         <v>1827.032072873949</v>
       </c>
       <c r="AP15">
-        <v>542.1001516034987</v>
+        <v>542.1001516034985</v>
       </c>
       <c r="AQ15">
         <v>2369.132224477447</v>
@@ -3161,16 +3161,16 @@
         <v>944.9298545577608</v>
       </c>
       <c r="AS15">
-        <v>1493.246266851831</v>
+        <v>1493.99886925765</v>
       </c>
       <c r="AT15">
-        <v>43.44643229557839</v>
+        <v>43.5398574788533</v>
       </c>
       <c r="AU15">
-        <v>202.5413541556616</v>
+        <v>202.4926479346301</v>
       </c>
       <c r="AV15">
-        <v>5.898345975934665</v>
+        <v>5.908366072015077</v>
       </c>
       <c r="AW15">
         <v>181.407377</v>
@@ -3241,7 +3241,7 @@
         <v>1.5</v>
       </c>
       <c r="P16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0.6</v>
@@ -3256,22 +3256,22 @@
         <v>0.03</v>
       </c>
       <c r="U16">
-        <v>323.0236682097969</v>
+        <v>214.4773164874889</v>
       </c>
       <c r="V16">
         <v>30.98958333333333</v>
       </c>
       <c r="W16">
-        <v>4771.065311800005</v>
+        <v>3509.571826100001</v>
       </c>
       <c r="X16" t="s">
         <v>98</v>
       </c>
       <c r="Y16">
-        <v>323.0236682097969</v>
+        <v>214.4773164874889</v>
       </c>
       <c r="Z16">
-        <v>305.0236682097969</v>
+        <v>196.4773164874889</v>
       </c>
       <c r="AA16">
         <v>18</v>
@@ -3292,19 +3292,19 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0.1363468298106685</v>
+        <v>0.09052990553737268</v>
       </c>
       <c r="AH16">
-        <v>0.1363468298106685</v>
+        <v>0.09052990553737268</v>
       </c>
       <c r="AI16">
-        <v>0.1287491111970651</v>
+        <v>0.08293218692376926</v>
       </c>
       <c r="AK16">
-        <v>108.5115651361321</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>196.5121030736648</v>
+        <v>196.4773164874889</v>
       </c>
       <c r="AN16">
         <v>61.60134453781513</v>
@@ -3313,7 +3313,7 @@
         <v>1827.032072873949</v>
       </c>
       <c r="AP16">
-        <v>542.1001516034981</v>
+        <v>542.1001516034987</v>
       </c>
       <c r="AQ16">
         <v>2369.132224477447</v>
@@ -3322,19 +3322,19 @@
         <v>944.9298545577608</v>
       </c>
       <c r="AS16">
-        <v>1490.380883852495</v>
+        <v>1489.734498187159</v>
       </c>
       <c r="AT16">
-        <v>40.52942534451651</v>
+        <v>39.24072435364442</v>
       </c>
       <c r="AU16">
-        <v>202.4211158795195</v>
+        <v>202.1950030798361</v>
       </c>
       <c r="AV16">
-        <v>5.909012805854702</v>
+        <v>5.717686592347212</v>
       </c>
       <c r="AW16">
-        <v>180.8526085602202</v>
+        <v>178.7080427239861</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="AZ16">
-        <v>-10.41473665336267</v>
+        <v>-11.16007727944503</v>
       </c>
       <c r="BA16">
-        <v>13.82887725803263</v>
+        <v>13.12778553917549</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1.5</v>
       </c>
       <c r="P17">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0.6</v>
@@ -3411,22 +3411,22 @@
         <v>81</v>
       </c>
       <c r="U17">
-        <v>323.5825733729876</v>
+        <v>214.8603400453304</v>
       </c>
       <c r="V17">
         <v>30.98958333333333</v>
       </c>
       <c r="W17">
-        <v>4751.8543427</v>
+        <v>3319.029030600001</v>
       </c>
       <c r="X17" t="s">
         <v>99</v>
       </c>
       <c r="Y17">
-        <v>323.5825733729876</v>
+        <v>214.8603400453304</v>
       </c>
       <c r="Z17">
-        <v>305.5825733729876</v>
+        <v>196.8603400453304</v>
       </c>
       <c r="AA17">
         <v>18</v>
@@ -3447,19 +3447,19 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0.1365827411529803</v>
+        <v>0.09069157804930941</v>
       </c>
       <c r="AH17">
-        <v>0.1365827411529803</v>
+        <v>0.09069157804930941</v>
       </c>
       <c r="AI17">
-        <v>0.1289850225393769</v>
+        <v>0.08309385943570598</v>
       </c>
       <c r="AK17">
-        <v>108.6235597207575</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>196.9590136522301</v>
+        <v>196.8603400453304</v>
       </c>
       <c r="AN17">
         <v>61.60134453781513</v>
@@ -3468,7 +3468,7 @@
         <v>1827.032072873949</v>
       </c>
       <c r="AP17">
-        <v>542.1001516034988</v>
+        <v>542.1001516034987</v>
       </c>
       <c r="AQ17">
         <v>2369.132224477447</v>
@@ -3477,16 +3477,16 @@
         <v>944.9298545577608</v>
       </c>
       <c r="AS17">
-        <v>1492.567812358877</v>
+        <v>1493.333067932218</v>
       </c>
       <c r="AT17">
-        <v>42.66452643043026</v>
+        <v>42.76208063396197</v>
       </c>
       <c r="AU17">
-        <v>202.5869853735108</v>
+        <v>202.5124350132962</v>
       </c>
       <c r="AV17">
-        <v>5.627971721280738</v>
+        <v>5.652094967965711</v>
       </c>
       <c r="AW17">
         <v>181.0392662012625</v>
@@ -3557,7 +3557,7 @@
         <v>1.5</v>
       </c>
       <c r="P18">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0.6</v>
@@ -3566,22 +3566,22 @@
         <v>81</v>
       </c>
       <c r="U18">
-        <v>325.0284260880788</v>
+        <v>216.1135514166349</v>
       </c>
       <c r="V18">
         <v>30.98958333333333</v>
       </c>
       <c r="W18">
-        <v>4319.131969399999</v>
+        <v>3661.770645999999</v>
       </c>
       <c r="X18" t="s">
         <v>100</v>
       </c>
       <c r="Y18">
-        <v>325.0284260880788</v>
+        <v>216.1135514166349</v>
       </c>
       <c r="Z18">
-        <v>307.0284260880788</v>
+        <v>198.1135514166349</v>
       </c>
       <c r="AA18">
         <v>18</v>
@@ -3602,19 +3602,19 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.1371930290466457</v>
+        <v>0.09122055290278383</v>
       </c>
       <c r="AH18">
-        <v>0.1371930290466457</v>
+        <v>0.09122055290278383</v>
       </c>
       <c r="AI18">
-        <v>0.1295953104330423</v>
+        <v>0.08362283428918039</v>
       </c>
       <c r="AK18">
-        <v>108.79242</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>198.2360060880788</v>
+        <v>198.1135514166349</v>
       </c>
       <c r="AN18">
         <v>61.60134453781513</v>
@@ -3623,7 +3623,7 @@
         <v>1827.032072873949</v>
       </c>
       <c r="AP18">
-        <v>542.1001516034984</v>
+        <v>542.1001516034985</v>
       </c>
       <c r="AQ18">
         <v>2369.132224477447</v>
@@ -3632,16 +3632,16 @@
         <v>944.9298545577608</v>
       </c>
       <c r="AS18">
-        <v>1487.32595819799</v>
+        <v>1488.018872800898</v>
       </c>
       <c r="AT18">
-        <v>37.76560691917422</v>
+        <v>37.75154161433714</v>
       </c>
       <c r="AU18">
-        <v>203.8820585444463</v>
+        <v>203.7602838990787</v>
       </c>
       <c r="AV18">
-        <v>5.64605245636754</v>
+        <v>5.646732482443812</v>
       </c>
       <c r="AW18">
         <v>181.3207</v>
@@ -3712,7 +3712,7 @@
         <v>1.5</v>
       </c>
       <c r="P19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0.6</v>
@@ -3721,22 +3721,22 @@
         <v>82</v>
       </c>
       <c r="U19">
-        <v>377.6225288040343</v>
+        <v>273.2095191164374</v>
       </c>
       <c r="V19">
         <v>30.98958333333333</v>
       </c>
       <c r="W19">
-        <v>2414.2544767</v>
+        <v>2267.131006899999</v>
       </c>
       <c r="X19" t="s">
         <v>101</v>
       </c>
       <c r="Y19">
-        <v>377.6225288040343</v>
+        <v>273.2095191164374</v>
       </c>
       <c r="Z19">
-        <v>359.6225288040343</v>
+        <v>255.2095191164374</v>
       </c>
       <c r="AA19">
         <v>18</v>
@@ -3757,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0.1593883517331519</v>
+        <v>0.1153173118873271</v>
       </c>
       <c r="AH19">
-        <v>0.1593883517331519</v>
+        <v>0.1153173118873271</v>
       </c>
       <c r="AI19">
-        <v>0.1517908433422116</v>
+        <v>0.1077198034963869</v>
       </c>
       <c r="AK19">
-        <v>104.4130096875969</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>255.2095191164374</v>
@@ -3867,7 +3867,7 @@
         <v>1.5</v>
       </c>
       <c r="P20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0.6</v>
@@ -3876,22 +3876,22 @@
         <v>81</v>
       </c>
       <c r="U20">
-        <v>313.9217491951308</v>
+        <v>221.1171435316843</v>
       </c>
       <c r="V20">
         <v>29.98958333333333</v>
       </c>
       <c r="W20">
-        <v>4480.586934700001</v>
+        <v>4360.3316344</v>
       </c>
       <c r="X20" t="s">
         <v>102</v>
       </c>
       <c r="Y20">
-        <v>313.9217491951308</v>
+        <v>221.1171435316843</v>
       </c>
       <c r="Z20">
-        <v>295.9217491951308</v>
+        <v>203.1171435316843</v>
       </c>
       <c r="AA20">
         <v>18</v>
@@ -3912,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.1209649544142152</v>
+        <v>0.08520411617254886</v>
       </c>
       <c r="AH20">
-        <v>0.1209649544142152</v>
+        <v>0.08520411617254886</v>
       </c>
       <c r="AI20">
-        <v>0.114028929162577</v>
+        <v>0.07826809092091062</v>
       </c>
       <c r="AK20">
-        <v>87.44432555439998</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>208.4774236407308</v>
+        <v>203.1171435316843</v>
       </c>
       <c r="AN20">
         <v>79.39423410906565</v>
@@ -3933,34 +3933,34 @@
         <v>1901.742151302541</v>
       </c>
       <c r="AP20">
-        <v>693.4041099871688</v>
+        <v>693.4041099871697</v>
       </c>
       <c r="AQ20">
-        <v>2595.146261289709</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AR20">
         <v>1094.388561628032</v>
       </c>
       <c r="AS20">
-        <v>1533.153942690802</v>
+        <v>1534.795979253952</v>
       </c>
       <c r="AT20">
-        <v>7.606387677748099</v>
+        <v>7.735773750445787</v>
       </c>
       <c r="AU20">
-        <v>209.6292450513288</v>
+        <v>204.2879070633252</v>
       </c>
       <c r="AV20">
-        <v>1.151821410597924</v>
+        <v>1.170763531640866</v>
       </c>
       <c r="AW20">
-        <v>145.7405425906666</v>
+        <v>168.8874000000004</v>
       </c>
       <c r="AX20">
-        <v>3.552713678800501E-15</v>
+        <v>0</v>
       </c>
       <c r="AY20">
-        <v>6.023546448786179E-16</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>1.5</v>
       </c>
       <c r="P21">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0.6</v>
@@ -4031,22 +4031,22 @@
         <v>81</v>
       </c>
       <c r="U21">
-        <v>332.3164314261403</v>
+        <v>221.9367816884985</v>
       </c>
       <c r="V21">
         <v>29.98958333333333</v>
       </c>
       <c r="W21">
-        <v>4306.8290593</v>
+        <v>3940.1658519</v>
       </c>
       <c r="X21" t="s">
         <v>103</v>
       </c>
       <c r="Y21">
-        <v>332.3164314261403</v>
+        <v>221.9367816884985</v>
       </c>
       <c r="Z21">
-        <v>314.3164314261403</v>
+        <v>203.9367816884985</v>
       </c>
       <c r="AA21">
         <v>18</v>
@@ -4067,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.1280530644392232</v>
+        <v>0.08551995122548607</v>
       </c>
       <c r="AH21">
-        <v>0.1280530644392232</v>
+        <v>0.08551995122548607</v>
       </c>
       <c r="AI21">
-        <v>0.1211170391875849</v>
+        <v>0.07858392597384782</v>
       </c>
       <c r="AK21">
-        <v>110.2448748</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>204.0715566261403</v>
+        <v>203.9367816884985</v>
       </c>
       <c r="AN21">
         <v>79.39423410906565</v>
@@ -4088,7 +4088,7 @@
         <v>1901.742151302541</v>
       </c>
       <c r="AP21">
-        <v>693.4041099871692</v>
+        <v>693.4041099871698</v>
       </c>
       <c r="AQ21">
         <v>2595.14626128971</v>
@@ -4097,19 +4097,19 @@
         <v>1094.388561628032</v>
       </c>
       <c r="AS21">
-        <v>1543.201445935939</v>
+        <v>1543.678407298854</v>
       </c>
       <c r="AT21">
-        <v>16.51690318316586</v>
+        <v>16.58282745937289</v>
       </c>
       <c r="AU21">
-        <v>206.3420444255026</v>
+        <v>206.2131602340453</v>
       </c>
       <c r="AV21">
-        <v>2.270487799362329</v>
+        <v>2.276378545546811</v>
       </c>
       <c r="AW21">
-        <v>183.7414580000001</v>
+        <v>185.135045</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>1.5</v>
       </c>
       <c r="P22">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0.6</v>
@@ -4192,22 +4192,22 @@
         <v>0.03</v>
       </c>
       <c r="U22">
-        <v>329.269179269111</v>
+        <v>222.220660159248</v>
       </c>
       <c r="V22">
         <v>29.98958333333333</v>
       </c>
       <c r="W22">
-        <v>5197.014642399998</v>
+        <v>4162.270331899999</v>
       </c>
       <c r="X22" t="s">
         <v>104</v>
       </c>
       <c r="Y22">
-        <v>329.269179269111</v>
+        <v>222.220660159248</v>
       </c>
       <c r="Z22">
-        <v>311.269179269111</v>
+        <v>204.220660159248</v>
       </c>
       <c r="AA22">
         <v>18</v>
@@ -4228,19 +4228,19 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0.126878852333153</v>
+        <v>0.08562722441495924</v>
       </c>
       <c r="AH22">
-        <v>0.126878852333153</v>
+        <v>0.08562722441495924</v>
       </c>
       <c r="AI22">
-        <v>0.1199428270815147</v>
+        <v>0.07869137048326474</v>
       </c>
       <c r="AK22">
-        <v>106.7431132060613</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>204.5260660630497</v>
+        <v>204.220660159248</v>
       </c>
       <c r="AN22">
         <v>79.39423410906565</v>
@@ -4249,28 +4249,28 @@
         <v>1901.742151302541</v>
       </c>
       <c r="AP22">
-        <v>693.4041099871686</v>
+        <v>693.4682117280482</v>
       </c>
       <c r="AQ22">
-        <v>2595.146261289709</v>
+        <v>2595.210363030589</v>
       </c>
       <c r="AR22">
         <v>1094.388561628032</v>
       </c>
       <c r="AS22">
-        <v>1546.473025735383</v>
+        <v>1546.255636959622</v>
       </c>
       <c r="AT22">
-        <v>19.82138099746975</v>
+        <v>19.12511131251038</v>
       </c>
       <c r="AU22">
-        <v>207.2132902716029</v>
+        <v>206.8516028337084</v>
       </c>
       <c r="AV22">
-        <v>2.687224208553172</v>
+        <v>2.630942674460318</v>
       </c>
       <c r="AW22">
-        <v>177.9051886767689</v>
+        <v>183.0830468055542</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="AZ22">
-        <v>-12.57352436215784</v>
+        <v>-10.83362689100343</v>
       </c>
       <c r="BA22">
-        <v>12.98520505409144</v>
+        <v>14.19564680555416</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>1.5</v>
       </c>
       <c r="P23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0.6</v>
@@ -4347,22 +4347,22 @@
         <v>81</v>
       </c>
       <c r="U23">
-        <v>331.1644833812848</v>
+        <v>222.1129204047519</v>
       </c>
       <c r="V23">
         <v>29.98958333333333</v>
       </c>
       <c r="W23">
-        <v>5391.310546799999</v>
+        <v>3829.4859788</v>
       </c>
       <c r="X23" t="s">
         <v>105</v>
       </c>
       <c r="Y23">
-        <v>331.1644833812848</v>
+        <v>222.1129204047519</v>
       </c>
       <c r="Z23">
-        <v>313.1644833812848</v>
+        <v>204.1129204047519</v>
       </c>
       <c r="AA23">
         <v>18</v>
@@ -4383,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0.1276091788432402</v>
+        <v>0.08558782359124856</v>
       </c>
       <c r="AH23">
-        <v>0.1276091788432402</v>
+        <v>0.08558782359124856</v>
       </c>
       <c r="AI23">
-        <v>0.120673153591602</v>
+        <v>0.07865179833961032</v>
       </c>
       <c r="AK23">
-        <v>108.7013935981012</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>204.4630897831836</v>
+        <v>204.1129204047519</v>
       </c>
       <c r="AN23">
         <v>79.39423410906565</v>
@@ -4404,34 +4404,34 @@
         <v>1901.742151302541</v>
       </c>
       <c r="AP23">
-        <v>693.4041099871692</v>
+        <v>693.404109987169</v>
       </c>
       <c r="AQ23">
-        <v>2595.14626128971</v>
+        <v>2595.146261289709</v>
       </c>
       <c r="AR23">
         <v>1094.388561628032</v>
       </c>
       <c r="AS23">
-        <v>1541.399418470125</v>
+        <v>1541.928656428101</v>
       </c>
       <c r="AT23">
-        <v>14.77854434262424</v>
+        <v>14.83090214616383</v>
       </c>
       <c r="AU23">
-        <v>206.6806447630668</v>
+        <v>206.3331703785814</v>
       </c>
       <c r="AV23">
-        <v>2.217554979883271</v>
+        <v>2.220249973829485</v>
       </c>
       <c r="AW23">
         <v>181.1689893301687</v>
       </c>
       <c r="AX23">
-        <v>3.552713678800501E-15</v>
+        <v>0</v>
       </c>
       <c r="AY23">
-        <v>6.023546448786179E-16</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
         <v>-10.78135236821107</v>
@@ -4493,7 +4493,7 @@
         <v>1.5</v>
       </c>
       <c r="P24">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0.6</v>
@@ -4502,22 +4502,22 @@
         <v>81</v>
       </c>
       <c r="U24">
-        <v>332.2253078262989</v>
+        <v>223.1520746562002</v>
       </c>
       <c r="V24">
         <v>29.98958333333333</v>
       </c>
       <c r="W24">
-        <v>4396.547248899999</v>
+        <v>4489.6168044</v>
       </c>
       <c r="X24" t="s">
         <v>106</v>
       </c>
       <c r="Y24">
-        <v>332.2253078262989</v>
+        <v>223.1520746562002</v>
       </c>
       <c r="Z24">
-        <v>314.2253078262989</v>
+        <v>205.1520746562002</v>
       </c>
       <c r="AA24">
         <v>18</v>
@@ -4538,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.1280179513509165</v>
+        <v>0.0859882458206037</v>
       </c>
       <c r="AH24">
-        <v>0.1280179513509165</v>
+        <v>0.0859882458206037</v>
       </c>
       <c r="AI24">
-        <v>0.1210819260992782</v>
+        <v>0.07905222056896545</v>
       </c>
       <c r="AK24">
-        <v>108.59238</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>205.632927826299</v>
+        <v>205.1520746562002</v>
       </c>
       <c r="AN24">
         <v>79.39423410906565</v>
@@ -4559,7 +4559,7 @@
         <v>1901.742151302541</v>
       </c>
       <c r="AP24">
-        <v>693.4041099871699</v>
+        <v>693.4041099871692</v>
       </c>
       <c r="AQ24">
         <v>2595.14626128971</v>
@@ -4568,16 +4568,16 @@
         <v>1094.388561628032</v>
       </c>
       <c r="AS24">
-        <v>1546.347717957969</v>
+        <v>1546.729958773841</v>
       </c>
       <c r="AT24">
-        <v>19.59280912474446</v>
+        <v>19.65228117841338</v>
       </c>
       <c r="AU24">
-        <v>208.490644330864</v>
+        <v>208.017928232822</v>
       </c>
       <c r="AV24">
-        <v>2.857716504565076</v>
+        <v>2.865853576621838</v>
       </c>
       <c r="AW24">
         <v>180.9873</v>
@@ -4648,7 +4648,7 @@
         <v>1.5</v>
       </c>
       <c r="P25">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0.6</v>
@@ -4657,22 +4657,22 @@
         <v>82</v>
       </c>
       <c r="U25">
-        <v>404.1733507370461</v>
+        <v>286.3407620074641</v>
       </c>
       <c r="V25">
         <v>29.98958333333333</v>
       </c>
       <c r="W25">
-        <v>2734.4682316</v>
+        <v>2321.4749292</v>
       </c>
       <c r="X25" t="s">
         <v>107</v>
       </c>
       <c r="Y25">
-        <v>404.1733507370461</v>
+        <v>286.3407620074641</v>
       </c>
       <c r="Z25">
-        <v>386.1733507370461</v>
+        <v>268.3407620074641</v>
       </c>
       <c r="AA25">
         <v>18</v>
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0.1557228047270567</v>
+        <v>0.1103234205970569</v>
       </c>
       <c r="AH25">
-        <v>0.1557228047270567</v>
+        <v>0.1103234205970569</v>
       </c>
       <c r="AI25">
-        <v>0.1487876357457879</v>
+        <v>0.1033882516157882</v>
       </c>
       <c r="AK25">
-        <v>117.832588729582</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>268.3407620074641</v>
@@ -4803,7 +4803,7 @@
         <v>1.5</v>
       </c>
       <c r="P26">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0.6</v>
@@ -4812,22 +4812,22 @@
         <v>81</v>
       </c>
       <c r="U26">
-        <v>321.0279552164915</v>
+        <v>229.1369412546335</v>
       </c>
       <c r="V26">
         <v>30.98958333333333</v>
       </c>
       <c r="W26">
-        <v>4408.0312689</v>
+        <v>4147.3497296</v>
       </c>
       <c r="X26" t="s">
         <v>108</v>
       </c>
       <c r="Y26">
-        <v>321.0279552164915</v>
+        <v>229.1369412546335</v>
       </c>
       <c r="Z26">
-        <v>303.0279552164915</v>
+        <v>211.1369412546335</v>
       </c>
       <c r="AA26">
         <v>18</v>
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.1252676119556025</v>
+        <v>0.0894107813952212</v>
       </c>
       <c r="AH26">
-        <v>0.1252676119556025</v>
+        <v>0.0894107813952212</v>
       </c>
       <c r="AI26">
-        <v>0.1182438715661393</v>
+        <v>0.08238705987610784</v>
       </c>
       <c r="AK26">
-        <v>87.27695724681372</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>215.7509979696778</v>
+        <v>211.1369412546335</v>
       </c>
       <c r="AN26">
         <v>80.73680672268908</v>
@@ -4869,28 +4869,28 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AP26">
-        <v>700.4004329246961</v>
+        <v>700.4073181272522</v>
       </c>
       <c r="AQ26">
-        <v>2562.737089059146</v>
+        <v>2562.743974261703</v>
       </c>
       <c r="AR26">
         <v>998.2962822620709</v>
       </c>
       <c r="AS26">
-        <v>1608.831302940409</v>
+        <v>1610.419200252156</v>
       </c>
       <c r="AT26">
-        <v>19.81572171543277</v>
+        <v>19.83273597214557</v>
       </c>
       <c r="AU26">
-        <v>218.8772151409167</v>
+        <v>214.2661597407566</v>
       </c>
       <c r="AV26">
-        <v>3.12621717123896</v>
+        <v>3.1292184861231</v>
       </c>
       <c r="AW26">
-        <v>145.4615954113562</v>
+        <v>168.8874000000002</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>1.5</v>
       </c>
       <c r="P27">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0.6</v>
@@ -4967,22 +4967,22 @@
         <v>81</v>
       </c>
       <c r="U27">
-        <v>340.3935390868717</v>
+        <v>229.9022650095685</v>
       </c>
       <c r="V27">
         <v>30.98958333333333</v>
       </c>
       <c r="W27">
-        <v>5029.4755324</v>
+        <v>5126.944836899998</v>
       </c>
       <c r="X27" t="s">
         <v>109</v>
       </c>
       <c r="Y27">
-        <v>340.3935390868717</v>
+        <v>229.9022650095685</v>
       </c>
       <c r="Z27">
-        <v>322.3935390868717</v>
+        <v>211.9022650095685</v>
       </c>
       <c r="AA27">
         <v>18</v>
@@ -5003,19 +5003,19 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.1328238569695341</v>
+        <v>0.08970941589114489</v>
       </c>
       <c r="AH27">
-        <v>0.1328238569695341</v>
+        <v>0.08970941589114489</v>
       </c>
       <c r="AI27">
-        <v>0.1258001354504207</v>
+        <v>0.08268569437203153</v>
       </c>
       <c r="AK27">
-        <v>109.68526662</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>212.7082724668717</v>
+        <v>211.9022650095685</v>
       </c>
       <c r="AN27">
         <v>80.73680672268908</v>
@@ -5024,28 +5024,28 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AP27">
-        <v>700.4073181272519</v>
+        <v>700.4073181272506</v>
       </c>
       <c r="AQ27">
-        <v>2562.743974261703</v>
+        <v>2562.743974261701</v>
       </c>
       <c r="AR27">
         <v>998.2962822620709</v>
       </c>
       <c r="AS27">
-        <v>1619.862183749352</v>
+        <v>1620.529263803457</v>
       </c>
       <c r="AT27">
-        <v>29.6905589372287</v>
+        <v>29.86370754084774</v>
       </c>
       <c r="AU27">
-        <v>217.0180446451264</v>
+        <v>216.2288770979047</v>
       </c>
       <c r="AV27">
-        <v>4.309772178254723</v>
+        <v>4.326612088336192</v>
       </c>
       <c r="AW27">
-        <v>182.8087777</v>
+        <v>182.8087777000001</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>1.5</v>
       </c>
       <c r="P28">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0.6</v>
@@ -5128,22 +5128,22 @@
         <v>0.03</v>
       </c>
       <c r="U28">
-        <v>338.1294978296661</v>
+        <v>230.1760891941479</v>
       </c>
       <c r="V28">
         <v>30.98958333333333</v>
       </c>
       <c r="W28">
-        <v>5360.426135900001</v>
+        <v>4141.321571499999</v>
       </c>
       <c r="X28" t="s">
         <v>110</v>
       </c>
       <c r="Y28">
-        <v>338.1294978296661</v>
+        <v>230.1760891941479</v>
       </c>
       <c r="Z28">
-        <v>320.1294978296661</v>
+        <v>212.1760891941479</v>
       </c>
       <c r="AA28">
         <v>18</v>
@@ -5164,19 +5164,19 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0.1319404127862899</v>
+        <v>0.08981626393657177</v>
       </c>
       <c r="AH28">
-        <v>0.1319404127862899</v>
+        <v>0.08981626393657177</v>
       </c>
       <c r="AI28">
-        <v>0.1249166912671766</v>
+        <v>0.08279254241745841</v>
       </c>
       <c r="AK28">
-        <v>107.6757571945984</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>212.4537406350676</v>
+        <v>212.1760891941479</v>
       </c>
       <c r="AN28">
         <v>80.73680672268908</v>
@@ -5194,19 +5194,19 @@
         <v>998.2962822620709</v>
       </c>
       <c r="AS28">
-        <v>1623.063282939574</v>
+        <v>1621.828054484674</v>
       </c>
       <c r="AT28">
-        <v>32.83038491794956</v>
+        <v>31.24468768624113</v>
       </c>
       <c r="AU28">
-        <v>217.2645388729399</v>
+        <v>216.7445789127866</v>
       </c>
       <c r="AV28">
-        <v>4.810798237872259</v>
+        <v>4.568489718638712</v>
       </c>
       <c r="AW28">
-        <v>179.4595953243308</v>
+        <v>182.2543781791165</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -5215,10 +5215,10 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>-10.52741407858322</v>
+        <v>-9.974838484656459</v>
       </c>
       <c r="BA28">
-        <v>11.46014220525018</v>
+        <v>13.59724160598503</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>1.5</v>
       </c>
       <c r="P29">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0.6</v>
@@ -5283,22 +5283,22 @@
         <v>81</v>
       </c>
       <c r="U29">
-        <v>336.7464877154593</v>
+        <v>229.9871372485802</v>
       </c>
       <c r="V29">
         <v>30.98958333333333</v>
       </c>
       <c r="W29">
-        <v>5162.225260000001</v>
+        <v>4802.062173800001</v>
       </c>
       <c r="X29" t="s">
         <v>111</v>
       </c>
       <c r="Y29">
-        <v>336.7464877154593</v>
+        <v>229.9871372485802</v>
       </c>
       <c r="Z29">
-        <v>318.7464877154593</v>
+        <v>211.9871372485802</v>
       </c>
       <c r="AA29">
         <v>18</v>
@@ -5319,19 +5319,19 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.1314017591402241</v>
+        <v>0.089742533611785</v>
       </c>
       <c r="AH29">
-        <v>0.1314017591402241</v>
+        <v>0.089742533611785</v>
       </c>
       <c r="AI29">
-        <v>0.1243779838350378</v>
+        <v>0.08271881209267164</v>
       </c>
       <c r="AK29">
-        <v>106.4060359165518</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>212.3404517989075</v>
+        <v>211.9871372485802</v>
       </c>
       <c r="AN29">
         <v>80.73680672268908</v>
@@ -5340,28 +5340,28 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AP29">
-        <v>700.3876933630602</v>
+        <v>700.407318127251</v>
       </c>
       <c r="AQ29">
-        <v>2562.724349497511</v>
+        <v>2562.743974261702</v>
       </c>
       <c r="AR29">
         <v>998.2962822620709</v>
       </c>
       <c r="AS29">
-        <v>1618.839151713322</v>
+        <v>1619.293816022975</v>
       </c>
       <c r="AT29">
-        <v>28.63863186158881</v>
+        <v>28.63223370855511</v>
       </c>
       <c r="AU29">
-        <v>216.4948683524364</v>
+        <v>216.1367043604969</v>
       </c>
       <c r="AV29">
-        <v>4.154416553528911</v>
+        <v>4.149567111916676</v>
       </c>
       <c r="AW29">
-        <v>177.3433931942531</v>
+        <v>177.343393194253</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>1.5</v>
       </c>
       <c r="P30">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0.6</v>
@@ -5438,22 +5438,22 @@
         <v>81</v>
       </c>
       <c r="U30">
-        <v>340.2319544380614</v>
+        <v>231.2528940303545</v>
       </c>
       <c r="V30">
         <v>30.98958333333333</v>
       </c>
       <c r="W30">
-        <v>4597.336995099999</v>
+        <v>4318.656757499999</v>
       </c>
       <c r="X30" t="s">
         <v>112</v>
       </c>
       <c r="Y30">
-        <v>340.2319544380614</v>
+        <v>231.2528940303545</v>
       </c>
       <c r="Z30">
-        <v>322.2319544380614</v>
+        <v>213.2528940303545</v>
       </c>
       <c r="AA30">
         <v>18</v>
@@ -5474,19 +5474,19 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.1327608055487004</v>
+        <v>0.09023713146351374</v>
       </c>
       <c r="AH30">
-        <v>0.1327608055487004</v>
+        <v>0.09023713146351374</v>
       </c>
       <c r="AI30">
-        <v>0.125737084029587</v>
+        <v>0.08321335615832753</v>
       </c>
       <c r="AK30">
-        <v>108.58992</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>213.6420344380614</v>
+        <v>213.2528940303545</v>
       </c>
       <c r="AN30">
         <v>80.73680672268908</v>
@@ -5495,25 +5495,25 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AP30">
-        <v>700.4073181272513</v>
+        <v>700.387693363059</v>
       </c>
       <c r="AQ30">
-        <v>2562.743974261702</v>
+        <v>2562.72434949751</v>
       </c>
       <c r="AR30">
         <v>998.2962822620709</v>
       </c>
       <c r="AS30">
-        <v>1621.415298251308</v>
+        <v>1621.587023359092</v>
       </c>
       <c r="AT30">
-        <v>30.92338357220096</v>
+        <v>30.86082877752406</v>
       </c>
       <c r="AU30">
-        <v>218.3501052966907</v>
+        <v>217.9501454076448</v>
       </c>
       <c r="AV30">
-        <v>4.708070858629287</v>
+        <v>4.69725137729025</v>
       </c>
       <c r="AW30">
         <v>180.9832</v>
@@ -5584,7 +5584,7 @@
         <v>1.5</v>
       </c>
       <c r="P31">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0.6</v>
@@ -5593,22 +5593,22 @@
         <v>82</v>
       </c>
       <c r="U31">
-        <v>406.8163820868121</v>
+        <v>292.8494484169519</v>
       </c>
       <c r="V31">
         <v>30.98958333333333</v>
       </c>
       <c r="W31">
-        <v>3081.889750900002</v>
+        <v>2452.6016564</v>
       </c>
       <c r="X31" t="s">
         <v>113</v>
       </c>
       <c r="Y31">
-        <v>406.8163820868121</v>
+        <v>292.8494484169519</v>
       </c>
       <c r="Z31">
-        <v>388.8163820868121</v>
+        <v>274.8494484169519</v>
       </c>
       <c r="AA31">
         <v>18</v>
@@ -5629,16 +5629,16 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.1587361245687501</v>
+        <v>0.1142672433330948</v>
       </c>
       <c r="AH31">
-        <v>0.1587361245687501</v>
+        <v>0.1142672433330948</v>
       </c>
       <c r="AI31">
-        <v>0.1517126850809376</v>
+        <v>0.1072438038452824</v>
       </c>
       <c r="AK31">
-        <v>113.9669336698602</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>274.8494484169519</v>
@@ -5739,7 +5739,7 @@
         <v>1.5</v>
       </c>
       <c r="P32">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0.6</v>
@@ -5748,22 +5748,22 @@
         <v>81</v>
       </c>
       <c r="U32">
-        <v>296.8438227138589</v>
+        <v>201.6921177860308</v>
       </c>
       <c r="V32">
         <v>29.98958333333333</v>
       </c>
       <c r="W32">
-        <v>4805.5266041</v>
+        <v>3640.134998</v>
       </c>
       <c r="X32" t="s">
         <v>114</v>
       </c>
       <c r="Y32">
-        <v>296.8438227138589</v>
+        <v>201.6921177860308</v>
       </c>
       <c r="Z32">
-        <v>278.8438227138589</v>
+        <v>183.6921177860308</v>
       </c>
       <c r="AA32">
         <v>18</v>
@@ -5784,19 +5784,19 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.1335049389049907</v>
+        <v>0.09071064243973941</v>
       </c>
       <c r="AH32">
-        <v>0.1335049389049907</v>
+        <v>0.09071064243973941</v>
       </c>
       <c r="AI32">
-        <v>0.1254094734904846</v>
+        <v>0.08261517702523329</v>
       </c>
       <c r="AK32">
-        <v>93.02882872797824</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>185.8149939858806</v>
+        <v>183.6921177860308</v>
       </c>
       <c r="AN32">
         <v>62.55505383813824</v>
@@ -5805,7 +5805,7 @@
         <v>1678.163552344566</v>
       </c>
       <c r="AP32">
-        <v>545.3034230990075</v>
+        <v>545.3034230990072</v>
       </c>
       <c r="AQ32">
         <v>2223.466975443574</v>
@@ -5814,19 +5814,19 @@
         <v>840.6148316061417</v>
       </c>
       <c r="AS32">
-        <v>1451.117032634555</v>
+        <v>1452.547399966585</v>
       </c>
       <c r="AT32">
-        <v>43.53077891674025</v>
+        <v>43.56079863422175</v>
       </c>
       <c r="AU32">
-        <v>193.2801890157786</v>
+        <v>191.1626082940926</v>
       </c>
       <c r="AV32">
-        <v>7.465195029898005</v>
+        <v>7.470490508061745</v>
       </c>
       <c r="AW32">
-        <v>155.0480478799637</v>
+        <v>168.8874000000006</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>1.5</v>
       </c>
       <c r="P33">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0.6</v>
@@ -5903,22 +5903,22 @@
         <v>81</v>
       </c>
       <c r="U33">
-        <v>309.8850957169908</v>
+        <v>202.5797312098989</v>
       </c>
       <c r="V33">
         <v>29.98958333333333</v>
       </c>
       <c r="W33">
-        <v>3990.002882000001</v>
+        <v>3782.3435811</v>
       </c>
       <c r="X33" t="s">
         <v>115</v>
       </c>
       <c r="Y33">
-        <v>309.8850957169908</v>
+        <v>202.5797312098989</v>
       </c>
       <c r="Z33">
-        <v>291.8850957169908</v>
+        <v>184.5797312098989</v>
       </c>
       <c r="AA33">
         <v>18</v>
@@ -5939,19 +5939,19 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>0.1393702263804345</v>
+        <v>0.09110984487164918</v>
       </c>
       <c r="AH33">
-        <v>0.1393702263804345</v>
+        <v>0.09110984487164918</v>
       </c>
       <c r="AI33">
-        <v>0.1312747609659284</v>
+        <v>0.08301437945714304</v>
       </c>
       <c r="AK33">
-        <v>106.75437846</v>
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>185.1307172569908</v>
+        <v>184.5797312098989</v>
       </c>
       <c r="AN33">
         <v>62.55505383813824</v>
@@ -5960,7 +5960,7 @@
         <v>1678.163552344566</v>
       </c>
       <c r="AP33">
-        <v>545.3034230990071</v>
+        <v>545.3034230990067</v>
       </c>
       <c r="AQ33">
         <v>2223.466975443573</v>
@@ -5969,19 +5969,19 @@
         <v>840.6148316061417</v>
       </c>
       <c r="AS33">
-        <v>1465.201043014125</v>
+        <v>1465.773241502202</v>
       </c>
       <c r="AT33">
-        <v>56.71417405879053</v>
+        <v>56.80282860875957</v>
       </c>
       <c r="AU33">
-        <v>193.9224951343371</v>
+        <v>193.3784352064776</v>
       </c>
       <c r="AV33">
-        <v>8.79177787734632</v>
+        <v>8.798703996578705</v>
       </c>
       <c r="AW33">
-        <v>177.9239641</v>
+        <v>178.170317</v>
       </c>
       <c r="AX33">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>1.5</v>
       </c>
       <c r="P34">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0.6</v>
@@ -6064,22 +6064,22 @@
         <v>0.03</v>
       </c>
       <c r="U34">
-        <v>311.4662145976599</v>
+        <v>202.6423384584415</v>
       </c>
       <c r="V34">
         <v>29.98958333333333</v>
       </c>
       <c r="W34">
-        <v>4651.1717174</v>
+        <v>3622.8080242</v>
       </c>
       <c r="X34" t="s">
         <v>116</v>
       </c>
       <c r="Y34">
-        <v>311.4662145976599</v>
+        <v>202.6423384584415</v>
       </c>
       <c r="Z34">
-        <v>293.4662145976599</v>
+        <v>184.6423384584415</v>
       </c>
       <c r="AA34">
         <v>18</v>
@@ -6100,19 +6100,19 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.1400813315590279</v>
+        <v>0.0911380023613866</v>
       </c>
       <c r="AH34">
-        <v>0.1400813315590279</v>
+        <v>0.0911380023613866</v>
       </c>
       <c r="AI34">
-        <v>0.1319858661445217</v>
+        <v>0.08304253694688046</v>
       </c>
       <c r="AK34">
-        <v>108.4100247496534</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>185.0561898480066</v>
+        <v>184.6423384584415</v>
       </c>
       <c r="AN34">
         <v>62.55505383813824</v>
@@ -6121,7 +6121,7 @@
         <v>1678.163552344566</v>
       </c>
       <c r="AP34">
-        <v>545.3034230990064</v>
+        <v>545.3034230990071</v>
       </c>
       <c r="AQ34">
         <v>2223.466975443573</v>
@@ -6130,19 +6130,19 @@
         <v>840.6148316061417</v>
       </c>
       <c r="AS34">
-        <v>1463.559535149554</v>
+        <v>1463.185143920597</v>
       </c>
       <c r="AT34">
-        <v>55.00334767299045</v>
+        <v>54.20679678773731</v>
       </c>
       <c r="AU34">
-        <v>193.9505002763175</v>
+        <v>193.4062544478234</v>
       </c>
       <c r="AV34">
-        <v>8.894310428310968</v>
+        <v>8.763915989381918</v>
       </c>
       <c r="AW34">
-        <v>180.6833745827556</v>
+        <v>178.9308735203561</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="AZ34">
-        <v>-10.13792834195151</v>
+        <v>-9.662567921112071</v>
       </c>
       <c r="BA34">
-        <v>11.79597458275563</v>
+        <v>10.24839672310006</v>
       </c>
       <c r="BB34">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>1.5</v>
       </c>
       <c r="P35">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0.6</v>
@@ -6219,22 +6219,22 @@
         <v>81</v>
       </c>
       <c r="U35">
-        <v>309.6064846049816</v>
+        <v>202.9387686926219</v>
       </c>
       <c r="V35">
         <v>29.98958333333333</v>
       </c>
       <c r="W35">
-        <v>4626.5784198</v>
+        <v>2869.4905277</v>
       </c>
       <c r="X35" t="s">
         <v>117</v>
       </c>
       <c r="Y35">
-        <v>309.6064846049816</v>
+        <v>202.9387686926219</v>
       </c>
       <c r="Z35">
-        <v>291.6064846049816</v>
+        <v>184.9387686926219</v>
       </c>
       <c r="AA35">
         <v>18</v>
@@ -6255,19 +6255,19 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0.1392449215681363</v>
+        <v>0.09127132128964335</v>
       </c>
       <c r="AH35">
-        <v>0.1392449215681363</v>
+        <v>0.09127132128964335</v>
       </c>
       <c r="AI35">
-        <v>0.1311494561536301</v>
+        <v>0.08317585587513722</v>
       </c>
       <c r="AK35">
-        <v>106.0479950548862</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>185.5584895500954</v>
+        <v>184.9387686926219</v>
       </c>
       <c r="AN35">
         <v>62.55505383813824</v>
@@ -6276,28 +6276,28 @@
         <v>1678.163552344566</v>
       </c>
       <c r="AP35">
-        <v>545.3034230990072</v>
+        <v>545.3034230990071</v>
       </c>
       <c r="AQ35">
-        <v>2223.466975443574</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AR35">
         <v>840.6148316061417</v>
       </c>
       <c r="AS35">
-        <v>1462.03011191107</v>
+        <v>1462.123343996099</v>
       </c>
       <c r="AT35">
-        <v>53.51775405966963</v>
+        <v>53.16803623463821</v>
       </c>
       <c r="AU35">
-        <v>193.6087802792558</v>
+        <v>192.9326918337056</v>
       </c>
       <c r="AV35">
-        <v>8.05029072916046</v>
+        <v>7.993923141083716</v>
       </c>
       <c r="AW35">
-        <v>176.7466584248103</v>
+        <v>178.761201456341</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>1.5</v>
       </c>
       <c r="P36">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0.6</v>
@@ -6374,22 +6374,22 @@
         <v>81</v>
       </c>
       <c r="U36">
-        <v>312.0498279832352</v>
+        <v>203.3610373017711</v>
       </c>
       <c r="V36">
         <v>29.98958333333333</v>
       </c>
       <c r="W36">
-        <v>4347.8883198</v>
+        <v>2666.186007599999</v>
       </c>
       <c r="X36" t="s">
         <v>118</v>
       </c>
       <c r="Y36">
-        <v>312.0498279832352</v>
+        <v>203.3610373017711</v>
       </c>
       <c r="Z36">
-        <v>294.0498279832352</v>
+        <v>185.3610373017711</v>
       </c>
       <c r="AA36">
         <v>18</v>
@@ -6410,19 +6410,19 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>0.140343810557826</v>
+        <v>0.09146123578525443</v>
       </c>
       <c r="AH36">
-        <v>0.140343810557826</v>
+        <v>0.09146123578525443</v>
       </c>
       <c r="AI36">
-        <v>0.1322483451433199</v>
+        <v>0.0833657703707483</v>
       </c>
       <c r="AK36">
-        <v>107.97528</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>186.0745479832351</v>
+        <v>185.3610373017711</v>
       </c>
       <c r="AN36">
         <v>62.55505383813824</v>
@@ -6431,7 +6431,7 @@
         <v>1678.163552344566</v>
       </c>
       <c r="AP36">
-        <v>545.3034230990067</v>
+        <v>545.3034230990063</v>
       </c>
       <c r="AQ36">
         <v>2223.466975443573</v>
@@ -6440,16 +6440,16 @@
         <v>840.6148316061417</v>
       </c>
       <c r="AS36">
-        <v>1461.372893724033</v>
+        <v>1462.127702797166</v>
       </c>
       <c r="AT36">
-        <v>52.92996764659071</v>
+        <v>53.10793833828149</v>
       </c>
       <c r="AU36">
-        <v>194.8137341087982</v>
+        <v>194.1176528527105</v>
       </c>
       <c r="AV36">
-        <v>8.739186125563077</v>
+        <v>8.756615550939369</v>
       </c>
       <c r="AW36">
         <v>179.9588</v>
@@ -6520,7 +6520,7 @@
         <v>1.5</v>
       </c>
       <c r="P37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0.6</v>
@@ -6529,22 +6529,22 @@
         <v>82</v>
       </c>
       <c r="U37">
-        <v>373.1642128626362</v>
+        <v>242.9139721488898</v>
       </c>
       <c r="V37">
         <v>29.98958333333333</v>
       </c>
       <c r="W37">
-        <v>2155.698132699999</v>
+        <v>1839.529637200001</v>
       </c>
       <c r="X37" t="s">
         <v>119</v>
       </c>
       <c r="Y37">
-        <v>373.1642128626362</v>
+        <v>242.9139721488898</v>
       </c>
       <c r="Z37">
-        <v>355.1642128626362</v>
+        <v>224.9139721488898</v>
       </c>
       <c r="AA37">
         <v>18</v>
@@ -6565,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0.1678305964256614</v>
+        <v>0.1092505535649576</v>
       </c>
       <c r="AH37">
-        <v>0.1678305964256614</v>
+        <v>0.1092505535649576</v>
       </c>
       <c r="AI37">
-        <v>0.1597350968264703</v>
+        <v>0.1011550539657665</v>
       </c>
       <c r="AK37">
-        <v>130.2502407137465</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>238.1431725487677</v>
@@ -6675,7 +6675,7 @@
         <v>1.5</v>
       </c>
       <c r="P38">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0.6</v>
@@ -6684,22 +6684,22 @@
         <v>81</v>
       </c>
       <c r="U38">
-        <v>202.5393750739451</v>
+        <v>144.3294831689294</v>
       </c>
       <c r="V38">
         <v>30.98958333333333</v>
       </c>
       <c r="W38">
-        <v>3785.950578200001</v>
+        <v>2833.890076200001</v>
       </c>
       <c r="X38" t="s">
         <v>120</v>
       </c>
       <c r="Y38">
-        <v>202.5393750739451</v>
+        <v>144.3294831689294</v>
       </c>
       <c r="Z38">
-        <v>184.5393750739451</v>
+        <v>126.3294831689294</v>
       </c>
       <c r="AA38">
         <v>18</v>
@@ -6720,19 +6720,19 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>0.0943232367817389</v>
+        <v>0.06721908068460815</v>
       </c>
       <c r="AH38">
-        <v>0.0943232367817389</v>
+        <v>0.06721908068460815</v>
       </c>
       <c r="AI38">
-        <v>0.08594057903209666</v>
+        <v>0.05883587701923661</v>
       </c>
       <c r="AK38">
-        <v>64.25098547525458</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>132.723755639489</v>
+        <v>126.3294831689294</v>
       </c>
       <c r="AN38">
         <v>58.69714285714286</v>
@@ -6741,34 +6741,34 @@
         <v>1588.554786151262</v>
       </c>
       <c r="AP38">
-        <v>558.7355527353798</v>
+        <v>558.5957208026066</v>
       </c>
       <c r="AQ38">
-        <v>2147.290338886642</v>
+        <v>2147.150506953868</v>
       </c>
       <c r="AR38">
         <v>1167.710296098818</v>
       </c>
       <c r="AS38">
-        <v>1090.124250719873</v>
+        <v>1111.598770388458</v>
       </c>
       <c r="AT38">
-        <v>84.67605760646052</v>
+        <v>105.4406718544668</v>
       </c>
       <c r="AU38">
-        <v>145.7246982248226</v>
+        <v>142.8890029963857</v>
       </c>
       <c r="AV38">
-        <v>13.00094258533361</v>
+        <v>16.55951982745637</v>
       </c>
       <c r="AW38">
-        <v>107.084975792091</v>
+        <v>168.8874000000001</v>
       </c>
       <c r="AX38">
-        <v>73.3444103761577</v>
+        <v>0</v>
       </c>
       <c r="AY38">
-        <v>12.43536604079854</v>
+        <v>0</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -6830,7 +6830,7 @@
         <v>1.5</v>
       </c>
       <c r="P39">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0.6</v>
@@ -6839,22 +6839,22 @@
         <v>81</v>
       </c>
       <c r="U39">
-        <v>252.1601284660401</v>
+        <v>145.1797718122042</v>
       </c>
       <c r="V39">
         <v>30.98958333333333</v>
       </c>
       <c r="W39">
-        <v>3933.969730999997</v>
+        <v>3216.7439342</v>
       </c>
       <c r="X39" t="s">
         <v>121</v>
       </c>
       <c r="Y39">
-        <v>252.1601284660401</v>
+        <v>145.1797718122042</v>
       </c>
       <c r="Z39">
-        <v>234.1601284660401</v>
+        <v>127.1797718122042</v>
       </c>
       <c r="AA39">
         <v>18</v>
@@ -6875,19 +6875,19 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>0.117439428512059</v>
+        <v>0.06761508862188177</v>
       </c>
       <c r="AH39">
-        <v>0.117439428512059</v>
+        <v>0.06761508862188177</v>
       </c>
       <c r="AI39">
-        <v>0.1090562248466875</v>
+        <v>0.05923188495651025</v>
       </c>
       <c r="AK39">
-        <v>106.2331533</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>127.9269751660401</v>
+        <v>127.1797718122042</v>
       </c>
       <c r="AN39">
         <v>58.69714285714286</v>
@@ -6896,28 +6896,28 @@
         <v>1588.554786151262</v>
       </c>
       <c r="AP39">
-        <v>558.5957208026066</v>
+        <v>558.5957208026069</v>
       </c>
       <c r="AQ39">
-        <v>2147.150506953868</v>
+        <v>2147.150506953869</v>
       </c>
       <c r="AR39">
         <v>1167.710296098818</v>
       </c>
       <c r="AS39">
-        <v>1120.443470408839</v>
+        <v>1121.981351189767</v>
       </c>
       <c r="AT39">
-        <v>114.8993540919824</v>
+        <v>115.7926250892336</v>
       </c>
       <c r="AU39">
-        <v>145.4218301375682</v>
+        <v>144.7587220629466</v>
       </c>
       <c r="AV39">
-        <v>17.49485497152811</v>
+        <v>17.57895025074234</v>
       </c>
       <c r="AW39">
-        <v>177.0552555</v>
+        <v>177.3089313999999</v>
       </c>
       <c r="AX39">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>1.5</v>
       </c>
       <c r="P40">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0.6</v>
@@ -7000,22 +7000,22 @@
         <v>0.03</v>
       </c>
       <c r="U40">
-        <v>254.2218780692646</v>
+        <v>145.3016849642708</v>
       </c>
       <c r="V40">
         <v>30.98958333333333</v>
       </c>
       <c r="W40">
-        <v>1085.101120799998</v>
+        <v>3073.7708081</v>
       </c>
       <c r="X40" t="s">
         <v>122</v>
       </c>
       <c r="Y40">
-        <v>254.2218780692646</v>
+        <v>145.3016849642708</v>
       </c>
       <c r="Z40">
-        <v>236.2218780692646</v>
+        <v>127.3016849642708</v>
       </c>
       <c r="AA40">
         <v>18</v>
@@ -7036,19 +7036,19 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>0.1183996544471051</v>
+        <v>0.0676718676653963</v>
       </c>
       <c r="AH40">
-        <v>0.1183996544471051</v>
+        <v>0.0676718676653963</v>
       </c>
       <c r="AI40">
-        <v>0.1100164507817336</v>
+        <v>0.05928866400002478</v>
       </c>
       <c r="AK40">
-        <v>108.6608975569714</v>
+        <v>0</v>
       </c>
       <c r="AL40">
-        <v>127.5609805122932</v>
+        <v>127.3016849642708</v>
       </c>
       <c r="AN40">
         <v>58.69714285714286</v>
@@ -7057,7 +7057,7 @@
         <v>1588.554786151262</v>
       </c>
       <c r="AP40">
-        <v>558.5957208026068</v>
+        <v>558.5957208026074</v>
       </c>
       <c r="AQ40">
         <v>2147.150506953869</v>
@@ -7066,19 +7066,19 @@
         <v>1167.710296098818</v>
       </c>
       <c r="AS40">
-        <v>1121.269668035464</v>
+        <v>1122.989593302188</v>
       </c>
       <c r="AT40">
-        <v>115.4802095395816</v>
+        <v>116.8070768662716</v>
       </c>
       <c r="AU40">
-        <v>145.1928087405863</v>
+        <v>145.113183829986</v>
       </c>
       <c r="AV40">
-        <v>17.63182822829319</v>
+        <v>17.8114988657152</v>
       </c>
       <c r="AW40">
-        <v>181.1014959282857</v>
+        <v>176.2795137156501</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="AZ40">
-        <v>-9.502326731270045</v>
+        <v>-8.903193673196512</v>
       </c>
       <c r="BA40">
-        <v>12.21409592828573</v>
+        <v>10.64282857344639</v>
       </c>
       <c r="BB40">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>1.5</v>
       </c>
       <c r="P41">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>0.6</v>
@@ -7155,22 +7155,22 @@
         <v>81</v>
       </c>
       <c r="U41">
-        <v>252.8461905005834</v>
+        <v>145.4631707657409</v>
       </c>
       <c r="V41">
         <v>30.98958333333333</v>
       </c>
       <c r="W41">
-        <v>3713.934930900003</v>
+        <v>3294.110329399999</v>
       </c>
       <c r="X41" t="s">
         <v>123</v>
       </c>
       <c r="Y41">
-        <v>252.8461905005834</v>
+        <v>145.4631707657409</v>
       </c>
       <c r="Z41">
-        <v>234.8461905005834</v>
+        <v>127.4631707657409</v>
       </c>
       <c r="AA41">
         <v>18</v>
@@ -7191,19 +7191,19 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>0.1177589506099843</v>
+        <v>0.06774707701888466</v>
       </c>
       <c r="AH41">
-        <v>0.1177589506099843</v>
+        <v>0.06774707701888466</v>
       </c>
       <c r="AI41">
-        <v>0.1093757469446128</v>
+        <v>0.05936387335351312</v>
       </c>
       <c r="AK41">
-        <v>105.8134854485876</v>
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>129.0327050519957</v>
+        <v>127.4631707657409</v>
       </c>
       <c r="AN41">
         <v>58.69714285714286</v>
@@ -7212,25 +7212,25 @@
         <v>1588.554786151262</v>
       </c>
       <c r="AP41">
-        <v>558.5957208026068</v>
+        <v>558.5957208026064</v>
       </c>
       <c r="AQ41">
-        <v>2147.150506953869</v>
+        <v>2147.150506953868</v>
       </c>
       <c r="AR41">
         <v>1167.710296098818</v>
       </c>
       <c r="AS41">
-        <v>1108.50016927866</v>
+        <v>1119.260120593332</v>
       </c>
       <c r="AT41">
-        <v>103.6622145923499</v>
+        <v>113.1025620235442</v>
       </c>
       <c r="AU41">
-        <v>144.7560881964044</v>
+        <v>144.6670102327901</v>
       </c>
       <c r="AV41">
-        <v>15.72338314440863</v>
+        <v>17.2038394670492</v>
       </c>
       <c r="AW41">
         <v>176.3558090809794</v>
@@ -7301,7 +7301,7 @@
         <v>1.5</v>
       </c>
       <c r="P42">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0.6</v>
@@ -7310,22 +7310,22 @@
         <v>81</v>
       </c>
       <c r="U42">
-        <v>251.5540912825789</v>
+        <v>145.9287335287824</v>
       </c>
       <c r="V42">
         <v>30.98958333333333</v>
       </c>
       <c r="W42">
-        <v>4435.972125799999</v>
+        <v>2402.2238724</v>
       </c>
       <c r="X42" t="s">
         <v>124</v>
       </c>
       <c r="Y42">
-        <v>251.5540912825789</v>
+        <v>145.9287335287824</v>
       </c>
       <c r="Z42">
-        <v>233.5540912825789</v>
+        <v>127.9287335287824</v>
       </c>
       <c r="AA42">
         <v>18</v>
@@ -7346,19 +7346,19 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>0.1171571766710733</v>
+        <v>0.06796390521119516</v>
       </c>
       <c r="AH42">
-        <v>0.1171571766710733</v>
+        <v>0.06796390521119516</v>
       </c>
       <c r="AI42">
-        <v>0.1087739730057017</v>
+        <v>0.05958070154582364</v>
       </c>
       <c r="AK42">
-        <v>104.51448</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>129.0396112825788</v>
+        <v>127.9287335287824</v>
       </c>
       <c r="AN42">
         <v>58.69714285714286</v>
@@ -7367,25 +7367,25 @@
         <v>1588.554786151262</v>
       </c>
       <c r="AP42">
-        <v>558.5957208026066</v>
+        <v>558.5957208026072</v>
       </c>
       <c r="AQ42">
-        <v>2147.150506953868</v>
+        <v>2147.150506953869</v>
       </c>
       <c r="AR42">
         <v>1167.710296098818</v>
       </c>
       <c r="AS42">
-        <v>1116.383503563889</v>
+        <v>1120.050099463876</v>
       </c>
       <c r="AT42">
-        <v>111.2672307347577</v>
+        <v>113.9210515311042</v>
       </c>
       <c r="AU42">
-        <v>146.0180953466587</v>
+        <v>145.3168291819107</v>
       </c>
       <c r="AV42">
-        <v>16.97848406407983</v>
+        <v>17.38809565312832</v>
       </c>
       <c r="AW42">
         <v>174.1908</v>
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="P43">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>0.6</v>
@@ -7465,22 +7465,22 @@
         <v>82</v>
       </c>
       <c r="U43">
-        <v>281.7078080785083</v>
+        <v>192.7900379939887</v>
       </c>
       <c r="V43">
         <v>30.98958333333333</v>
       </c>
       <c r="W43">
-        <v>2425.651271700001</v>
+        <v>1755.708417100002</v>
       </c>
       <c r="X43" t="s">
         <v>125</v>
       </c>
       <c r="Y43">
-        <v>281.7078080785083</v>
+        <v>192.7900379939887</v>
       </c>
       <c r="Z43">
-        <v>263.7078080785083</v>
+        <v>174.7900379939887</v>
       </c>
       <c r="AA43">
         <v>18</v>
@@ -7501,16 +7501,16 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0.1311829354724054</v>
+        <v>0.08977657838592741</v>
       </c>
       <c r="AH43">
-        <v>0.1311829354724054</v>
+        <v>0.08977657838592741</v>
       </c>
       <c r="AI43">
-        <v>0.1228008716076891</v>
+        <v>0.08139451452121113</v>
       </c>
       <c r="AK43">
-        <v>88.91777008451956</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>174.7900379939887</v>
@@ -7611,7 +7611,7 @@
         <v>1.5</v>
       </c>
       <c r="P44">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0.6</v>
@@ -7620,22 +7620,22 @@
         <v>81</v>
       </c>
       <c r="U44">
-        <v>220.8691031656434</v>
+        <v>152.4532001498804</v>
       </c>
       <c r="V44">
         <v>30.98958333333333</v>
       </c>
       <c r="W44">
-        <v>4034.9013639</v>
+        <v>3124.3821319</v>
       </c>
       <c r="X44" t="s">
         <v>126</v>
       </c>
       <c r="Y44">
-        <v>220.8691031656434</v>
+        <v>152.4532001498804</v>
       </c>
       <c r="Z44">
-        <v>202.8691031656434</v>
+        <v>134.4532001498804</v>
       </c>
       <c r="AA44">
         <v>18</v>
@@ -7656,19 +7656,19 @@
         <v>0</v>
       </c>
       <c r="AG44">
-        <v>0.1029213036845322</v>
+        <v>0.0710406384841306</v>
       </c>
       <c r="AH44">
-        <v>0.1029213036845322</v>
+        <v>0.0710406384841306</v>
       </c>
       <c r="AI44">
-        <v>0.09453360508944068</v>
+        <v>0.06265293988903912</v>
       </c>
       <c r="AK44">
-        <v>63.32870665887262</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>139.5403965067707</v>
+        <v>134.4532001498804</v>
       </c>
       <c r="AN44">
         <v>54.59899159663865</v>
@@ -7677,28 +7677,28 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AP44">
-        <v>530.295120562511</v>
+        <v>530.2951205625102</v>
       </c>
       <c r="AQ44">
-        <v>2145.999858713773</v>
+        <v>2145.999858713772</v>
       </c>
       <c r="AR44">
         <v>1110.784748030245</v>
       </c>
       <c r="AS44">
-        <v>1125.800135034643</v>
+        <v>1129.834901590232</v>
       </c>
       <c r="AT44">
-        <v>65.90373064875459</v>
+        <v>67.79588749163315</v>
       </c>
       <c r="AU44">
-        <v>150.4158338201725</v>
+        <v>145.6499288988406</v>
       </c>
       <c r="AV44">
-        <v>10.8754373134018</v>
+        <v>11.1967287489602</v>
       </c>
       <c r="AW44">
-        <v>105.5478444314544</v>
+        <v>168.8874000000001</v>
       </c>
       <c r="AX44">
         <v>2.131628207280301E-14</v>
@@ -7766,7 +7766,7 @@
         <v>1.5</v>
       </c>
       <c r="P45">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0.6</v>
@@ -7775,22 +7775,22 @@
         <v>81</v>
       </c>
       <c r="U45">
-        <v>259.9603567913197</v>
+        <v>153.3307160999429</v>
       </c>
       <c r="V45">
         <v>30.98958333333333</v>
       </c>
       <c r="W45">
-        <v>3542.0395641</v>
+        <v>3056.214196699999</v>
       </c>
       <c r="X45" t="s">
         <v>127</v>
       </c>
       <c r="Y45">
-        <v>259.9603567913197</v>
+        <v>153.3307160999429</v>
       </c>
       <c r="Z45">
-        <v>241.9603567913197</v>
+        <v>135.3307160999429</v>
       </c>
       <c r="AA45">
         <v>18</v>
@@ -7811,19 +7811,19 @@
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>0.1211371733021126</v>
+        <v>0.07144954622310327</v>
       </c>
       <c r="AH45">
-        <v>0.1211371733021126</v>
+        <v>0.07144954622310327</v>
       </c>
       <c r="AI45">
-        <v>0.1127494747070212</v>
+        <v>0.06306184762801181</v>
       </c>
       <c r="AK45">
-        <v>105.72771822</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>136.2326385713197</v>
+        <v>135.3307160999429</v>
       </c>
       <c r="AN45">
         <v>54.59899159663865</v>
@@ -7832,25 +7832,25 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AP45">
-        <v>530.2951205625113</v>
+        <v>530.2951205625111</v>
       </c>
       <c r="AQ45">
-        <v>2145.999858713774</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR45">
         <v>1110.784748030245</v>
       </c>
       <c r="AS45">
-        <v>1138.820264761338</v>
+        <v>1140.212587376964</v>
       </c>
       <c r="AT45">
-        <v>77.80908700444743</v>
+        <v>78.23291582009023</v>
       </c>
       <c r="AU45">
-        <v>148.4214377769185</v>
+        <v>147.5555596330606</v>
       </c>
       <c r="AV45">
-        <v>12.1887992055988</v>
+        <v>12.2248435331177</v>
       </c>
       <c r="AW45">
         <v>176.2128637</v>
@@ -7921,7 +7921,7 @@
         <v>1.5</v>
       </c>
       <c r="P46">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0.6</v>
@@ -7936,22 +7936,22 @@
         <v>0.03</v>
       </c>
       <c r="U46">
-        <v>259.8496231416889</v>
+        <v>153.499090245482</v>
       </c>
       <c r="V46">
         <v>30.98958333333333</v>
       </c>
       <c r="W46">
-        <v>4419.770444299997</v>
+        <v>3236.6939939</v>
       </c>
       <c r="X46" t="s">
         <v>128</v>
       </c>
       <c r="Y46">
-        <v>259.8496231416889</v>
+        <v>153.499090245482</v>
       </c>
       <c r="Z46">
-        <v>241.8496231416889</v>
+        <v>135.499090245482</v>
       </c>
       <c r="AA46">
         <v>18</v>
@@ -7972,19 +7972,19 @@
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>0.1210855732755884</v>
+        <v>0.07152800575554706</v>
       </c>
       <c r="AH46">
-        <v>0.1210855732755884</v>
+        <v>0.07152800575554706</v>
       </c>
       <c r="AI46">
-        <v>0.1126978746804969</v>
+        <v>0.0631403071604556</v>
       </c>
       <c r="AK46">
-        <v>106.1102033765803</v>
+        <v>0</v>
       </c>
       <c r="AL46">
-        <v>135.7394197651086</v>
+        <v>135.499090245482</v>
       </c>
       <c r="AN46">
         <v>54.59899159663865</v>
@@ -7993,40 +7993,40 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AP46">
-        <v>530.2951205625111</v>
+        <v>530.2951205625113</v>
       </c>
       <c r="AQ46">
-        <v>2145.999858713773</v>
+        <v>2145.999858713774</v>
       </c>
       <c r="AR46">
         <v>1110.784748030245</v>
       </c>
       <c r="AS46">
-        <v>1141.212311308453</v>
+        <v>1143.193024965591</v>
       </c>
       <c r="AT46">
-        <v>79.72743890979996</v>
+        <v>81.16410376653889</v>
       </c>
       <c r="AU46">
-        <v>148.2365934788574</v>
+        <v>148.1840372154483</v>
       </c>
       <c r="AV46">
-        <v>12.49717371374883</v>
+        <v>12.68494696996627</v>
       </c>
       <c r="AW46">
-        <v>176.8503389609672</v>
+        <v>179.1107991318175</v>
       </c>
       <c r="AX46">
-        <v>0</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="AY46">
-        <v>0</v>
+        <v>3.764712164793484E-17</v>
       </c>
       <c r="AZ46">
-        <v>-10.81671595956716</v>
+        <v>-9.780567929901068</v>
       </c>
       <c r="BA46">
-        <v>9.512037084353494</v>
+        <v>10.2233991318175</v>
       </c>
       <c r="BB46">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>1.5</v>
       </c>
       <c r="P47">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0.6</v>
@@ -8091,22 +8091,22 @@
         <v>81</v>
       </c>
       <c r="U47">
-        <v>258.4047588903292</v>
+        <v>153.56410606279</v>
       </c>
       <c r="V47">
         <v>30.98958333333333</v>
       </c>
       <c r="W47">
-        <v>4033.925197</v>
+        <v>3219.4111011</v>
       </c>
       <c r="X47" t="s">
         <v>129</v>
       </c>
       <c r="Y47">
-        <v>258.4047588903292</v>
+        <v>153.56410606279</v>
       </c>
       <c r="Z47">
-        <v>240.4047588903292</v>
+        <v>135.56410606279</v>
       </c>
       <c r="AA47">
         <v>18</v>
@@ -8127,19 +8127,19 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>0.120412290728298</v>
+        <v>0.07155830203774113</v>
       </c>
       <c r="AH47">
-        <v>0.120412290728298</v>
+        <v>0.07155830203774113</v>
       </c>
       <c r="AI47">
-        <v>0.1120245921332065</v>
+        <v>0.06317060344264966</v>
       </c>
       <c r="AK47">
-        <v>104.352103293657</v>
+        <v>0</v>
       </c>
       <c r="AL47">
-        <v>136.0526555966723</v>
+        <v>135.56410606279</v>
       </c>
       <c r="AN47">
         <v>54.59899159663865</v>
@@ -8157,19 +8157,19 @@
         <v>1110.784748030245</v>
       </c>
       <c r="AS47">
-        <v>1141.15249835448</v>
+        <v>1141.905684308897</v>
       </c>
       <c r="AT47">
-        <v>79.84651896363023</v>
+        <v>79.90298884925502</v>
       </c>
       <c r="AU47">
-        <v>148.8094772308305</v>
+        <v>148.3283476221973</v>
       </c>
       <c r="AV47">
-        <v>12.75682163415826</v>
+        <v>12.76424155940731</v>
       </c>
       <c r="AW47">
-        <v>173.920172156095</v>
+        <v>174.2789566681097</v>
       </c>
       <c r="AX47">
         <v>1.4210854715202E-14</v>
@@ -8237,7 +8237,7 @@
         <v>1.5</v>
       </c>
       <c r="P48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0.6</v>
@@ -8246,22 +8246,22 @@
         <v>81</v>
       </c>
       <c r="U48">
-        <v>260.2847592937417</v>
+        <v>154.2842761457861</v>
       </c>
       <c r="V48">
         <v>30.98958333333333</v>
       </c>
       <c r="W48">
-        <v>4446.970332099998</v>
+        <v>3016.7369035</v>
       </c>
       <c r="X48" t="s">
         <v>130</v>
       </c>
       <c r="Y48">
-        <v>260.2847592937417</v>
+        <v>154.2842761457861</v>
       </c>
       <c r="Z48">
-        <v>242.2847592937417</v>
+        <v>136.2842761457861</v>
       </c>
       <c r="AA48">
         <v>18</v>
@@ -8282,19 +8282,19 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0.1212883394362132</v>
+        <v>0.07189388923737298</v>
       </c>
       <c r="AH48">
-        <v>0.1212883394362132</v>
+        <v>0.07189388923737298</v>
       </c>
       <c r="AI48">
-        <v>0.1129006408411218</v>
+        <v>0.06350619064228152</v>
       </c>
       <c r="AK48">
-        <v>105.50034</v>
+        <v>0</v>
       </c>
       <c r="AL48">
-        <v>136.7844192937417</v>
+        <v>136.2842761457861</v>
       </c>
       <c r="AN48">
         <v>54.59899159663865</v>
@@ -8303,25 +8303,25 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AP48">
-        <v>530.2951205625101</v>
+        <v>530.2951205625108</v>
       </c>
       <c r="AQ48">
-        <v>2145.999858713772</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AR48">
         <v>1110.784748030245</v>
       </c>
       <c r="AS48">
-        <v>1144.915344240466</v>
+        <v>1145.49106026133</v>
       </c>
       <c r="AT48">
-        <v>83.55685422346333</v>
+        <v>83.49856403665417</v>
       </c>
       <c r="AU48">
-        <v>149.9295161276266</v>
+        <v>149.4101096641446</v>
       </c>
       <c r="AV48">
-        <v>13.14509683388491</v>
+        <v>13.12583351835856</v>
       </c>
       <c r="AW48">
         <v>175.8339</v>
@@ -8392,7 +8392,7 @@
         <v>1.5</v>
       </c>
       <c r="P49">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0.6</v>
@@ -8401,22 +8401,22 @@
         <v>82</v>
       </c>
       <c r="U49">
-        <v>284.9565950485669</v>
+        <v>202.1307964545764</v>
       </c>
       <c r="V49">
         <v>30.98958333333333</v>
       </c>
       <c r="W49">
-        <v>2710.704485999999</v>
+        <v>1813.707649599999</v>
       </c>
       <c r="X49" t="s">
         <v>131</v>
       </c>
       <c r="Y49">
-        <v>284.9565950485669</v>
+        <v>202.1307964545764</v>
       </c>
       <c r="Z49">
-        <v>266.9565950485669</v>
+        <v>184.1307964545764</v>
       </c>
       <c r="AA49">
         <v>18</v>
@@ -8437,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0.1327850017750508</v>
+        <v>0.09418956652482058</v>
       </c>
       <c r="AH49">
-        <v>0.1327850017750508</v>
+        <v>0.09418956652482058</v>
       </c>
       <c r="AI49">
-        <v>0.1243973031799593</v>
+        <v>0.08580186792972912</v>
       </c>
       <c r="AK49">
-        <v>82.82579859399051</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>184.1307964545764</v>
@@ -8547,7 +8547,7 @@
         <v>1.5</v>
       </c>
       <c r="P50">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>0.6</v>
@@ -8556,22 +8556,22 @@
         <v>81</v>
       </c>
       <c r="U50">
-        <v>279.8042476898588</v>
+        <v>183.0601612708446</v>
       </c>
       <c r="V50">
         <v>29.98958333333333</v>
       </c>
       <c r="W50">
-        <v>4387.461890799997</v>
+        <v>2649.333226500003</v>
       </c>
       <c r="X50" t="s">
         <v>132</v>
       </c>
       <c r="Y50">
-        <v>279.8042476898588</v>
+        <v>183.0601612708446</v>
       </c>
       <c r="Z50">
-        <v>261.8042476898588</v>
+        <v>165.0601612708446</v>
       </c>
       <c r="AA50">
         <v>18</v>
@@ -8592,19 +8592,19 @@
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>0.1251541445308369</v>
+        <v>0.08188130834569869</v>
       </c>
       <c r="AH50">
-        <v>0.1251541445308369</v>
+        <v>0.08188130834569869</v>
       </c>
       <c r="AI50">
-        <v>0.1171028921994138</v>
+        <v>0.07383005601427559</v>
       </c>
       <c r="AK50">
-        <v>88.56148183918201</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>173.2427658506767</v>
+        <v>165.0601612708446</v>
       </c>
       <c r="AN50">
         <v>64.35567905522751</v>
@@ -8613,28 +8613,28 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AP50">
-        <v>594.7664934678278</v>
+        <v>594.7664934678289</v>
       </c>
       <c r="AQ50">
-        <v>2235.677042408432</v>
+        <v>2235.677042408433</v>
       </c>
       <c r="AR50">
         <v>987.6318419771399</v>
       </c>
       <c r="AS50">
-        <v>1285.964522065926</v>
+        <v>1302.920520487391</v>
       </c>
       <c r="AT50">
-        <v>14.4013131946794</v>
+        <v>28.03796401903509</v>
       </c>
       <c r="AU50">
-        <v>175.771869193534</v>
+        <v>169.9634178926324</v>
       </c>
       <c r="AV50">
-        <v>2.529103342857288</v>
+        <v>4.903256621787815</v>
       </c>
       <c r="AW50">
-        <v>147.60246973197</v>
+        <v>168.8874000000005</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>1.5</v>
       </c>
       <c r="P51">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0.6</v>
@@ -8711,22 +8711,22 @@
         <v>81</v>
       </c>
       <c r="U51">
-        <v>292.7609801839723</v>
+        <v>184.2969316436244</v>
       </c>
       <c r="V51">
         <v>29.98958333333333</v>
       </c>
       <c r="W51">
-        <v>4030.136146800003</v>
+        <v>2709.915316500003</v>
       </c>
       <c r="X51" t="s">
         <v>133</v>
       </c>
       <c r="Y51">
-        <v>292.7609801839723</v>
+        <v>184.2969316436244</v>
       </c>
       <c r="Z51">
-        <v>274.7609801839723</v>
+        <v>166.2969316436244</v>
       </c>
       <c r="AA51">
         <v>18</v>
@@ -8747,19 +8747,19 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>0.1309495846808844</v>
+        <v>0.08243450558721416</v>
       </c>
       <c r="AH51">
-        <v>0.1309495846808844</v>
+        <v>0.08243450558721416</v>
       </c>
       <c r="AI51">
-        <v>0.1228983323494613</v>
+        <v>0.07438325325579107</v>
       </c>
       <c r="AK51">
-        <v>107.68123944</v>
+        <v>0</v>
       </c>
       <c r="AL51">
-        <v>167.0797407439723</v>
+        <v>166.2969316436244</v>
       </c>
       <c r="AN51">
         <v>64.35567905522751</v>
@@ -8768,28 +8768,28 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AP51">
-        <v>594.7664934678289</v>
+        <v>594.7664934678287</v>
       </c>
       <c r="AQ51">
-        <v>2235.677042408433</v>
+        <v>2235.677042408432</v>
       </c>
       <c r="AR51">
         <v>987.6318419771399</v>
       </c>
       <c r="AS51">
-        <v>1312.457451321724</v>
+        <v>1321.642720398143</v>
       </c>
       <c r="AT51">
-        <v>38.47064451534432</v>
+        <v>46.82657622413625</v>
       </c>
       <c r="AU51">
-        <v>172.530150427372</v>
+        <v>173.0718632619259</v>
       </c>
       <c r="AV51">
-        <v>5.450409683399677</v>
+        <v>6.774931618301558</v>
       </c>
       <c r="AW51">
-        <v>179.4687324</v>
+        <v>180.1683223000001</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -8857,7 +8857,7 @@
         <v>1.5</v>
       </c>
       <c r="P52">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0.6</v>
@@ -8872,22 +8872,22 @@
         <v>0.03</v>
       </c>
       <c r="U52">
-        <v>292.548527520901</v>
+        <v>184.1785730461328</v>
       </c>
       <c r="V52">
         <v>29.98958333333333</v>
       </c>
       <c r="W52">
-        <v>4488.814633300004</v>
+        <v>3797.652150600003</v>
       </c>
       <c r="X52" t="s">
         <v>134</v>
       </c>
       <c r="Y52">
-        <v>292.548527520901</v>
+        <v>184.1785730461328</v>
       </c>
       <c r="Z52">
-        <v>274.548527520901</v>
+        <v>166.1785730461328</v>
       </c>
       <c r="AA52">
         <v>18</v>
@@ -8908,19 +8908,19 @@
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>0.1308545563476139</v>
+        <v>0.0823815647575476</v>
       </c>
       <c r="AH52">
-        <v>0.1308545563476139</v>
+        <v>0.0823815647575476</v>
       </c>
       <c r="AI52">
-        <v>0.1228033040161908</v>
+        <v>0.07433031242612451</v>
       </c>
       <c r="AK52">
-        <v>107.6019871788487</v>
+        <v>0</v>
       </c>
       <c r="AL52">
-        <v>166.9465403420523</v>
+        <v>166.1785730461328</v>
       </c>
       <c r="AN52">
         <v>64.35567905522751</v>
@@ -8929,7 +8929,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AP52">
-        <v>594.7664934678278</v>
+        <v>594.7664934678285</v>
       </c>
       <c r="AQ52">
         <v>2235.677042408432</v>
@@ -8938,19 +8938,19 @@
         <v>987.6318419771399</v>
       </c>
       <c r="AS52">
-        <v>1308.640692576375</v>
+        <v>1315.157153107699</v>
       </c>
       <c r="AT52">
-        <v>34.41082680572709</v>
+        <v>40.25811246988783</v>
       </c>
       <c r="AU52">
-        <v>172.3398594297562</v>
+        <v>172.4877291735928</v>
       </c>
       <c r="AV52">
-        <v>5.393319087703909</v>
+        <v>6.309156127460034</v>
       </c>
       <c r="AW52">
-        <v>179.3366452980812</v>
+        <v>180.5574997790162</v>
       </c>
       <c r="AX52">
         <v>0</v>
@@ -8959,10 +8959,10 @@
         <v>0</v>
       </c>
       <c r="AZ52">
-        <v>-10.3993042022568</v>
+        <v>-10.69986802945776</v>
       </c>
       <c r="BA52">
-        <v>10.44924529808114</v>
+        <v>11.6700997790162</v>
       </c>
       <c r="BB52">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>1.5</v>
       </c>
       <c r="P53">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>0.6</v>
@@ -9027,22 +9027,22 @@
         <v>81</v>
       </c>
       <c r="U53">
-        <v>291.7028864449949</v>
+        <v>184.4585865390449</v>
       </c>
       <c r="V53">
         <v>29.98958333333333</v>
       </c>
       <c r="W53">
-        <v>3975.282230500001</v>
+        <v>3699.3226899</v>
       </c>
       <c r="X53" t="s">
         <v>135</v>
       </c>
       <c r="Y53">
-        <v>291.7028864449949</v>
+        <v>184.4585865390449</v>
       </c>
       <c r="Z53">
-        <v>273.7028864449949</v>
+        <v>166.4585865390449</v>
       </c>
       <c r="AA53">
         <v>18</v>
@@ -9063,19 +9063,19 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0.1304763080318397</v>
+        <v>0.08250681249574979</v>
       </c>
       <c r="AH53">
-        <v>0.1304763080318397</v>
+        <v>0.08250681249574979</v>
       </c>
       <c r="AI53">
-        <v>0.1224250557004166</v>
+        <v>0.07445556016432668</v>
       </c>
       <c r="AK53">
-        <v>106.248898163098</v>
+        <v>0</v>
       </c>
       <c r="AL53">
-        <v>167.4539882818969</v>
+        <v>166.4585865390449</v>
       </c>
       <c r="AN53">
         <v>64.35567905522751</v>
@@ -9084,7 +9084,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AP53">
-        <v>594.7664934678277</v>
+        <v>594.7664934678281</v>
       </c>
       <c r="AQ53">
         <v>2235.677042408432</v>
@@ -9093,16 +9093,16 @@
         <v>987.6318419771399</v>
       </c>
       <c r="AS53">
-        <v>1303.859593799798</v>
+        <v>1312.343371372022</v>
       </c>
       <c r="AT53">
-        <v>29.98390325381862</v>
+        <v>37.56355362303082</v>
       </c>
       <c r="AU53">
-        <v>172.1591570654977</v>
+        <v>172.4328304501126</v>
       </c>
       <c r="AV53">
-        <v>4.705168783600845</v>
+        <v>5.974243911067636</v>
       </c>
       <c r="AW53">
         <v>177.0814969384967</v>
@@ -9173,7 +9173,7 @@
         <v>1.5</v>
       </c>
       <c r="P54">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0.6</v>
@@ -9182,22 +9182,22 @@
         <v>81</v>
       </c>
       <c r="U54">
-        <v>291.5055843894879</v>
+        <v>185.0430479090104</v>
       </c>
       <c r="V54">
         <v>29.98958333333333</v>
       </c>
       <c r="W54">
-        <v>5450.569147900002</v>
+        <v>3612.684438</v>
       </c>
       <c r="X54" t="s">
         <v>136</v>
       </c>
       <c r="Y54">
-        <v>291.5055843894879</v>
+        <v>185.0430479090104</v>
       </c>
       <c r="Z54">
-        <v>273.5055843894879</v>
+        <v>167.0430479090104</v>
       </c>
       <c r="AA54">
         <v>18</v>
@@ -9218,19 +9218,19 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0.13038805644104</v>
+        <v>0.0827682372717254</v>
       </c>
       <c r="AH54">
-        <v>0.13038805644104</v>
+        <v>0.0827682372717254</v>
       </c>
       <c r="AI54">
-        <v>0.1223368041096169</v>
+        <v>0.07471698494030229</v>
       </c>
       <c r="AK54">
-        <v>105.43656</v>
+        <v>0</v>
       </c>
       <c r="AL54">
-        <v>168.0690243894879</v>
+        <v>167.0430479090104</v>
       </c>
       <c r="AN54">
         <v>64.35567905522751</v>
@@ -9239,7 +9239,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AP54">
-        <v>594.7664934678277</v>
+        <v>594.766493467828</v>
       </c>
       <c r="AQ54">
         <v>2235.677042408432</v>
@@ -9248,16 +9248,16 @@
         <v>987.6318419771399</v>
       </c>
       <c r="AS54">
-        <v>1304.852722408536</v>
+        <v>1314.5702144038</v>
       </c>
       <c r="AT54">
-        <v>31.11977830322859</v>
+        <v>39.80113544115066</v>
       </c>
       <c r="AU54">
-        <v>173.0534162334917</v>
+        <v>173.4899502840005</v>
       </c>
       <c r="AV54">
-        <v>4.984391844003758</v>
+        <v>6.446902374990159</v>
       </c>
       <c r="AW54">
         <v>175.7276</v>
@@ -9328,7 +9328,7 @@
         <v>1.5</v>
       </c>
       <c r="P55">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0.6</v>
@@ -9337,22 +9337,22 @@
         <v>82</v>
       </c>
       <c r="U55">
-        <v>348.3531467499972</v>
+        <v>239.6101627934716</v>
       </c>
       <c r="V55">
         <v>29.98958333333333</v>
       </c>
       <c r="W55">
-        <v>2685.3571257</v>
+        <v>1928.548497399999</v>
       </c>
       <c r="X55" t="s">
         <v>137</v>
       </c>
       <c r="Y55">
-        <v>348.3531467499972</v>
+        <v>239.6101627934716</v>
       </c>
       <c r="Z55">
-        <v>330.3531467499972</v>
+        <v>221.6101627934716</v>
       </c>
       <c r="AA55">
         <v>18</v>
@@ -9373,16 +9373,16 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>0.1558155047183051</v>
+        <v>0.1071756601013116</v>
       </c>
       <c r="AH55">
-        <v>0.1558155047183051</v>
+        <v>0.1071756601013116</v>
       </c>
       <c r="AI55">
-        <v>0.147764252386882</v>
+        <v>0.09912440776988851</v>
       </c>
       <c r="AK55">
-        <v>108.7429839565256</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>221.6101627934716</v>
@@ -9483,7 +9483,7 @@
         <v>1.5</v>
       </c>
       <c r="P56">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0.6</v>
@@ -9492,22 +9492,22 @@
         <v>81</v>
       </c>
       <c r="U56">
-        <v>339.9099808382464</v>
+        <v>261.8521628373669</v>
       </c>
       <c r="V56">
         <v>30.98958333333333</v>
       </c>
       <c r="W56">
-        <v>5750.6801012</v>
+        <v>4141.0014983</v>
       </c>
       <c r="X56" t="s">
         <v>138</v>
       </c>
       <c r="Y56">
-        <v>339.9099808382464</v>
+        <v>261.8521628373669</v>
       </c>
       <c r="Z56">
-        <v>321.9099808382464</v>
+        <v>243.8521628373669</v>
       </c>
       <c r="AA56">
         <v>18</v>
@@ -9528,19 +9528,19 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>0.1262058737853988</v>
+        <v>0.09722362647895492</v>
       </c>
       <c r="AH56">
-        <v>0.1262058737853988</v>
+        <v>0.09722362647895492</v>
       </c>
       <c r="AI56">
-        <v>0.1195226168756283</v>
+        <v>0.0905403695691844</v>
       </c>
       <c r="AK56">
-        <v>80.86705990883939</v>
+        <v>0</v>
       </c>
       <c r="AL56">
-        <v>251.3858279808226</v>
+        <v>243.8521628373669</v>
       </c>
       <c r="AN56">
         <v>91.74050420168068</v>
@@ -9549,34 +9549,34 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AP56">
-        <v>832.0349031040996</v>
+        <v>832.0349031041015</v>
       </c>
       <c r="AQ56">
-        <v>2693.29763063351</v>
+        <v>2693.297630633512</v>
       </c>
       <c r="AR56">
         <v>932.8271981736434</v>
       </c>
       <c r="AS56">
-        <v>1787.098664323865</v>
+        <v>1787.134822733699</v>
       </c>
       <c r="AT56">
-        <v>1.132270747749477E-14</v>
+        <v>1.165051248752191E-14</v>
       </c>
       <c r="AU56">
-        <v>251.3858279808226</v>
+        <v>243.8521628373669</v>
       </c>
       <c r="AV56">
-        <v>1.503367514510692E-15</v>
+        <v>1.452449186133493E-15</v>
       </c>
       <c r="AW56">
-        <v>134.778433181399</v>
+        <v>168.8874000000008</v>
       </c>
       <c r="AX56">
-        <v>61.00298268443768</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AY56">
-        <v>10.34290705141556</v>
+        <v>6.023539463669574E-16</v>
       </c>
       <c r="AZ56">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>1.5</v>
       </c>
       <c r="P57">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>0.6</v>
@@ -9647,22 +9647,22 @@
         <v>81</v>
       </c>
       <c r="U57">
-        <v>379.5845586066452</v>
+        <v>262.4768848405755</v>
       </c>
       <c r="V57">
         <v>30.98958333333333</v>
       </c>
       <c r="W57">
-        <v>5201.595179800002</v>
+        <v>4538.876436400002</v>
       </c>
       <c r="X57" t="s">
         <v>139</v>
       </c>
       <c r="Y57">
-        <v>379.5845586066452</v>
+        <v>262.4768848405755</v>
       </c>
       <c r="Z57">
-        <v>361.5845586066452</v>
+        <v>244.4768848405755</v>
       </c>
       <c r="AA57">
         <v>18</v>
@@ -9683,19 +9683,19 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>0.1409367291194477</v>
+        <v>0.09745558079254553</v>
       </c>
       <c r="AH57">
-        <v>0.1409367291194477</v>
+        <v>0.09745558079254553</v>
       </c>
       <c r="AI57">
-        <v>0.1342534722096771</v>
+        <v>0.09077232388277498</v>
       </c>
       <c r="AK57">
-        <v>116.4712629</v>
+        <v>0</v>
       </c>
       <c r="AL57">
-        <v>245.1132957066452</v>
+        <v>244.4768848405755</v>
       </c>
       <c r="AN57">
         <v>91.74050420168068</v>
@@ -9704,7 +9704,7 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AP57">
-        <v>832.0349031040992</v>
+        <v>832.0349031040996</v>
       </c>
       <c r="AQ57">
         <v>2693.29763063351</v>
@@ -9713,16 +9713,16 @@
         <v>932.8271981736434</v>
       </c>
       <c r="AS57">
-        <v>1796.774582892221</v>
+        <v>1797.310166258642</v>
       </c>
       <c r="AT57">
-        <v>10.09007536551623</v>
+        <v>10.18081267086088</v>
       </c>
       <c r="AU57">
-        <v>246.3413087536111</v>
+        <v>245.7128246898509</v>
       </c>
       <c r="AV57">
-        <v>1.228013046965983</v>
+        <v>1.235939849275385</v>
       </c>
       <c r="AW57">
         <v>194.1187715</v>
@@ -9793,7 +9793,7 @@
         <v>1.5</v>
       </c>
       <c r="P58">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <v>0.6</v>
@@ -9808,22 +9808,22 @@
         <v>0.03</v>
       </c>
       <c r="U58">
-        <v>371.8986253258022</v>
+        <v>262.7834049224289</v>
       </c>
       <c r="V58">
         <v>30.98958333333333</v>
       </c>
       <c r="W58">
-        <v>4826.959895200001</v>
+        <v>4642.460649599998</v>
       </c>
       <c r="X58" t="s">
         <v>140</v>
       </c>
       <c r="Y58">
-        <v>371.8986253258022</v>
+        <v>262.7834049224289</v>
       </c>
       <c r="Z58">
-        <v>353.8986253258022</v>
+        <v>244.7834049224288</v>
       </c>
       <c r="AA58">
         <v>18</v>
@@ -9844,19 +9844,19 @@
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>0.1380830031912682</v>
+        <v>0.09756938926226945</v>
       </c>
       <c r="AH58">
-        <v>0.1380830031912682</v>
+        <v>0.09756938926226945</v>
       </c>
       <c r="AI58">
-        <v>0.1313997462814977</v>
+        <v>0.0908861323524989</v>
       </c>
       <c r="AK58">
-        <v>108.8366981141541</v>
+        <v>0</v>
       </c>
       <c r="AL58">
-        <v>245.0619272116482</v>
+        <v>244.7834049224288</v>
       </c>
       <c r="AN58">
         <v>91.74050420168068</v>
@@ -9865,28 +9865,28 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AP58">
-        <v>832.0349031041001</v>
+        <v>832.0349031040985</v>
       </c>
       <c r="AQ58">
-        <v>2693.297630633511</v>
+        <v>2693.297630633509</v>
       </c>
       <c r="AR58">
         <v>932.8271981736434</v>
       </c>
       <c r="AS58">
-        <v>1796.438038086327</v>
+        <v>1796.610313669312</v>
       </c>
       <c r="AT58">
-        <v>9.699207181266235</v>
+        <v>9.445341277826767</v>
       </c>
       <c r="AU58">
-        <v>246.3741636729987</v>
+        <v>246.0648137182798</v>
       </c>
       <c r="AV58">
-        <v>1.312236461350539</v>
+        <v>1.281408795850977</v>
       </c>
       <c r="AW58">
-        <v>181.3944968569234</v>
+        <v>180.0012717172556</v>
       </c>
       <c r="AX58">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="AZ58">
-        <v>-11.0383652965116</v>
+        <v>-11.87548860559552</v>
       </c>
       <c r="BA58">
-        <v>12.50709685692345</v>
+        <v>11.11387171725555</v>
       </c>
       <c r="BB58">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>1.5</v>
       </c>
       <c r="P59">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0.6</v>
@@ -9963,22 +9963,22 @@
         <v>81</v>
       </c>
       <c r="U59">
-        <v>371.077782584034</v>
+        <v>262.6954424951277</v>
       </c>
       <c r="V59">
         <v>30.98958333333333</v>
       </c>
       <c r="W59">
-        <v>6907.5192914</v>
+        <v>3882.8328396</v>
       </c>
       <c r="X59" t="s">
         <v>141</v>
       </c>
       <c r="Y59">
-        <v>371.077782584034</v>
+        <v>262.6954424951277</v>
       </c>
       <c r="Z59">
-        <v>353.077782584034</v>
+        <v>244.6954424951277</v>
       </c>
       <c r="AA59">
         <v>18</v>
@@ -9999,19 +9999,19 @@
         <v>0</v>
       </c>
       <c r="AG59">
-        <v>0.137778230806504</v>
+        <v>0.09753672951226605</v>
       </c>
       <c r="AH59">
-        <v>0.137778230806504</v>
+        <v>0.09753672951226605</v>
       </c>
       <c r="AI59">
-        <v>0.1310949738967335</v>
+        <v>0.09085347260249552</v>
       </c>
       <c r="AK59">
-        <v>108.1378678442093</v>
+        <v>0</v>
       </c>
       <c r="AL59">
-        <v>244.9399147398246</v>
+        <v>244.6954424951277</v>
       </c>
       <c r="AN59">
         <v>91.74050420168068</v>
@@ -10020,25 +10020,25 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AP59">
-        <v>832.0349031040981</v>
+        <v>832.0349031040994</v>
       </c>
       <c r="AQ59">
-        <v>2693.297630633509</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AR59">
         <v>932.8271981736434</v>
       </c>
       <c r="AS59">
-        <v>1789.730092562394</v>
+        <v>1790.114568875245</v>
       </c>
       <c r="AT59">
-        <v>3.057682280286955</v>
+        <v>3.033444703274137</v>
       </c>
       <c r="AU59">
-        <v>245.3841408104739</v>
+        <v>245.1377029256164</v>
       </c>
       <c r="AV59">
-        <v>0.4442260706492276</v>
+        <v>0.4422604304886735</v>
       </c>
       <c r="AW59">
         <v>180.2297797403489</v>
@@ -10109,7 +10109,7 @@
         <v>1.5</v>
       </c>
       <c r="P60">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <v>0.6</v>
@@ -10118,22 +10118,22 @@
         <v>81</v>
       </c>
       <c r="U60">
-        <v>372.3568503378455</v>
+        <v>263.8366069264666</v>
       </c>
       <c r="V60">
         <v>30.98958333333333</v>
       </c>
       <c r="W60">
-        <v>6237.529884100004</v>
+        <v>4441.731451300002</v>
       </c>
       <c r="X60" t="s">
         <v>142</v>
       </c>
       <c r="Y60">
-        <v>372.3568503378455</v>
+        <v>263.8366069264666</v>
       </c>
       <c r="Z60">
-        <v>354.3568503378455</v>
+        <v>245.8366069264666</v>
       </c>
       <c r="AA60">
         <v>18</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AG60">
-        <v>0.1382531384955999</v>
+        <v>0.09796043479398442</v>
       </c>
       <c r="AH60">
-        <v>0.1382531384955999</v>
+        <v>0.09796043479398442</v>
       </c>
       <c r="AI60">
-        <v>0.1315698815858293</v>
+        <v>0.09127717788421388</v>
       </c>
       <c r="AK60">
-        <v>108.11478</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>246.2420703378455</v>
+        <v>245.8366069264666</v>
       </c>
       <c r="AN60">
         <v>91.74050420168068</v>
@@ -10175,7 +10175,7 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AP60">
-        <v>832.0349031040981</v>
+        <v>832.0349031040985</v>
       </c>
       <c r="AQ60">
         <v>2693.297630633509</v>
@@ -10184,25 +10184,25 @@
         <v>932.8271981736434</v>
       </c>
       <c r="AS60">
-        <v>1792.994773694176</v>
+        <v>1793.275099270627</v>
       </c>
       <c r="AT60">
-        <v>6.386505981580964</v>
+        <v>6.307573928304626</v>
       </c>
       <c r="AU60">
-        <v>247.1574211178378</v>
+        <v>246.740517692564</v>
       </c>
       <c r="AV60">
-        <v>0.9153507799922929</v>
+        <v>0.9039107660973418</v>
       </c>
       <c r="AW60">
         <v>180.1913</v>
       </c>
       <c r="AX60">
-        <v>7.105427357601002E-15</v>
+        <v>0</v>
       </c>
       <c r="AY60">
-        <v>1.204707892733915E-15</v>
+        <v>0</v>
       </c>
       <c r="AZ60">
         <v>-16.59869999999999</v>
@@ -10264,7 +10264,7 @@
         <v>1.5</v>
       </c>
       <c r="P61">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <v>0.6</v>
@@ -10273,22 +10273,22 @@
         <v>82</v>
       </c>
       <c r="U61">
-        <v>440.3534665142407</v>
+        <v>337.199425320469</v>
       </c>
       <c r="V61">
         <v>30.98958333333333</v>
       </c>
       <c r="W61">
-        <v>3381.067985399997</v>
+        <v>2428.3049547</v>
       </c>
       <c r="X61" t="s">
         <v>143</v>
       </c>
       <c r="Y61">
-        <v>440.3534665142407</v>
+        <v>337.199425320469</v>
       </c>
       <c r="Z61">
-        <v>422.3534665142407</v>
+        <v>319.199425320469</v>
       </c>
       <c r="AA61">
         <v>18</v>
@@ -10309,16 +10309,16 @@
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>0.1634997415457058</v>
+        <v>0.1251994660690931</v>
       </c>
       <c r="AH61">
-        <v>0.1634997415457058</v>
+        <v>0.1251994660690931</v>
       </c>
       <c r="AI61">
-        <v>0.1568164846359352</v>
+        <v>0.1185162091593226</v>
       </c>
       <c r="AK61">
-        <v>103.1540411937717</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>319.199425320469</v>
@@ -10419,7 +10419,7 @@
         <v>1.5</v>
       </c>
       <c r="P62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0.6</v>
@@ -10428,22 +10428,22 @@
         <v>81</v>
       </c>
       <c r="U62">
-        <v>387.0368013301947</v>
+        <v>283.8526354130533</v>
       </c>
       <c r="V62">
         <v>29.98958333333333</v>
       </c>
       <c r="W62">
-        <v>5013.3131851</v>
+        <v>3551.788406300001</v>
       </c>
       <c r="X62" t="s">
         <v>144</v>
       </c>
       <c r="Y62">
-        <v>387.0368013301947</v>
+        <v>283.8526354130533</v>
       </c>
       <c r="Z62">
-        <v>369.0368013301947</v>
+        <v>265.8526354130533</v>
       </c>
       <c r="AA62">
         <v>18</v>
@@ -10464,19 +10464,19 @@
         <v>0</v>
       </c>
       <c r="AG62">
-        <v>0.1538528705178948</v>
+        <v>0.112835633749231</v>
       </c>
       <c r="AH62">
-        <v>0.1538528705178948</v>
+        <v>0.112835633749231</v>
       </c>
       <c r="AI62">
-        <v>0.1466976034740266</v>
+        <v>0.1056803667053628</v>
       </c>
       <c r="AK62">
-        <v>101.0670155130132</v>
+        <v>0</v>
       </c>
       <c r="AL62">
-        <v>267.9697858171814</v>
+        <v>265.8526354130533</v>
       </c>
       <c r="AN62">
         <v>79.36088919763807</v>
@@ -10485,28 +10485,28 @@
         <v>1761.196290656481</v>
       </c>
       <c r="AP62">
-        <v>754.4330897207801</v>
+        <v>754.4330897207789</v>
       </c>
       <c r="AQ62">
-        <v>2515.629380377261</v>
+        <v>2515.62938037726</v>
       </c>
       <c r="AR62">
         <v>626.1831707214252</v>
       </c>
       <c r="AS62">
-        <v>1914.615875829374</v>
+        <v>1916.254036151144</v>
       </c>
       <c r="AT62">
-        <v>0.9686625835503768</v>
+        <v>0.9686625835503769</v>
       </c>
       <c r="AU62">
-        <v>268.1406578969197</v>
+        <v>266.0235074927916</v>
       </c>
       <c r="AV62">
-        <v>0.170872079738286</v>
+        <v>0.1708720797382858</v>
       </c>
       <c r="AW62">
-        <v>168.445025855022</v>
+        <v>168.8874000000006</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>1.5</v>
       </c>
       <c r="P63">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0.6</v>
@@ -10583,22 +10583,22 @@
         <v>81</v>
       </c>
       <c r="U63">
-        <v>396.1782064984418</v>
+        <v>284.7605306487828</v>
       </c>
       <c r="V63">
         <v>29.98958333333333</v>
       </c>
       <c r="W63">
-        <v>5627.3846806</v>
+        <v>4040.462555200003</v>
       </c>
       <c r="X63" t="s">
         <v>145</v>
       </c>
       <c r="Y63">
-        <v>396.1782064984418</v>
+        <v>284.7605306487828</v>
       </c>
       <c r="Z63">
-        <v>378.1782064984418</v>
+        <v>266.7605306487828</v>
       </c>
       <c r="AA63">
         <v>18</v>
@@ -10619,19 +10619,19 @@
         <v>0</v>
       </c>
       <c r="AG63">
-        <v>0.1574867146920618</v>
+        <v>0.1131965355747587</v>
       </c>
       <c r="AH63">
-        <v>0.1574867146920618</v>
+        <v>0.1131965355747587</v>
       </c>
       <c r="AI63">
-        <v>0.1503314476481936</v>
+        <v>0.1060412685308905</v>
       </c>
       <c r="AK63">
-        <v>110.84218206</v>
+        <v>0</v>
       </c>
       <c r="AL63">
-        <v>267.3360244384418</v>
+        <v>266.7605306487828</v>
       </c>
       <c r="AN63">
         <v>79.36088919763807</v>
@@ -10640,25 +10640,25 @@
         <v>1761.196290656481</v>
       </c>
       <c r="AP63">
-        <v>754.4330897207792</v>
+        <v>754.4330897207798</v>
       </c>
       <c r="AQ63">
-        <v>2515.62938037726</v>
+        <v>2515.629380377261</v>
       </c>
       <c r="AR63">
         <v>626.1831707214252</v>
       </c>
       <c r="AS63">
-        <v>1933.060617902024</v>
+        <v>1934.2680309637</v>
       </c>
       <c r="AT63">
-        <v>18.6036030210154</v>
+        <v>18.91697482471435</v>
       </c>
       <c r="AU63">
-        <v>269.6858673129335</v>
+        <v>269.1382477729494</v>
       </c>
       <c r="AV63">
-        <v>2.349842874491725</v>
+        <v>2.377717124166562</v>
       </c>
       <c r="AW63">
         <v>184.7369701</v>
@@ -10729,7 +10729,7 @@
         <v>1.5</v>
       </c>
       <c r="P64">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>0.6</v>
@@ -10744,22 +10744,22 @@
         <v>0.03</v>
       </c>
       <c r="U64">
-        <v>391.6884598354612</v>
+        <v>284.7315165680488</v>
       </c>
       <c r="V64">
         <v>29.98958333333333</v>
       </c>
       <c r="W64">
-        <v>4080.492474399995</v>
+        <v>3925.327408500001</v>
       </c>
       <c r="X64" t="s">
         <v>146</v>
       </c>
       <c r="Y64">
-        <v>391.6884598354612</v>
+        <v>284.7315165680488</v>
       </c>
       <c r="Z64">
-        <v>373.6884598354612</v>
+        <v>266.7315165680488</v>
       </c>
       <c r="AA64">
         <v>18</v>
@@ -10780,19 +10780,19 @@
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>0.1557019737846762</v>
+        <v>0.1131850020472208</v>
       </c>
       <c r="AH64">
-        <v>0.1557019737846762</v>
+        <v>0.1131850020472208</v>
       </c>
       <c r="AI64">
-        <v>0.148546706740808</v>
+        <v>0.1060297350033526</v>
       </c>
       <c r="AK64">
-        <v>106.9763075896843</v>
+        <v>0</v>
       </c>
       <c r="AL64">
-        <v>266.7121522457769</v>
+        <v>266.7315165680488</v>
       </c>
       <c r="AN64">
         <v>79.36088919763807</v>
@@ -10801,28 +10801,28 @@
         <v>1761.196290656481</v>
       </c>
       <c r="AP64">
-        <v>754.4330897207781</v>
+        <v>754.4330897207789</v>
       </c>
       <c r="AQ64">
-        <v>2515.629380377259</v>
+        <v>2515.62938037726</v>
       </c>
       <c r="AR64">
         <v>626.1831707214252</v>
       </c>
       <c r="AS64">
-        <v>1924.684484508199</v>
+        <v>1925.115449445059</v>
       </c>
       <c r="AT64">
-        <v>10.01241721982796</v>
+        <v>9.892480903963701</v>
       </c>
       <c r="AU64">
-        <v>268.1110490191485</v>
+        <v>268.1289085338403</v>
       </c>
       <c r="AV64">
-        <v>1.398896773371598</v>
+        <v>1.397391965791422</v>
       </c>
       <c r="AW64">
-        <v>178.2938459828071</v>
+        <v>181.1989021615929</v>
       </c>
       <c r="AX64">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="AZ64">
-        <v>-13.25696562151613</v>
+        <v>-10.37181431436626</v>
       </c>
       <c r="BA64">
-        <v>10.42137630373843</v>
+        <v>12.39680035213357</v>
       </c>
       <c r="BB64">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>1.5</v>
       </c>
       <c r="P65">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>0.6</v>
@@ -10899,22 +10899,22 @@
         <v>81</v>
       </c>
       <c r="U65">
-        <v>407.2017529277634</v>
+        <v>284.7391493995845</v>
       </c>
       <c r="V65">
         <v>29.98958333333333</v>
       </c>
       <c r="W65">
-        <v>4420.745734000004</v>
+        <v>3038.307938600003</v>
       </c>
       <c r="X65" t="s">
         <v>147</v>
       </c>
       <c r="Y65">
-        <v>407.2017529277634</v>
+        <v>284.7391493995845</v>
       </c>
       <c r="Z65">
-        <v>389.2017529277634</v>
+        <v>266.7391493995845</v>
       </c>
       <c r="AA65">
         <v>18</v>
@@ -10935,19 +10935,19 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>0.1618687379405215</v>
+        <v>0.113188036210995</v>
       </c>
       <c r="AH65">
-        <v>0.1618687379405215</v>
+        <v>0.113188036210995</v>
       </c>
       <c r="AI65">
-        <v>0.1547134708966533</v>
+        <v>0.1060327691671269</v>
       </c>
       <c r="AK65">
-        <v>122.26998</v>
+        <v>0</v>
       </c>
       <c r="AL65">
-        <v>266.9317729277635</v>
+        <v>266.7391493995845</v>
       </c>
       <c r="AN65">
         <v>79.36088919763807</v>
@@ -10956,7 +10956,7 @@
         <v>1761.196290656481</v>
       </c>
       <c r="AP65">
-        <v>754.4330897207806</v>
+        <v>754.4330897207807</v>
       </c>
       <c r="AQ65">
         <v>2515.629380377261</v>
@@ -10965,16 +10965,16 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AS65">
-        <v>1926.68732245002</v>
+        <v>1927.098213504757</v>
       </c>
       <c r="AT65">
-        <v>12.06870089379677</v>
+        <v>11.83758993613599</v>
       </c>
       <c r="AU65">
-        <v>268.5970914800606</v>
+        <v>268.3752891603083</v>
       </c>
       <c r="AV65">
-        <v>1.665318552297167</v>
+        <v>1.636139760723788</v>
       </c>
       <c r="AW65">
         <v>203.7833</v>
@@ -11045,7 +11045,7 @@
         <v>1.5</v>
       </c>
       <c r="P66">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>0.6</v>
@@ -11054,22 +11054,22 @@
         <v>81</v>
       </c>
       <c r="U66">
-        <v>402.0395629716839</v>
+        <v>288.779330911016</v>
       </c>
       <c r="V66">
         <v>29.98958333333333</v>
       </c>
       <c r="W66">
-        <v>4984.711459400001</v>
+        <v>3436.2037146</v>
       </c>
       <c r="X66" t="s">
         <v>148</v>
       </c>
       <c r="Y66">
-        <v>402.0395629716839</v>
+        <v>288.779330911016</v>
       </c>
       <c r="Z66">
-        <v>384.0395629716839</v>
+        <v>270.779330911016</v>
       </c>
       <c r="AA66">
         <v>18</v>
@@ -11090,19 +11090,19 @@
         <v>0</v>
       </c>
       <c r="AG66">
-        <v>0.1598166908479147</v>
+        <v>0.1147940683009946</v>
       </c>
       <c r="AH66">
-        <v>0.1598166908479147</v>
+        <v>0.1147940683009946</v>
       </c>
       <c r="AI66">
-        <v>0.1526614238040465</v>
+        <v>0.1076388012571264</v>
       </c>
       <c r="AK66">
-        <v>113.03934</v>
+        <v>0</v>
       </c>
       <c r="AL66">
-        <v>271.0002229716839</v>
+        <v>270.779330911016</v>
       </c>
       <c r="AN66">
         <v>79.36088919763807</v>
@@ -11111,25 +11111,25 @@
         <v>1761.196290656481</v>
       </c>
       <c r="AP66">
-        <v>754.4330897207792</v>
+        <v>754.4330897207797</v>
       </c>
       <c r="AQ66">
-        <v>2515.62938037726</v>
+        <v>2515.629380377261</v>
       </c>
       <c r="AR66">
         <v>626.1831707214252</v>
       </c>
       <c r="AS66">
-        <v>1921.913280301995</v>
+        <v>1922.60604532862</v>
       </c>
       <c r="AT66">
-        <v>8.008646389491727</v>
+        <v>8.029050778428886</v>
       </c>
       <c r="AU66">
-        <v>272.2325205863826</v>
+        <v>272.0160428762535</v>
       </c>
       <c r="AV66">
-        <v>1.232297614698657</v>
+        <v>1.236711965237472</v>
       </c>
       <c r="AW66">
         <v>188.3989</v>
@@ -11200,7 +11200,7 @@
         <v>1.5</v>
       </c>
       <c r="P67">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0.6</v>
@@ -11209,22 +11209,22 @@
         <v>82</v>
       </c>
       <c r="U67">
-        <v>480.1991331359791</v>
+        <v>357.4628332436238</v>
       </c>
       <c r="V67">
         <v>29.98958333333333</v>
       </c>
       <c r="W67">
-        <v>2902.568533500002</v>
+        <v>2329.8494928</v>
       </c>
       <c r="X67" t="s">
         <v>149</v>
       </c>
       <c r="Y67">
-        <v>480.1991331359791</v>
+        <v>357.4628332436238</v>
       </c>
       <c r="Z67">
-        <v>462.1991331359791</v>
+        <v>339.4628332436238</v>
       </c>
       <c r="AA67">
         <v>18</v>
@@ -11245,16 +11245,16 @@
         <v>0</v>
       </c>
       <c r="AG67">
-        <v>0.1908862795456639</v>
+        <v>0.1420967794508809</v>
       </c>
       <c r="AH67">
-        <v>0.1908862795456639</v>
+        <v>0.1420967794508809</v>
       </c>
       <c r="AI67">
-        <v>0.1837310125017957</v>
+        <v>0.1349415124070127</v>
       </c>
       <c r="AK67">
-        <v>122.7362998923553</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>339.4628332436238</v>
@@ -11355,7 +11355,7 @@
         <v>1.5</v>
       </c>
       <c r="P68">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0.6</v>
@@ -11364,22 +11364,22 @@
         <v>81</v>
       </c>
       <c r="U68">
-        <v>338.1124350797022</v>
+        <v>236.2974435190061</v>
       </c>
       <c r="V68">
         <v>29.98958333333333</v>
       </c>
       <c r="W68">
-        <v>3810.769064799999</v>
+        <v>3394.4470578</v>
       </c>
       <c r="X68" t="s">
         <v>150</v>
       </c>
       <c r="Y68">
-        <v>338.1124350797022</v>
+        <v>236.2974435190061</v>
       </c>
       <c r="Z68">
-        <v>320.1124350797022</v>
+        <v>218.2974435190061</v>
       </c>
       <c r="AA68">
         <v>18</v>
@@ -11400,19 +11400,19 @@
         <v>0</v>
       </c>
       <c r="AG68">
-        <v>0.1638355811450562</v>
+        <v>0.1145001631569733</v>
       </c>
       <c r="AH68">
-        <v>0.1638355811450562</v>
+        <v>0.1145001631569733</v>
       </c>
       <c r="AI68">
-        <v>0.1551135107488111</v>
+        <v>0.1057780927607282</v>
       </c>
       <c r="AK68">
-        <v>101.3324400000001</v>
+        <v>0</v>
       </c>
       <c r="AL68">
-        <v>218.779995079702</v>
+        <v>218.2974435190061</v>
       </c>
       <c r="AN68">
         <v>58.68704411253908</v>
@@ -11421,22 +11421,22 @@
         <v>1514.038146022922</v>
       </c>
       <c r="AP68">
-        <v>549.6920444315269</v>
+        <v>549.6920444315276</v>
       </c>
       <c r="AQ68">
-        <v>2063.730190454449</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AR68">
         <v>475.3545887162526</v>
       </c>
       <c r="AS68">
-        <v>1630.096711999408</v>
+        <v>1630.50066935853</v>
       </c>
       <c r="AT68">
         <v>16.22300932804932</v>
       </c>
       <c r="AU68">
-        <v>221.6417339251699</v>
+        <v>221.159182364474</v>
       </c>
       <c r="AV68">
         <v>2.861738845467898</v>
@@ -11510,7 +11510,7 @@
         <v>1.5</v>
       </c>
       <c r="P69">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <v>0.6</v>
@@ -11519,22 +11519,22 @@
         <v>81</v>
       </c>
       <c r="U69">
-        <v>353.0878109937219</v>
+        <v>237.080139021516</v>
       </c>
       <c r="V69">
         <v>29.98958333333333</v>
       </c>
       <c r="W69">
-        <v>2337.723505999995</v>
+        <v>2110.471319699998</v>
       </c>
       <c r="X69" t="s">
         <v>151</v>
       </c>
       <c r="Y69">
-        <v>353.0878109937219</v>
+        <v>237.080139021516</v>
       </c>
       <c r="Z69">
-        <v>335.0878109937219</v>
+        <v>219.080139021516</v>
       </c>
       <c r="AA69">
         <v>18</v>
@@ -11555,19 +11555,19 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0.1710920413079624</v>
+        <v>0.1148794256720686</v>
       </c>
       <c r="AH69">
-        <v>0.1710920413079624</v>
+        <v>0.1148794256720686</v>
       </c>
       <c r="AI69">
-        <v>0.1623699709117173</v>
+        <v>0.1061573552758235</v>
       </c>
       <c r="AK69">
-        <v>115.55719158</v>
+        <v>0</v>
       </c>
       <c r="AL69">
-        <v>219.5306194137218</v>
+        <v>219.080139021516</v>
       </c>
       <c r="AN69">
         <v>58.68704411253908</v>
@@ -11576,7 +11576,7 @@
         <v>1514.038146022922</v>
       </c>
       <c r="AP69">
-        <v>549.6920444315274</v>
+        <v>549.6920444315276</v>
       </c>
       <c r="AQ69">
         <v>2063.73019045445</v>
@@ -11585,16 +11585,16 @@
         <v>475.3545887162526</v>
       </c>
       <c r="AS69">
-        <v>1643.219036488805</v>
+        <v>1643.641334601735</v>
       </c>
       <c r="AT69">
-        <v>29.43218164544738</v>
+        <v>29.47458024248749</v>
       </c>
       <c r="AU69">
-        <v>223.7849036182762</v>
+        <v>223.3360355640682</v>
       </c>
       <c r="AV69">
-        <v>4.254284204554355</v>
+        <v>4.255896542552168</v>
       </c>
       <c r="AW69">
         <v>192.5953193</v>
@@ -11665,7 +11665,7 @@
         <v>1.5</v>
       </c>
       <c r="P70">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0.6</v>
@@ -11680,22 +11680,22 @@
         <v>0.03</v>
       </c>
       <c r="U70">
-        <v>344.7086382048936</v>
+        <v>237.0114078586166</v>
       </c>
       <c r="V70">
         <v>29.98958333333333</v>
       </c>
       <c r="W70">
-        <v>1482.597952200005</v>
+        <v>2131.492974299999</v>
       </c>
       <c r="X70" t="s">
         <v>152</v>
       </c>
       <c r="Y70">
-        <v>344.7086382048936</v>
+        <v>237.0114078586166</v>
       </c>
       <c r="Z70">
-        <v>326.7086382048936</v>
+        <v>219.0114078586166</v>
       </c>
       <c r="AA70">
         <v>18</v>
@@ -11716,19 +11716,19 @@
         <v>0</v>
       </c>
       <c r="AG70">
-        <v>0.1670318338120479</v>
+        <v>0.1148461213364451</v>
       </c>
       <c r="AH70">
-        <v>0.1670318338120479</v>
+        <v>0.1148461213364451</v>
       </c>
       <c r="AI70">
-        <v>0.1583097634158029</v>
+        <v>0.1061240509402</v>
       </c>
       <c r="AK70">
-        <v>107.3596458319358</v>
+        <v>0</v>
       </c>
       <c r="AL70">
-        <v>219.3489923729578</v>
+        <v>219.0114078586166</v>
       </c>
       <c r="AN70">
         <v>58.68704411253908</v>
@@ -11737,7 +11737,7 @@
         <v>1514.038146022922</v>
       </c>
       <c r="AP70">
-        <v>549.6920444315268</v>
+        <v>549.6920444315269</v>
       </c>
       <c r="AQ70">
         <v>2063.730190454449</v>
@@ -11746,19 +11746,19 @@
         <v>475.3545887162526</v>
       </c>
       <c r="AS70">
-        <v>1638.906700478922</v>
+        <v>1639.596572532648</v>
       </c>
       <c r="AT70">
-        <v>24.95380659208142</v>
+        <v>25.29294463426743</v>
       </c>
       <c r="AU70">
-        <v>223.3669650058611</v>
+        <v>223.0392618613828</v>
       </c>
       <c r="AV70">
-        <v>4.017972632903212</v>
+        <v>4.027854002766209</v>
       </c>
       <c r="AW70">
-        <v>178.9327430532263</v>
+        <v>180.2780894892855</v>
       </c>
       <c r="AX70">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="AZ70">
-        <v>-12.3392923185732</v>
+        <v>-10.03791748654211</v>
       </c>
       <c r="BA70">
-        <v>10.0453430532263</v>
+        <v>11.39068948928546</v>
       </c>
       <c r="BB70">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>1.5</v>
       </c>
       <c r="P71">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0.6</v>
@@ -11835,22 +11835,22 @@
         <v>81</v>
       </c>
       <c r="U71">
-        <v>344.7899055804565</v>
+        <v>237.8593225790575</v>
       </c>
       <c r="V71">
         <v>29.98958333333333</v>
       </c>
       <c r="W71">
-        <v>2595.4314409</v>
+        <v>2628.260378600001</v>
       </c>
       <c r="X71" t="s">
         <v>153</v>
       </c>
       <c r="Y71">
-        <v>344.7899055804565</v>
+        <v>237.8593225790575</v>
       </c>
       <c r="Z71">
-        <v>326.7899055804565</v>
+        <v>219.8593225790575</v>
       </c>
       <c r="AA71">
         <v>18</v>
@@ -11871,19 +11871,19 @@
         <v>0</v>
       </c>
       <c r="AG71">
-        <v>0.1670712126881912</v>
+        <v>0.1152569864409838</v>
       </c>
       <c r="AH71">
-        <v>0.1670712126881912</v>
+        <v>0.1152569864409838</v>
       </c>
       <c r="AI71">
-        <v>0.1583491422919461</v>
+        <v>0.1065349160447387</v>
       </c>
       <c r="AK71">
-        <v>106.6033800307256</v>
+        <v>0</v>
       </c>
       <c r="AL71">
-        <v>220.1865255497309</v>
+        <v>219.8593225790575</v>
       </c>
       <c r="AN71">
         <v>58.68704411253908</v>
@@ -11892,25 +11892,25 @@
         <v>1514.038146022922</v>
       </c>
       <c r="AP71">
-        <v>549.6920444315269</v>
+        <v>549.6920444315273</v>
       </c>
       <c r="AQ71">
-        <v>2063.730190454449</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AR71">
         <v>475.3545887162526</v>
       </c>
       <c r="AS71">
-        <v>1649.004031133258</v>
+        <v>1649.053910140883</v>
       </c>
       <c r="AT71">
-        <v>35.01390984538056</v>
+        <v>34.67356080026474</v>
       </c>
       <c r="AU71">
-        <v>224.8381397524136</v>
+        <v>224.439084126724</v>
       </c>
       <c r="AV71">
-        <v>4.651614202682685</v>
+        <v>4.579761547666498</v>
       </c>
       <c r="AW71">
         <v>177.6723000512094</v>
@@ -11981,7 +11981,7 @@
         <v>1.5</v>
       </c>
       <c r="P72">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <v>0.6</v>
@@ -11990,22 +11990,22 @@
         <v>81</v>
       </c>
       <c r="U72">
-        <v>347.7877424764736</v>
+        <v>238.5516455869744</v>
       </c>
       <c r="V72">
         <v>29.98958333333333</v>
       </c>
       <c r="W72">
-        <v>2084.802824500002</v>
+        <v>2489.0879631</v>
       </c>
       <c r="X72" t="s">
         <v>154</v>
       </c>
       <c r="Y72">
-        <v>347.7877424764736</v>
+        <v>238.5516455869744</v>
       </c>
       <c r="Z72">
-        <v>329.7877424764736</v>
+        <v>220.5516455869744</v>
       </c>
       <c r="AA72">
         <v>18</v>
@@ -12026,19 +12026,19 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>0.1685238429350535</v>
+        <v>0.1155924581083167</v>
       </c>
       <c r="AH72">
-        <v>0.1685238429350535</v>
+        <v>0.1155924581083167</v>
       </c>
       <c r="AI72">
-        <v>0.1598017725388084</v>
+        <v>0.1068703877120716</v>
       </c>
       <c r="AK72">
-        <v>109.10934</v>
+        <v>0</v>
       </c>
       <c r="AL72">
-        <v>220.6784024764736</v>
+        <v>220.5516455869744</v>
       </c>
       <c r="AN72">
         <v>58.68704411253908</v>
@@ -12047,7 +12047,7 @@
         <v>1514.038146022922</v>
       </c>
       <c r="AP72">
-        <v>549.6920444315271</v>
+        <v>549.6920444315268</v>
       </c>
       <c r="AQ72">
         <v>2063.730190454449</v>
@@ -12056,16 +12056,16 @@
         <v>475.3545887162526</v>
       </c>
       <c r="AS72">
-        <v>1637.001619046727</v>
+        <v>1637.392681321898</v>
       </c>
       <c r="AT72">
-        <v>23.00800522940394</v>
+        <v>23.09719480279539</v>
       </c>
       <c r="AU72">
-        <v>224.5084256352725</v>
+        <v>224.3895891197965</v>
       </c>
       <c r="AV72">
-        <v>3.830023158798911</v>
+        <v>3.837943532822134</v>
       </c>
       <c r="AW72">
         <v>181.8489</v>
@@ -12136,7 +12136,7 @@
         <v>1.5</v>
       </c>
       <c r="P73">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q73">
         <v>0.6</v>
@@ -12145,22 +12145,22 @@
         <v>82</v>
       </c>
       <c r="U73">
-        <v>418.6846936943224</v>
+        <v>297.548764116905</v>
       </c>
       <c r="V73">
         <v>29.98958333333333</v>
       </c>
       <c r="W73">
-        <v>1370.110724099999</v>
+        <v>403.9174506000018</v>
       </c>
       <c r="X73" t="s">
         <v>155</v>
       </c>
       <c r="Y73">
-        <v>418.6846936943224</v>
+        <v>297.548764116905</v>
       </c>
       <c r="Z73">
-        <v>400.6846936943224</v>
+        <v>279.548764116905</v>
       </c>
       <c r="AA73">
         <v>18</v>
@@ -12181,16 +12181,16 @@
         <v>0</v>
       </c>
       <c r="AG73">
-        <v>0.2028776317906774</v>
+        <v>0.1441800703857428</v>
       </c>
       <c r="AH73">
-        <v>0.2028776317906774</v>
+        <v>0.1441800703857428</v>
       </c>
       <c r="AI73">
-        <v>0.1941555613944323</v>
+        <v>0.1354579999894977</v>
       </c>
       <c r="AK73">
-        <v>121.1359295774175</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>279.548764116905</v>
